--- a/athletes/SteveDavies/activity_overrides.xlsx
+++ b/athletes/SteveDavies/activity_overrides.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.collyer\Dropbox\Running and Cycling\DataPipeline\athletes\SteveDavies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC20000-F32B-4CCE-B181-D2A8FE61DDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67E348F-5728-481B-AE6A-9A12882E15BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3137,7 +3137,7 @@
   <dimension ref="A1:M240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I233" sqref="I233"/>
+      <selection activeCell="C12" sqref="A1:M240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4256,24 +4256,24 @@
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L38">
-        <v>4.91</v>
+        <v>5.46</v>
       </c>
       <c r="M38">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4285,24 +4285,24 @@
         <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="L39">
-        <v>4.8899999999999997</v>
+        <v>5.31</v>
       </c>
       <c r="M39">
-        <v>162</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4314,24 +4314,24 @@
         <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="J40" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="K40" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="L40">
-        <v>4.97</v>
+        <v>5.15</v>
       </c>
       <c r="M40">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4343,24 +4343,24 @@
         <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="L41">
-        <v>4.91</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M41">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -4372,24 +4372,24 @@
         <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="L42">
-        <v>4.9400000000000004</v>
+        <v>5.08</v>
       </c>
       <c r="M42">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4401,24 +4401,24 @@
         <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="L43">
-        <v>5.14</v>
+        <v>5.31</v>
       </c>
       <c r="M43">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4430,24 +4430,24 @@
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="L44">
-        <v>5.46</v>
+        <v>4.84</v>
       </c>
       <c r="M44">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4459,24 +4459,24 @@
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="J45" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="L45">
-        <v>5.31</v>
+        <v>4.87</v>
       </c>
       <c r="M45">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4488,24 +4488,24 @@
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="J46" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="K46" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="L46">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="M46">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4517,24 +4517,24 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="J47" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="L47">
-        <v>4.87</v>
+        <v>4.91</v>
       </c>
       <c r="M47">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4546,24 +4546,24 @@
         <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="J48" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="K48" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="L48">
-        <v>5.0999999999999996</v>
+        <v>5.04</v>
       </c>
       <c r="M48">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4575,24 +4575,24 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="J49" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="K49" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="L49">
         <v>4.91</v>
       </c>
       <c r="M49">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4604,24 +4604,24 @@
         <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="L50">
-        <v>4.9000000000000004</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M50">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4633,24 +4633,24 @@
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="J51" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="L51">
-        <v>5.08</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="M51">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4662,24 +4662,24 @@
         <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="J52" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="K52" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="L52">
-        <v>5.31</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M52">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4691,24 +4691,24 @@
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="J53" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K53" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="L53">
-        <v>4.84</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M53">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4720,24 +4720,24 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="J54" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="K54" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="L54">
-        <v>4.87</v>
+        <v>4.84</v>
       </c>
       <c r="M54">
-        <v>124</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4749,24 +4749,24 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J55" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="K55" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="L55">
-        <v>5.07</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="M55">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4778,24 +4778,24 @@
         <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="J56" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="K56" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="L56">
-        <v>4.91</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M56">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4807,24 +4807,24 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="J57" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="K57" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="L57">
-        <v>5.04</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="M57">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4836,24 +4836,24 @@
         <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="J58" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="K58" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="L58">
-        <v>4.91</v>
+        <v>5.08</v>
       </c>
       <c r="M58">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4865,24 +4865,24 @@
         <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="J59" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="K59" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="L59">
-        <v>5</v>
+        <v>4.92</v>
       </c>
       <c r="M59">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4894,24 +4894,24 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="J60" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="K60" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="L60">
-        <v>5.05</v>
+        <v>4.83</v>
       </c>
       <c r="M60">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4923,24 +4923,24 @@
         <v>5</v>
       </c>
       <c r="I61" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="J61" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="K61" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="L61">
-        <v>5.0199999999999996</v>
+        <v>5.46</v>
       </c>
       <c r="M61">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -4952,24 +4952,24 @@
         <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="J62" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="K62" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="L62">
-        <v>4.8099999999999996</v>
+        <v>4.83</v>
       </c>
       <c r="M62">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4981,24 +4981,24 @@
         <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="J63" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="K63" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="L63">
-        <v>5.0999999999999996</v>
+        <v>4.97</v>
       </c>
       <c r="M63">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5010,24 +5010,24 @@
         <v>5</v>
       </c>
       <c r="I64" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="J64" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="K64" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="L64">
-        <v>5.1100000000000003</v>
+        <v>5.47</v>
       </c>
       <c r="M64">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5039,24 +5039,24 @@
         <v>5</v>
       </c>
       <c r="I65" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="J65" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="K65" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="L65">
-        <v>4.97</v>
+        <v>5.09</v>
       </c>
       <c r="M65">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5068,24 +5068,24 @@
         <v>5</v>
       </c>
       <c r="I66" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="J66" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="K66" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="L66">
-        <v>4.84</v>
+        <v>5.04</v>
       </c>
       <c r="M66">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5097,24 +5097,24 @@
         <v>5</v>
       </c>
       <c r="I67" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="J67" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="K67" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="L67">
-        <v>4.8899999999999997</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M67">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -5126,24 +5126,24 @@
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="J68" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="K68" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="L68">
-        <v>4.9800000000000004</v>
+        <v>4.92</v>
       </c>
       <c r="M68">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5155,24 +5155,24 @@
         <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="J69" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="K69" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L69">
-        <v>5.09</v>
+        <v>4.83</v>
       </c>
       <c r="M69">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5184,53 +5184,53 @@
         <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="J70" t="s">
+        <v>262</v>
+      </c>
+      <c r="K70" t="s">
+        <v>137</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70">
         <v>162</v>
-      </c>
-      <c r="K70" t="s">
-        <v>163</v>
-      </c>
-      <c r="L70">
-        <v>5.07</v>
-      </c>
-      <c r="M70">
-        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="I71" t="s">
+        <v>264</v>
+      </c>
+      <c r="J71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K71" t="s">
+        <v>137</v>
+      </c>
+      <c r="L71">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="M71">
         <v>164</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-      <c r="I71" t="s">
-        <v>165</v>
-      </c>
-      <c r="J71" t="s">
-        <v>166</v>
-      </c>
-      <c r="K71" t="s">
-        <v>167</v>
-      </c>
-      <c r="L71">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="M71">
-        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -5242,24 +5242,24 @@
         <v>5</v>
       </c>
       <c r="I72" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="J72" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="K72" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="L72">
-        <v>5.08</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M72">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -5271,24 +5271,24 @@
         <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="J73" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="K73" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="L73">
-        <v>5.07</v>
+        <v>5.46</v>
       </c>
       <c r="M73">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -5300,24 +5300,24 @@
         <v>5</v>
       </c>
       <c r="I74" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="J74" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="K74" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="L74">
-        <v>4.92</v>
+        <v>5.03</v>
       </c>
       <c r="M74">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -5329,24 +5329,24 @@
         <v>5</v>
       </c>
       <c r="I75" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="J75" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="K75" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="L75">
-        <v>4.83</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="M75">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>321</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -5358,24 +5358,24 @@
         <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>197</v>
+        <v>322</v>
       </c>
       <c r="J76" t="s">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c r="K76" t="s">
-        <v>199</v>
+        <v>324</v>
       </c>
       <c r="L76">
-        <v>5.05</v>
+        <v>4.88</v>
       </c>
       <c r="M76">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>349</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -5387,24 +5387,24 @@
         <v>5</v>
       </c>
       <c r="I77" t="s">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="J77" t="s">
-        <v>202</v>
+        <v>351</v>
       </c>
       <c r="K77" t="s">
-        <v>203</v>
+        <v>352</v>
       </c>
       <c r="L77">
-        <v>5.46</v>
+        <v>4.83</v>
       </c>
       <c r="M77">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>365</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -5416,24 +5416,24 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>209</v>
+        <v>366</v>
       </c>
       <c r="J78" t="s">
-        <v>210</v>
+        <v>367</v>
       </c>
       <c r="K78" t="s">
-        <v>211</v>
+        <v>368</v>
       </c>
       <c r="L78">
         <v>4.83</v>
       </c>
       <c r="M78">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>216</v>
+        <v>373</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -5445,24 +5445,24 @@
         <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>217</v>
+        <v>374</v>
       </c>
       <c r="J79" t="s">
-        <v>218</v>
+        <v>375</v>
       </c>
       <c r="K79" t="s">
-        <v>219</v>
+        <v>376</v>
       </c>
       <c r="L79">
-        <v>4.97</v>
+        <v>5.03</v>
       </c>
       <c r="M79">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>381</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -5474,24 +5474,24 @@
         <v>5</v>
       </c>
       <c r="I80" t="s">
-        <v>221</v>
+        <v>382</v>
       </c>
       <c r="J80" t="s">
-        <v>222</v>
+        <v>383</v>
       </c>
       <c r="K80" t="s">
-        <v>223</v>
+        <v>384</v>
       </c>
       <c r="L80">
-        <v>5.47</v>
+        <v>4.87</v>
       </c>
       <c r="M80">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -5503,24 +5503,24 @@
         <v>5</v>
       </c>
       <c r="I81" t="s">
-        <v>225</v>
+        <v>390</v>
       </c>
       <c r="J81" t="s">
-        <v>226</v>
+        <v>391</v>
       </c>
       <c r="K81" t="s">
-        <v>227</v>
+        <v>392</v>
       </c>
       <c r="L81">
         <v>5.09</v>
       </c>
       <c r="M81">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>228</v>
+        <v>397</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -5532,24 +5532,24 @@
         <v>5</v>
       </c>
       <c r="I82" t="s">
-        <v>229</v>
+        <v>398</v>
       </c>
       <c r="J82" t="s">
-        <v>226</v>
+        <v>399</v>
       </c>
       <c r="K82" t="s">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="L82">
-        <v>5.04</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M82">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>405</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5561,24 +5561,24 @@
         <v>5</v>
       </c>
       <c r="I83" t="s">
-        <v>232</v>
+        <v>406</v>
       </c>
       <c r="J83" t="s">
-        <v>233</v>
+        <v>407</v>
       </c>
       <c r="K83" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="L83">
-        <v>5.12</v>
+        <v>5.16</v>
       </c>
       <c r="M83">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>408</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -5590,24 +5590,24 @@
         <v>5</v>
       </c>
       <c r="I84" t="s">
-        <v>235</v>
+        <v>409</v>
       </c>
       <c r="J84" t="s">
-        <v>236</v>
+        <v>410</v>
       </c>
       <c r="K84" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="L84">
-        <v>4.8499999999999996</v>
+        <v>4.82</v>
       </c>
       <c r="M84">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>411</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5619,24 +5619,24 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>239</v>
+        <v>412</v>
       </c>
       <c r="J85" t="s">
-        <v>240</v>
+        <v>413</v>
       </c>
       <c r="K85" t="s">
-        <v>241</v>
+        <v>414</v>
       </c>
       <c r="L85">
-        <v>4.92</v>
+        <v>4.84</v>
       </c>
       <c r="M85">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>242</v>
+        <v>415</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5648,24 +5648,24 @@
         <v>5</v>
       </c>
       <c r="I86" t="s">
-        <v>243</v>
+        <v>416</v>
       </c>
       <c r="J86" t="s">
-        <v>244</v>
+        <v>417</v>
       </c>
       <c r="K86" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="L86">
-        <v>4.91</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M86">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5677,24 +5677,24 @@
         <v>5</v>
       </c>
       <c r="I87" t="s">
-        <v>247</v>
+        <v>419</v>
       </c>
       <c r="J87" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="K87" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="L87">
-        <v>5.0199999999999996</v>
+        <v>5.08</v>
       </c>
       <c r="M87">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>254</v>
+        <v>420</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -5706,24 +5706,24 @@
         <v>5</v>
       </c>
       <c r="I88" t="s">
-        <v>255</v>
+        <v>421</v>
       </c>
       <c r="J88" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
       <c r="K88" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="L88">
-        <v>4.83</v>
+        <v>4.95</v>
       </c>
       <c r="M88">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>260</v>
+        <v>443</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -5735,24 +5735,24 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
       <c r="J89" t="s">
-        <v>262</v>
+        <v>445</v>
       </c>
       <c r="K89" t="s">
-        <v>137</v>
+        <v>446</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>4.97</v>
       </c>
       <c r="M89">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>263</v>
+        <v>447</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -5764,24 +5764,24 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>264</v>
+        <v>448</v>
       </c>
       <c r="J90" t="s">
-        <v>265</v>
+        <v>449</v>
       </c>
       <c r="K90" t="s">
-        <v>137</v>
+        <v>450</v>
       </c>
       <c r="L90">
-        <v>4.9800000000000004</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="M90">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>266</v>
+        <v>494</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5793,24 +5793,24 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>267</v>
+        <v>495</v>
       </c>
       <c r="J91" t="s">
-        <v>268</v>
+        <v>496</v>
       </c>
       <c r="K91" t="s">
-        <v>137</v>
+        <v>497</v>
       </c>
       <c r="L91">
-        <v>5.1100000000000003</v>
+        <v>4.93</v>
       </c>
       <c r="M91">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>269</v>
+        <v>510</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -5822,24 +5822,24 @@
         <v>5</v>
       </c>
       <c r="I92" t="s">
-        <v>270</v>
+        <v>511</v>
       </c>
       <c r="J92" t="s">
-        <v>271</v>
+        <v>512</v>
       </c>
       <c r="K92" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="L92">
-        <v>5.46</v>
+        <v>5</v>
       </c>
       <c r="M92">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>536</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -5851,24 +5851,24 @@
         <v>5</v>
       </c>
       <c r="I93" t="s">
-        <v>278</v>
+        <v>537</v>
       </c>
       <c r="J93" t="s">
-        <v>279</v>
+        <v>538</v>
       </c>
       <c r="K93" t="s">
-        <v>280</v>
+        <v>539</v>
       </c>
       <c r="L93">
-        <v>5</v>
+        <v>5.47</v>
       </c>
       <c r="M93">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>281</v>
+        <v>540</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -5880,24 +5880,24 @@
         <v>5</v>
       </c>
       <c r="I94" t="s">
-        <v>282</v>
+        <v>541</v>
       </c>
       <c r="J94" t="s">
-        <v>283</v>
+        <v>542</v>
       </c>
       <c r="K94" t="s">
-        <v>284</v>
+        <v>543</v>
       </c>
       <c r="L94">
-        <v>5.0199999999999996</v>
+        <v>5.08</v>
       </c>
       <c r="M94">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>293</v>
+        <v>544</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -5909,24 +5909,24 @@
         <v>5</v>
       </c>
       <c r="I95" t="s">
-        <v>294</v>
+        <v>545</v>
       </c>
       <c r="J95" t="s">
-        <v>295</v>
+        <v>546</v>
       </c>
       <c r="K95" t="s">
-        <v>296</v>
+        <v>547</v>
       </c>
       <c r="L95">
-        <v>5.03</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M95">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>297</v>
+        <v>552</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -5938,24 +5938,24 @@
         <v>5</v>
       </c>
       <c r="I96" t="s">
-        <v>298</v>
+        <v>553</v>
       </c>
       <c r="J96" t="s">
-        <v>299</v>
+        <v>554</v>
       </c>
       <c r="K96" t="s">
-        <v>300</v>
+        <v>555</v>
       </c>
       <c r="L96">
-        <v>4.8499999999999996</v>
+        <v>5.01</v>
       </c>
       <c r="M96">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>305</v>
+        <v>568</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5967,24 +5967,24 @@
         <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>306</v>
+        <v>569</v>
       </c>
       <c r="J97" t="s">
-        <v>307</v>
+        <v>570</v>
       </c>
       <c r="K97" t="s">
-        <v>308</v>
+        <v>571</v>
       </c>
       <c r="L97">
-        <v>4.9400000000000004</v>
+        <v>5.05</v>
       </c>
       <c r="M97">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>309</v>
+        <v>576</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -5996,24 +5996,24 @@
         <v>5</v>
       </c>
       <c r="I98" t="s">
-        <v>310</v>
+        <v>577</v>
       </c>
       <c r="J98" t="s">
-        <v>311</v>
+        <v>578</v>
       </c>
       <c r="K98" t="s">
-        <v>312</v>
+        <v>579</v>
       </c>
       <c r="L98">
-        <v>5.0599999999999996</v>
+        <v>5.22</v>
       </c>
       <c r="M98">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>321</v>
+        <v>580</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -6025,24 +6025,24 @@
         <v>5</v>
       </c>
       <c r="I99" t="s">
-        <v>322</v>
+        <v>581</v>
       </c>
       <c r="J99" t="s">
-        <v>323</v>
+        <v>582</v>
       </c>
       <c r="K99" t="s">
-        <v>324</v>
+        <v>583</v>
       </c>
       <c r="L99">
-        <v>4.88</v>
+        <v>5.07</v>
       </c>
       <c r="M99">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>325</v>
+        <v>588</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -6054,24 +6054,24 @@
         <v>5</v>
       </c>
       <c r="I100" t="s">
-        <v>326</v>
+        <v>589</v>
       </c>
       <c r="J100" t="s">
-        <v>327</v>
+        <v>590</v>
       </c>
       <c r="K100" t="s">
-        <v>328</v>
+        <v>591</v>
       </c>
       <c r="L100">
-        <v>4.8499999999999996</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M100">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>329</v>
+        <v>592</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -6083,24 +6083,24 @@
         <v>5</v>
       </c>
       <c r="I101" t="s">
-        <v>330</v>
+        <v>593</v>
       </c>
       <c r="J101" t="s">
-        <v>331</v>
+        <v>594</v>
       </c>
       <c r="K101" t="s">
-        <v>332</v>
+        <v>595</v>
       </c>
       <c r="L101">
-        <v>4.9400000000000004</v>
+        <v>5.04</v>
       </c>
       <c r="M101">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>333</v>
+        <v>596</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6112,24 +6112,24 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>334</v>
+        <v>597</v>
       </c>
       <c r="J102" t="s">
-        <v>335</v>
+        <v>598</v>
       </c>
       <c r="K102" t="s">
-        <v>336</v>
+        <v>599</v>
       </c>
       <c r="L102">
-        <v>5.1100000000000003</v>
+        <v>5.16</v>
       </c>
       <c r="M102">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>341</v>
+        <v>612</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -6141,24 +6141,24 @@
         <v>5</v>
       </c>
       <c r="I103" t="s">
-        <v>342</v>
+        <v>613</v>
       </c>
       <c r="J103" t="s">
-        <v>343</v>
+        <v>614</v>
       </c>
       <c r="K103" t="s">
-        <v>344</v>
+        <v>615</v>
       </c>
       <c r="L103">
-        <v>4.9000000000000004</v>
+        <v>4.97</v>
       </c>
       <c r="M103">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>349</v>
+        <v>616</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -6170,24 +6170,24 @@
         <v>5</v>
       </c>
       <c r="I104" t="s">
-        <v>350</v>
+        <v>617</v>
       </c>
       <c r="J104" t="s">
-        <v>351</v>
+        <v>618</v>
       </c>
       <c r="K104" t="s">
-        <v>352</v>
+        <v>619</v>
       </c>
       <c r="L104">
-        <v>4.83</v>
+        <v>5.08</v>
       </c>
       <c r="M104">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>357</v>
+        <v>623</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -6199,24 +6199,24 @@
         <v>5</v>
       </c>
       <c r="I105" t="s">
-        <v>358</v>
+        <v>624</v>
       </c>
       <c r="J105" t="s">
-        <v>359</v>
+        <v>622</v>
       </c>
       <c r="K105" t="s">
-        <v>360</v>
+        <v>625</v>
       </c>
       <c r="L105">
-        <v>5.08</v>
+        <v>5.41</v>
       </c>
       <c r="M105">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>361</v>
+        <v>626</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -6228,24 +6228,24 @@
         <v>5</v>
       </c>
       <c r="I106" t="s">
-        <v>362</v>
+        <v>627</v>
       </c>
       <c r="J106" t="s">
-        <v>363</v>
+        <v>628</v>
       </c>
       <c r="K106" t="s">
-        <v>364</v>
+        <v>629</v>
       </c>
       <c r="L106">
-        <v>5.12</v>
+        <v>5.25</v>
       </c>
       <c r="M106">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>365</v>
+        <v>630</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -6257,16 +6257,16 @@
         <v>5</v>
       </c>
       <c r="I107" t="s">
-        <v>366</v>
+        <v>631</v>
       </c>
       <c r="J107" t="s">
-        <v>367</v>
+        <v>632</v>
       </c>
       <c r="K107" t="s">
-        <v>368</v>
+        <v>633</v>
       </c>
       <c r="L107">
-        <v>4.83</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M107">
         <v>159</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>369</v>
+        <v>634</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -6286,24 +6286,24 @@
         <v>5</v>
       </c>
       <c r="I108" t="s">
-        <v>370</v>
+        <v>635</v>
       </c>
       <c r="J108" t="s">
-        <v>371</v>
+        <v>636</v>
       </c>
       <c r="K108" t="s">
-        <v>372</v>
+        <v>637</v>
       </c>
       <c r="L108">
-        <v>5.13</v>
+        <v>5.25</v>
       </c>
       <c r="M108">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>373</v>
+        <v>663</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -6315,24 +6315,24 @@
         <v>5</v>
       </c>
       <c r="I109" t="s">
-        <v>374</v>
+        <v>664</v>
       </c>
       <c r="J109" t="s">
-        <v>375</v>
+        <v>665</v>
       </c>
       <c r="K109" t="s">
-        <v>376</v>
+        <v>666</v>
       </c>
       <c r="L109">
-        <v>5.03</v>
+        <v>5.01</v>
       </c>
       <c r="M109">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>377</v>
+        <v>667</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -6344,24 +6344,24 @@
         <v>5</v>
       </c>
       <c r="I110" t="s">
-        <v>378</v>
+        <v>668</v>
       </c>
       <c r="J110" t="s">
-        <v>379</v>
+        <v>669</v>
       </c>
       <c r="K110" t="s">
-        <v>380</v>
+        <v>670</v>
       </c>
       <c r="L110">
-        <v>5</v>
+        <v>5.04</v>
       </c>
       <c r="M110">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>381</v>
+        <v>671</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -6373,24 +6373,24 @@
         <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>382</v>
+        <v>672</v>
       </c>
       <c r="J111" t="s">
-        <v>383</v>
+        <v>673</v>
       </c>
       <c r="K111" t="s">
-        <v>384</v>
+        <v>674</v>
       </c>
       <c r="L111">
-        <v>4.87</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M111">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>385</v>
+        <v>675</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -6402,24 +6402,24 @@
         <v>5</v>
       </c>
       <c r="I112" t="s">
-        <v>386</v>
+        <v>676</v>
       </c>
       <c r="J112" t="s">
-        <v>387</v>
+        <v>677</v>
       </c>
       <c r="K112" t="s">
-        <v>388</v>
+        <v>678</v>
       </c>
       <c r="L112">
-        <v>4.93</v>
+        <v>5.08</v>
       </c>
       <c r="M112">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>389</v>
+        <v>680</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -6431,24 +6431,24 @@
         <v>5</v>
       </c>
       <c r="I113" t="s">
-        <v>390</v>
+        <v>681</v>
       </c>
       <c r="J113" t="s">
-        <v>391</v>
+        <v>682</v>
       </c>
       <c r="K113" t="s">
-        <v>392</v>
+        <v>683</v>
       </c>
       <c r="L113">
-        <v>5.09</v>
+        <v>5.01</v>
       </c>
       <c r="M113">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>393</v>
+        <v>684</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -6460,24 +6460,24 @@
         <v>5</v>
       </c>
       <c r="I114" t="s">
-        <v>394</v>
+        <v>685</v>
       </c>
       <c r="J114" t="s">
-        <v>395</v>
+        <v>682</v>
       </c>
       <c r="K114" t="s">
-        <v>396</v>
+        <v>686</v>
       </c>
       <c r="L114">
-        <v>4.95</v>
+        <v>5.01</v>
       </c>
       <c r="M114">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>397</v>
+        <v>687</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -6489,16 +6489,16 @@
         <v>5</v>
       </c>
       <c r="I115" t="s">
-        <v>398</v>
+        <v>688</v>
       </c>
       <c r="J115" t="s">
-        <v>399</v>
+        <v>689</v>
       </c>
       <c r="K115" t="s">
-        <v>400</v>
+        <v>690</v>
       </c>
       <c r="L115">
-        <v>4.9800000000000004</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M115">
         <v>160</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>401</v>
+        <v>694</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -6518,24 +6518,24 @@
         <v>5</v>
       </c>
       <c r="I116" t="s">
-        <v>402</v>
+        <v>695</v>
       </c>
       <c r="J116" t="s">
-        <v>403</v>
+        <v>696</v>
       </c>
       <c r="K116" t="s">
-        <v>404</v>
+        <v>697</v>
       </c>
       <c r="L116">
-        <v>5.01</v>
+        <v>5.07</v>
       </c>
       <c r="M116">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>405</v>
+        <v>698</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -6547,24 +6547,24 @@
         <v>5</v>
       </c>
       <c r="I117" t="s">
-        <v>406</v>
+        <v>699</v>
       </c>
       <c r="J117" t="s">
-        <v>407</v>
+        <v>700</v>
       </c>
       <c r="K117" t="s">
-        <v>137</v>
+        <v>701</v>
       </c>
       <c r="L117">
-        <v>5.16</v>
+        <v>5</v>
       </c>
       <c r="M117">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>408</v>
+        <v>702</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -6576,24 +6576,24 @@
         <v>5</v>
       </c>
       <c r="I118" t="s">
-        <v>409</v>
+        <v>703</v>
       </c>
       <c r="J118" t="s">
-        <v>410</v>
+        <v>704</v>
       </c>
       <c r="K118" t="s">
-        <v>130</v>
+        <v>705</v>
       </c>
       <c r="L118">
-        <v>4.82</v>
+        <v>5.01</v>
       </c>
       <c r="M118">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>411</v>
+        <v>710</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -6605,24 +6605,24 @@
         <v>5</v>
       </c>
       <c r="I119" t="s">
-        <v>412</v>
+        <v>711</v>
       </c>
       <c r="J119" t="s">
-        <v>413</v>
+        <v>712</v>
       </c>
       <c r="K119" t="s">
-        <v>414</v>
+        <v>713</v>
       </c>
       <c r="L119">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="M119">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>415</v>
+        <v>714</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -6634,24 +6634,24 @@
         <v>5</v>
       </c>
       <c r="I120" t="s">
-        <v>416</v>
+        <v>715</v>
       </c>
       <c r="J120" t="s">
-        <v>417</v>
+        <v>716</v>
       </c>
       <c r="K120" t="s">
+        <v>658</v>
+      </c>
+      <c r="L120">
+        <v>5.07</v>
+      </c>
+      <c r="M120">
         <v>137</v>
-      </c>
-      <c r="L120">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="M120">
-        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>418</v>
+        <v>718</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -6663,24 +6663,24 @@
         <v>5</v>
       </c>
       <c r="I121" t="s">
-        <v>419</v>
+        <v>719</v>
       </c>
       <c r="J121" t="s">
-        <v>417</v>
+        <v>717</v>
       </c>
       <c r="K121" t="s">
-        <v>137</v>
+        <v>720</v>
       </c>
       <c r="L121">
-        <v>5.08</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M121">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>420</v>
+        <v>721</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -6692,24 +6692,24 @@
         <v>5</v>
       </c>
       <c r="I122" t="s">
-        <v>421</v>
+        <v>722</v>
       </c>
       <c r="J122" t="s">
-        <v>422</v>
+        <v>723</v>
       </c>
       <c r="K122" t="s">
-        <v>414</v>
+        <v>679</v>
       </c>
       <c r="L122">
-        <v>4.95</v>
+        <v>5.03</v>
       </c>
       <c r="M122">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>427</v>
+        <v>724</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -6721,24 +6721,24 @@
         <v>5</v>
       </c>
       <c r="I123" t="s">
-        <v>428</v>
+        <v>725</v>
       </c>
       <c r="J123" t="s">
-        <v>429</v>
+        <v>726</v>
       </c>
       <c r="K123" t="s">
-        <v>430</v>
+        <v>727</v>
       </c>
       <c r="L123">
-        <v>5.0199999999999996</v>
+        <v>4.97</v>
       </c>
       <c r="M123">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>431</v>
+        <v>728</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -6750,24 +6750,24 @@
         <v>5</v>
       </c>
       <c r="I124" t="s">
-        <v>432</v>
+        <v>729</v>
       </c>
       <c r="J124" t="s">
-        <v>433</v>
+        <v>730</v>
       </c>
       <c r="K124" t="s">
-        <v>434</v>
+        <v>731</v>
       </c>
       <c r="L124">
-        <v>4.8600000000000003</v>
+        <v>5</v>
       </c>
       <c r="M124">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>435</v>
+        <v>732</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -6779,24 +6779,24 @@
         <v>5</v>
       </c>
       <c r="I125" t="s">
-        <v>436</v>
+        <v>733</v>
       </c>
       <c r="J125" t="s">
-        <v>437</v>
+        <v>730</v>
       </c>
       <c r="K125" t="s">
-        <v>438</v>
+        <v>734</v>
       </c>
       <c r="L125">
-        <v>4.97</v>
+        <v>5.01</v>
       </c>
       <c r="M125">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>439</v>
+        <v>735</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -6808,24 +6808,24 @@
         <v>5</v>
       </c>
       <c r="I126" t="s">
-        <v>440</v>
+        <v>736</v>
       </c>
       <c r="J126" t="s">
-        <v>441</v>
+        <v>737</v>
       </c>
       <c r="K126" t="s">
-        <v>442</v>
+        <v>738</v>
       </c>
       <c r="L126">
-        <v>5.09</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="M126">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>443</v>
+        <v>739</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -6837,24 +6837,24 @@
         <v>5</v>
       </c>
       <c r="I127" t="s">
-        <v>444</v>
+        <v>740</v>
       </c>
       <c r="J127" t="s">
-        <v>445</v>
+        <v>741</v>
       </c>
       <c r="K127" t="s">
-        <v>446</v>
+        <v>742</v>
       </c>
       <c r="L127">
-        <v>4.97</v>
+        <v>5.23</v>
       </c>
       <c r="M127">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>447</v>
+        <v>743</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -6866,24 +6866,24 @@
         <v>5</v>
       </c>
       <c r="I128" t="s">
-        <v>448</v>
+        <v>744</v>
       </c>
       <c r="J128" t="s">
-        <v>449</v>
+        <v>745</v>
       </c>
       <c r="K128" t="s">
-        <v>450</v>
+        <v>746</v>
       </c>
       <c r="L128">
-        <v>4.8899999999999997</v>
+        <v>5</v>
       </c>
       <c r="M128">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>451</v>
+        <v>747</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -6895,24 +6895,24 @@
         <v>5</v>
       </c>
       <c r="I129" t="s">
-        <v>452</v>
+        <v>748</v>
       </c>
       <c r="J129" t="s">
-        <v>453</v>
+        <v>749</v>
       </c>
       <c r="K129" t="s">
-        <v>454</v>
+        <v>750</v>
       </c>
       <c r="L129">
-        <v>5.14</v>
+        <v>5.12</v>
       </c>
       <c r="M129">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>455</v>
+        <v>751</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -6924,24 +6924,24 @@
         <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>456</v>
+        <v>752</v>
       </c>
       <c r="J130" t="s">
-        <v>457</v>
+        <v>753</v>
       </c>
       <c r="K130" t="s">
-        <v>458</v>
+        <v>754</v>
       </c>
       <c r="L130">
-        <v>5.12</v>
+        <v>5.13</v>
       </c>
       <c r="M130">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>463</v>
+        <v>755</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -6953,24 +6953,24 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>464</v>
+        <v>756</v>
       </c>
       <c r="J131" t="s">
-        <v>465</v>
+        <v>757</v>
       </c>
       <c r="K131" t="s">
-        <v>466</v>
+        <v>758</v>
       </c>
       <c r="L131">
-        <v>5.01</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="M131">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>467</v>
+        <v>759</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -6982,24 +6982,24 @@
         <v>5</v>
       </c>
       <c r="I132" t="s">
-        <v>468</v>
+        <v>760</v>
       </c>
       <c r="J132" t="s">
-        <v>469</v>
+        <v>761</v>
       </c>
       <c r="K132" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="L132">
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
       <c r="M132">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>474</v>
+        <v>762</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -7011,24 +7011,24 @@
         <v>5</v>
       </c>
       <c r="I133" t="s">
-        <v>475</v>
+        <v>763</v>
       </c>
       <c r="J133" t="s">
-        <v>476</v>
+        <v>764</v>
       </c>
       <c r="K133" t="s">
-        <v>477</v>
+        <v>137</v>
       </c>
       <c r="L133">
-        <v>4.9800000000000004</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="M133">
-        <v>162</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>478</v>
+        <v>765</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -7040,24 +7040,24 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>479</v>
+        <v>766</v>
       </c>
       <c r="J134" t="s">
-        <v>480</v>
+        <v>767</v>
       </c>
       <c r="K134" t="s">
-        <v>481</v>
+        <v>768</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>5.12</v>
       </c>
       <c r="M134">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>482</v>
+        <v>769</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -7069,24 +7069,24 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>483</v>
+        <v>770</v>
       </c>
       <c r="J135" t="s">
-        <v>484</v>
+        <v>771</v>
       </c>
       <c r="K135" t="s">
-        <v>485</v>
+        <v>768</v>
       </c>
       <c r="L135">
-        <v>5.05</v>
+        <v>5.08</v>
       </c>
       <c r="M135">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>490</v>
+        <v>772</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -7098,24 +7098,24 @@
         <v>5</v>
       </c>
       <c r="I136" t="s">
-        <v>491</v>
+        <v>773</v>
       </c>
       <c r="J136" t="s">
-        <v>492</v>
+        <v>774</v>
       </c>
       <c r="K136" t="s">
-        <v>493</v>
+        <v>775</v>
       </c>
       <c r="L136">
-        <v>4.9400000000000004</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M136">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>494</v>
+        <v>776</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -7127,24 +7127,24 @@
         <v>5</v>
       </c>
       <c r="I137" t="s">
-        <v>495</v>
+        <v>777</v>
       </c>
       <c r="J137" t="s">
-        <v>496</v>
+        <v>778</v>
       </c>
       <c r="K137" t="s">
-        <v>497</v>
+        <v>779</v>
       </c>
       <c r="L137">
-        <v>4.93</v>
+        <v>5.05</v>
       </c>
       <c r="M137">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>498</v>
+        <v>780</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -7156,24 +7156,24 @@
         <v>5</v>
       </c>
       <c r="I138" t="s">
-        <v>499</v>
+        <v>781</v>
       </c>
       <c r="J138" t="s">
-        <v>500</v>
+        <v>782</v>
       </c>
       <c r="K138" t="s">
-        <v>501</v>
+        <v>783</v>
       </c>
       <c r="L138">
-        <v>5.09</v>
+        <v>5</v>
       </c>
       <c r="M138">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>502</v>
+        <v>784</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -7185,24 +7185,24 @@
         <v>5</v>
       </c>
       <c r="I139" t="s">
-        <v>503</v>
+        <v>785</v>
       </c>
       <c r="J139" t="s">
-        <v>504</v>
+        <v>786</v>
       </c>
       <c r="K139" t="s">
-        <v>505</v>
+        <v>787</v>
       </c>
       <c r="L139">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M139">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>506</v>
+        <v>788</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -7214,16 +7214,16 @@
         <v>5</v>
       </c>
       <c r="I140" t="s">
-        <v>507</v>
+        <v>789</v>
       </c>
       <c r="J140" t="s">
-        <v>508</v>
+        <v>790</v>
       </c>
       <c r="K140" t="s">
-        <v>509</v>
+        <v>791</v>
       </c>
       <c r="L140">
-        <v>5.1100000000000003</v>
+        <v>5.26</v>
       </c>
       <c r="M140">
         <v>159</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>510</v>
+        <v>792</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -7243,24 +7243,24 @@
         <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>511</v>
+        <v>793</v>
       </c>
       <c r="J141" t="s">
-        <v>512</v>
+        <v>794</v>
       </c>
       <c r="K141" t="s">
-        <v>137</v>
+        <v>795</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>5.46</v>
       </c>
       <c r="M141">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>516</v>
+        <v>796</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -7272,24 +7272,24 @@
         <v>5</v>
       </c>
       <c r="I142" t="s">
-        <v>517</v>
+        <v>797</v>
       </c>
       <c r="J142" t="s">
-        <v>518</v>
+        <v>794</v>
       </c>
       <c r="K142" t="s">
-        <v>519</v>
+        <v>791</v>
       </c>
       <c r="L142">
-        <v>4.88</v>
+        <v>4.99</v>
       </c>
       <c r="M142">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>524</v>
+        <v>798</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -7301,24 +7301,24 @@
         <v>5</v>
       </c>
       <c r="I143" t="s">
-        <v>525</v>
+        <v>799</v>
       </c>
       <c r="J143" t="s">
-        <v>526</v>
+        <v>800</v>
       </c>
       <c r="K143" t="s">
-        <v>527</v>
+        <v>801</v>
       </c>
       <c r="L143">
-        <v>5.0199999999999996</v>
+        <v>5.22</v>
       </c>
       <c r="M143">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>528</v>
+        <v>802</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -7330,24 +7330,24 @@
         <v>5</v>
       </c>
       <c r="I144" t="s">
-        <v>529</v>
+        <v>803</v>
       </c>
       <c r="J144" t="s">
-        <v>530</v>
+        <v>804</v>
       </c>
       <c r="K144" t="s">
-        <v>531</v>
+        <v>805</v>
       </c>
       <c r="L144">
-        <v>5.03</v>
+        <v>5.21</v>
       </c>
       <c r="M144">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>536</v>
+        <v>806</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -7359,24 +7359,24 @@
         <v>5</v>
       </c>
       <c r="I145" t="s">
-        <v>537</v>
+        <v>807</v>
       </c>
       <c r="J145" t="s">
-        <v>538</v>
+        <v>808</v>
       </c>
       <c r="K145" t="s">
-        <v>539</v>
+        <v>801</v>
       </c>
       <c r="L145">
-        <v>5.47</v>
+        <v>5.23</v>
       </c>
       <c r="M145">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>540</v>
+        <v>809</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -7388,24 +7388,24 @@
         <v>5</v>
       </c>
       <c r="I146" t="s">
-        <v>541</v>
+        <v>810</v>
       </c>
       <c r="J146" t="s">
-        <v>542</v>
+        <v>811</v>
       </c>
       <c r="K146" t="s">
-        <v>543</v>
+        <v>812</v>
       </c>
       <c r="L146">
-        <v>5.08</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M146">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>544</v>
+        <v>813</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -7417,24 +7417,24 @@
         <v>5</v>
       </c>
       <c r="I147" t="s">
-        <v>545</v>
+        <v>814</v>
       </c>
       <c r="J147" t="s">
-        <v>546</v>
+        <v>815</v>
       </c>
       <c r="K147" t="s">
-        <v>547</v>
+        <v>137</v>
       </c>
       <c r="L147">
-        <v>5.0999999999999996</v>
+        <v>4.99</v>
       </c>
       <c r="M147">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>548</v>
+        <v>816</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -7446,24 +7446,24 @@
         <v>5</v>
       </c>
       <c r="I148" t="s">
-        <v>549</v>
+        <v>817</v>
       </c>
       <c r="J148" t="s">
-        <v>550</v>
+        <v>818</v>
       </c>
       <c r="K148" t="s">
-        <v>551</v>
+        <v>819</v>
       </c>
       <c r="L148">
-        <v>5.04</v>
+        <v>5.19</v>
       </c>
       <c r="M148">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>552</v>
+        <v>831</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -7475,24 +7475,24 @@
         <v>5</v>
       </c>
       <c r="I149" t="s">
-        <v>553</v>
+        <v>832</v>
       </c>
       <c r="J149" t="s">
-        <v>554</v>
+        <v>833</v>
       </c>
       <c r="K149" t="s">
-        <v>555</v>
+        <v>834</v>
       </c>
       <c r="L149">
-        <v>5.01</v>
+        <v>5.36</v>
       </c>
       <c r="M149">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>556</v>
+        <v>835</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -7504,24 +7504,24 @@
         <v>5</v>
       </c>
       <c r="I150" t="s">
-        <v>557</v>
+        <v>836</v>
       </c>
       <c r="J150" t="s">
-        <v>558</v>
+        <v>837</v>
       </c>
       <c r="K150" t="s">
-        <v>559</v>
+        <v>834</v>
       </c>
       <c r="L150">
-        <v>4.9800000000000004</v>
+        <v>5.31</v>
       </c>
       <c r="M150">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>560</v>
+        <v>841</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -7533,24 +7533,24 @@
         <v>5</v>
       </c>
       <c r="I151" t="s">
-        <v>561</v>
+        <v>842</v>
       </c>
       <c r="J151" t="s">
-        <v>562</v>
+        <v>843</v>
       </c>
       <c r="K151" t="s">
-        <v>563</v>
+        <v>658</v>
       </c>
       <c r="L151">
-        <v>4.9800000000000004</v>
+        <v>4.91</v>
       </c>
       <c r="M151">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>564</v>
+        <v>844</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -7562,24 +7562,24 @@
         <v>5</v>
       </c>
       <c r="I152" t="s">
-        <v>565</v>
+        <v>845</v>
       </c>
       <c r="J152" t="s">
-        <v>566</v>
+        <v>846</v>
       </c>
       <c r="K152" t="s">
-        <v>567</v>
+        <v>658</v>
       </c>
       <c r="L152">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="M152">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>568</v>
+        <v>847</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -7591,24 +7591,24 @@
         <v>5</v>
       </c>
       <c r="I153" t="s">
-        <v>569</v>
+        <v>848</v>
       </c>
       <c r="J153" t="s">
-        <v>570</v>
+        <v>849</v>
       </c>
       <c r="K153" t="s">
-        <v>571</v>
+        <v>850</v>
       </c>
       <c r="L153">
-        <v>5.05</v>
+        <v>5.03</v>
       </c>
       <c r="M153">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>576</v>
+        <v>851</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -7620,24 +7620,24 @@
         <v>5</v>
       </c>
       <c r="I154" t="s">
-        <v>577</v>
+        <v>852</v>
       </c>
       <c r="J154" t="s">
-        <v>578</v>
+        <v>853</v>
       </c>
       <c r="K154" t="s">
-        <v>579</v>
+        <v>854</v>
       </c>
       <c r="L154">
-        <v>5.22</v>
+        <v>5.04</v>
       </c>
       <c r="M154">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>580</v>
+        <v>855</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -7649,24 +7649,24 @@
         <v>5</v>
       </c>
       <c r="I155" t="s">
-        <v>581</v>
+        <v>856</v>
       </c>
       <c r="J155" t="s">
-        <v>582</v>
+        <v>853</v>
       </c>
       <c r="K155" t="s">
-        <v>583</v>
+        <v>854</v>
       </c>
       <c r="L155">
-        <v>5.07</v>
+        <v>5.03</v>
       </c>
       <c r="M155">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>584</v>
+        <v>857</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -7678,24 +7678,24 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>585</v>
+        <v>858</v>
       </c>
       <c r="J156" t="s">
-        <v>586</v>
+        <v>859</v>
       </c>
       <c r="K156" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="L156">
         <v>4.96</v>
       </c>
       <c r="M156">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>588</v>
+        <v>860</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -7707,24 +7707,24 @@
         <v>5</v>
       </c>
       <c r="I157" t="s">
-        <v>589</v>
+        <v>861</v>
       </c>
       <c r="J157" t="s">
-        <v>590</v>
+        <v>862</v>
       </c>
       <c r="K157" t="s">
-        <v>591</v>
+        <v>863</v>
       </c>
       <c r="L157">
-        <v>4.9400000000000004</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M157">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>592</v>
+        <v>864</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -7736,24 +7736,24 @@
         <v>5</v>
       </c>
       <c r="I158" t="s">
-        <v>593</v>
+        <v>865</v>
       </c>
       <c r="J158" t="s">
-        <v>594</v>
+        <v>866</v>
       </c>
       <c r="K158" t="s">
-        <v>595</v>
+        <v>137</v>
       </c>
       <c r="L158">
-        <v>5.04</v>
+        <v>5.07</v>
       </c>
       <c r="M158">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>596</v>
+        <v>867</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -7765,24 +7765,24 @@
         <v>5</v>
       </c>
       <c r="I159" t="s">
-        <v>597</v>
+        <v>868</v>
       </c>
       <c r="J159" t="s">
-        <v>598</v>
+        <v>869</v>
       </c>
       <c r="K159" t="s">
-        <v>599</v>
+        <v>870</v>
       </c>
       <c r="L159">
-        <v>5.16</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M159">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>604</v>
+        <v>875</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -7794,24 +7794,24 @@
         <v>5</v>
       </c>
       <c r="I160" t="s">
-        <v>605</v>
+        <v>876</v>
       </c>
       <c r="J160" t="s">
-        <v>606</v>
+        <v>877</v>
       </c>
       <c r="K160" t="s">
-        <v>607</v>
+        <v>878</v>
       </c>
       <c r="L160">
-        <v>5.0999999999999996</v>
+        <v>5.29</v>
       </c>
       <c r="M160">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>608</v>
+        <v>879</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -7823,24 +7823,24 @@
         <v>5</v>
       </c>
       <c r="I161" t="s">
-        <v>609</v>
+        <v>880</v>
       </c>
       <c r="J161" t="s">
-        <v>610</v>
+        <v>881</v>
       </c>
       <c r="K161" t="s">
-        <v>611</v>
+        <v>882</v>
       </c>
       <c r="L161">
-        <v>4.93</v>
+        <v>4.88</v>
       </c>
       <c r="M161">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>612</v>
+        <v>891</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7852,24 +7852,24 @@
         <v>5</v>
       </c>
       <c r="I162" t="s">
-        <v>613</v>
+        <v>892</v>
       </c>
       <c r="J162" t="s">
-        <v>614</v>
+        <v>893</v>
       </c>
       <c r="K162" t="s">
-        <v>615</v>
+        <v>894</v>
       </c>
       <c r="L162">
-        <v>4.97</v>
+        <v>5.36</v>
       </c>
       <c r="M162">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>616</v>
+        <v>895</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -7881,24 +7881,24 @@
         <v>5</v>
       </c>
       <c r="I163" t="s">
-        <v>617</v>
+        <v>896</v>
       </c>
       <c r="J163" t="s">
-        <v>618</v>
+        <v>897</v>
       </c>
       <c r="K163" t="s">
-        <v>619</v>
+        <v>898</v>
       </c>
       <c r="L163">
         <v>5.08</v>
       </c>
       <c r="M163">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>620</v>
+        <v>902</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7910,1205 +7910,1205 @@
         <v>5</v>
       </c>
       <c r="I164" t="s">
-        <v>621</v>
+        <v>903</v>
       </c>
       <c r="J164" t="s">
-        <v>622</v>
+        <v>904</v>
       </c>
       <c r="K164" t="s">
-        <v>493</v>
+        <v>905</v>
       </c>
       <c r="L164">
-        <v>5.03</v>
+        <v>5</v>
       </c>
       <c r="M164">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>623</v>
+        <v>17</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165">
         <v>5</v>
       </c>
       <c r="I165" t="s">
-        <v>624</v>
+        <v>18</v>
       </c>
       <c r="J165" t="s">
-        <v>622</v>
+        <v>19</v>
       </c>
       <c r="K165" t="s">
-        <v>625</v>
+        <v>20</v>
       </c>
       <c r="L165">
-        <v>5.41</v>
+        <v>4.91</v>
       </c>
       <c r="M165">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>626</v>
+        <v>21</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <v>5</v>
       </c>
       <c r="I166" t="s">
-        <v>627</v>
+        <v>22</v>
       </c>
       <c r="J166" t="s">
-        <v>628</v>
+        <v>23</v>
       </c>
       <c r="K166" t="s">
-        <v>629</v>
+        <v>24</v>
       </c>
       <c r="L166">
-        <v>5.25</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="M166">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>630</v>
+        <v>25</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167">
         <v>5</v>
       </c>
       <c r="I167" t="s">
-        <v>631</v>
+        <v>26</v>
       </c>
       <c r="J167" t="s">
-        <v>632</v>
+        <v>27</v>
       </c>
       <c r="K167" t="s">
-        <v>633</v>
+        <v>28</v>
       </c>
       <c r="L167">
-        <v>5.0199999999999996</v>
+        <v>4.97</v>
       </c>
       <c r="M167">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>634</v>
+        <v>37</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <v>5</v>
       </c>
       <c r="I168" t="s">
-        <v>635</v>
+        <v>38</v>
       </c>
       <c r="J168" t="s">
-        <v>636</v>
+        <v>39</v>
       </c>
       <c r="K168" t="s">
-        <v>637</v>
+        <v>40</v>
       </c>
       <c r="L168">
-        <v>5.25</v>
+        <v>4.91</v>
       </c>
       <c r="M168">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>638</v>
+        <v>41</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169">
         <v>5</v>
       </c>
       <c r="I169" t="s">
-        <v>639</v>
+        <v>42</v>
       </c>
       <c r="J169" t="s">
-        <v>640</v>
+        <v>43</v>
       </c>
       <c r="K169" t="s">
-        <v>641</v>
+        <v>44</v>
       </c>
       <c r="L169">
-        <v>5.04</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M169">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>642</v>
+        <v>45</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <v>5</v>
       </c>
       <c r="I170" t="s">
-        <v>643</v>
+        <v>46</v>
       </c>
       <c r="J170" t="s">
-        <v>644</v>
+        <v>47</v>
       </c>
       <c r="K170" t="s">
-        <v>645</v>
+        <v>48</v>
       </c>
       <c r="L170">
-        <v>4.84</v>
+        <v>5.14</v>
       </c>
       <c r="M170">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>646</v>
+        <v>64</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171">
         <v>5</v>
       </c>
       <c r="I171" t="s">
-        <v>647</v>
+        <v>65</v>
       </c>
       <c r="J171" t="s">
-        <v>644</v>
+        <v>66</v>
       </c>
       <c r="K171" t="s">
-        <v>641</v>
+        <v>67</v>
       </c>
       <c r="L171">
-        <v>5.0999999999999996</v>
+        <v>4.87</v>
       </c>
       <c r="M171">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>648</v>
+        <v>68</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172">
         <v>5</v>
       </c>
       <c r="I172" t="s">
-        <v>649</v>
+        <v>69</v>
       </c>
       <c r="J172" t="s">
-        <v>650</v>
+        <v>70</v>
       </c>
       <c r="K172" t="s">
-        <v>651</v>
+        <v>71</v>
       </c>
       <c r="L172">
-        <v>4.87</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M172">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>659</v>
+        <v>76</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <v>5</v>
       </c>
       <c r="I173" t="s">
-        <v>660</v>
+        <v>77</v>
       </c>
       <c r="J173" t="s">
-        <v>661</v>
+        <v>78</v>
       </c>
       <c r="K173" t="s">
-        <v>662</v>
+        <v>79</v>
       </c>
       <c r="L173">
-        <v>5.05</v>
+        <v>4.91</v>
       </c>
       <c r="M173">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>663</v>
+        <v>119</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174">
         <v>5</v>
       </c>
       <c r="I174" t="s">
-        <v>664</v>
+        <v>120</v>
       </c>
       <c r="J174" t="s">
-        <v>665</v>
+        <v>121</v>
       </c>
       <c r="K174" t="s">
-        <v>666</v>
+        <v>122</v>
       </c>
       <c r="L174">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="M174">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>667</v>
+        <v>123</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175">
         <v>5</v>
       </c>
       <c r="I175" t="s">
-        <v>668</v>
+        <v>124</v>
       </c>
       <c r="J175" t="s">
-        <v>669</v>
+        <v>125</v>
       </c>
       <c r="K175" t="s">
-        <v>670</v>
+        <v>40</v>
       </c>
       <c r="L175">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="M175">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>671</v>
+        <v>142</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176">
         <v>5</v>
       </c>
       <c r="I176" t="s">
-        <v>672</v>
+        <v>143</v>
       </c>
       <c r="J176" t="s">
-        <v>673</v>
+        <v>144</v>
       </c>
       <c r="K176" t="s">
-        <v>674</v>
+        <v>79</v>
       </c>
       <c r="L176">
-        <v>5.0199999999999996</v>
+        <v>4.97</v>
       </c>
       <c r="M176">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>675</v>
+        <v>156</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177">
         <v>5</v>
       </c>
       <c r="I177" t="s">
-        <v>676</v>
+        <v>157</v>
       </c>
       <c r="J177" t="s">
-        <v>677</v>
+        <v>158</v>
       </c>
       <c r="K177" t="s">
-        <v>678</v>
+        <v>159</v>
       </c>
       <c r="L177">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="M177">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178">
         <v>5</v>
       </c>
       <c r="I178" t="s">
-        <v>681</v>
+        <v>161</v>
       </c>
       <c r="J178" t="s">
-        <v>682</v>
+        <v>162</v>
       </c>
       <c r="K178" t="s">
-        <v>683</v>
+        <v>163</v>
       </c>
       <c r="L178">
-        <v>5.01</v>
+        <v>5.07</v>
       </c>
       <c r="M178">
-        <v>151</v>
+        <v>110</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>684</v>
+        <v>176</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179">
         <v>5</v>
       </c>
       <c r="I179" t="s">
-        <v>685</v>
+        <v>177</v>
       </c>
       <c r="J179" t="s">
-        <v>682</v>
+        <v>178</v>
       </c>
       <c r="K179" t="s">
-        <v>686</v>
+        <v>179</v>
       </c>
       <c r="L179">
-        <v>5.01</v>
+        <v>5.07</v>
       </c>
       <c r="M179">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>687</v>
+        <v>196</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180">
         <v>5</v>
       </c>
       <c r="I180" t="s">
-        <v>688</v>
+        <v>197</v>
       </c>
       <c r="J180" t="s">
-        <v>689</v>
+        <v>198</v>
       </c>
       <c r="K180" t="s">
-        <v>690</v>
+        <v>199</v>
       </c>
       <c r="L180">
-        <v>5.0199999999999996</v>
+        <v>5.05</v>
       </c>
       <c r="M180">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>694</v>
+        <v>231</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <v>5</v>
       </c>
       <c r="I181" t="s">
-        <v>695</v>
+        <v>232</v>
       </c>
       <c r="J181" t="s">
-        <v>696</v>
+        <v>233</v>
       </c>
       <c r="K181" t="s">
-        <v>697</v>
+        <v>48</v>
       </c>
       <c r="L181">
-        <v>5.07</v>
+        <v>5.12</v>
       </c>
       <c r="M181">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>698</v>
+        <v>242</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <v>5</v>
       </c>
       <c r="I182" t="s">
-        <v>699</v>
+        <v>243</v>
       </c>
       <c r="J182" t="s">
-        <v>700</v>
+        <v>244</v>
       </c>
       <c r="K182" t="s">
-        <v>701</v>
+        <v>245</v>
       </c>
       <c r="L182">
-        <v>5</v>
+        <v>4.91</v>
       </c>
       <c r="M182">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>702</v>
+        <v>246</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183">
         <v>5</v>
       </c>
       <c r="I183" t="s">
-        <v>703</v>
+        <v>247</v>
       </c>
       <c r="J183" t="s">
-        <v>704</v>
+        <v>248</v>
       </c>
       <c r="K183" t="s">
-        <v>705</v>
+        <v>249</v>
       </c>
       <c r="L183">
-        <v>5.01</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M183">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>710</v>
+        <v>277</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>5</v>
       </c>
       <c r="I184" t="s">
-        <v>711</v>
+        <v>278</v>
       </c>
       <c r="J184" t="s">
-        <v>712</v>
+        <v>279</v>
       </c>
       <c r="K184" t="s">
-        <v>713</v>
+        <v>280</v>
       </c>
       <c r="L184">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>714</v>
+        <v>281</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185">
         <v>5</v>
       </c>
       <c r="I185" t="s">
-        <v>715</v>
+        <v>282</v>
       </c>
       <c r="J185" t="s">
-        <v>716</v>
+        <v>283</v>
       </c>
       <c r="K185" t="s">
-        <v>658</v>
+        <v>284</v>
       </c>
       <c r="L185">
-        <v>5.07</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M185">
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>718</v>
+        <v>297</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186">
         <v>5</v>
       </c>
       <c r="I186" t="s">
-        <v>719</v>
+        <v>298</v>
       </c>
       <c r="J186" t="s">
-        <v>717</v>
+        <v>299</v>
       </c>
       <c r="K186" t="s">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="L186">
-        <v>5.0199999999999996</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M186">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>721</v>
+        <v>305</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187">
         <v>5</v>
       </c>
       <c r="I187" t="s">
-        <v>722</v>
+        <v>306</v>
       </c>
       <c r="J187" t="s">
-        <v>723</v>
+        <v>307</v>
       </c>
       <c r="K187" t="s">
-        <v>679</v>
+        <v>308</v>
       </c>
       <c r="L187">
-        <v>5.03</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M187">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>724</v>
+        <v>325</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <v>5</v>
       </c>
       <c r="I188" t="s">
-        <v>725</v>
+        <v>326</v>
       </c>
       <c r="J188" t="s">
-        <v>726</v>
+        <v>327</v>
       </c>
       <c r="K188" t="s">
-        <v>727</v>
+        <v>328</v>
       </c>
       <c r="L188">
-        <v>4.97</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M188">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>728</v>
+        <v>329</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189">
         <v>5</v>
       </c>
       <c r="I189" t="s">
-        <v>729</v>
+        <v>330</v>
       </c>
       <c r="J189" t="s">
-        <v>730</v>
+        <v>331</v>
       </c>
       <c r="K189" t="s">
-        <v>731</v>
+        <v>332</v>
       </c>
       <c r="L189">
-        <v>5</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M189">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>732</v>
+        <v>333</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190">
         <v>5</v>
       </c>
       <c r="I190" t="s">
-        <v>733</v>
+        <v>334</v>
       </c>
       <c r="J190" t="s">
-        <v>730</v>
+        <v>335</v>
       </c>
       <c r="K190" t="s">
-        <v>734</v>
+        <v>336</v>
       </c>
       <c r="L190">
-        <v>5.01</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M190">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>735</v>
+        <v>341</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <v>5</v>
       </c>
       <c r="I191" t="s">
-        <v>736</v>
+        <v>342</v>
       </c>
       <c r="J191" t="s">
-        <v>737</v>
+        <v>343</v>
       </c>
       <c r="K191" t="s">
-        <v>738</v>
+        <v>344</v>
       </c>
       <c r="L191">
-        <v>5.0599999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M191">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>739</v>
+        <v>357</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192">
         <v>5</v>
       </c>
       <c r="I192" t="s">
-        <v>740</v>
+        <v>358</v>
       </c>
       <c r="J192" t="s">
-        <v>741</v>
+        <v>359</v>
       </c>
       <c r="K192" t="s">
-        <v>742</v>
+        <v>360</v>
       </c>
       <c r="L192">
-        <v>5.23</v>
+        <v>5.08</v>
       </c>
       <c r="M192">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>743</v>
+        <v>361</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>5</v>
       </c>
       <c r="I193" t="s">
-        <v>744</v>
+        <v>362</v>
       </c>
       <c r="J193" t="s">
-        <v>745</v>
+        <v>363</v>
       </c>
       <c r="K193" t="s">
-        <v>746</v>
+        <v>364</v>
       </c>
       <c r="L193">
-        <v>5</v>
+        <v>5.12</v>
       </c>
       <c r="M193">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>747</v>
+        <v>369</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194">
         <v>5</v>
       </c>
       <c r="I194" t="s">
-        <v>748</v>
+        <v>370</v>
       </c>
       <c r="J194" t="s">
-        <v>749</v>
+        <v>371</v>
       </c>
       <c r="K194" t="s">
-        <v>750</v>
+        <v>372</v>
       </c>
       <c r="L194">
-        <v>5.12</v>
+        <v>5.13</v>
       </c>
       <c r="M194">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>751</v>
+        <v>377</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195">
         <v>5</v>
       </c>
       <c r="I195" t="s">
-        <v>752</v>
+        <v>378</v>
       </c>
       <c r="J195" t="s">
-        <v>753</v>
+        <v>379</v>
       </c>
       <c r="K195" t="s">
-        <v>754</v>
+        <v>380</v>
       </c>
       <c r="L195">
-        <v>5.13</v>
+        <v>5</v>
       </c>
       <c r="M195">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>755</v>
+        <v>385</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <v>5</v>
       </c>
       <c r="I196" t="s">
-        <v>756</v>
+        <v>386</v>
       </c>
       <c r="J196" t="s">
-        <v>757</v>
+        <v>387</v>
       </c>
       <c r="K196" t="s">
-        <v>758</v>
+        <v>388</v>
       </c>
       <c r="L196">
-        <v>5.0599999999999996</v>
+        <v>4.93</v>
       </c>
       <c r="M196">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>759</v>
+        <v>393</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <v>5</v>
       </c>
       <c r="I197" t="s">
-        <v>760</v>
+        <v>394</v>
       </c>
       <c r="J197" t="s">
-        <v>761</v>
+        <v>395</v>
       </c>
       <c r="K197" t="s">
-        <v>130</v>
+        <v>396</v>
       </c>
       <c r="L197">
-        <v>5.12</v>
+        <v>4.95</v>
       </c>
       <c r="M197">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>762</v>
+        <v>401</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198">
         <v>5</v>
       </c>
       <c r="I198" t="s">
-        <v>763</v>
+        <v>402</v>
       </c>
       <c r="J198" t="s">
-        <v>764</v>
+        <v>403</v>
       </c>
       <c r="K198" t="s">
-        <v>137</v>
+        <v>404</v>
       </c>
       <c r="L198">
-        <v>5.0599999999999996</v>
+        <v>5.01</v>
       </c>
       <c r="M198">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>765</v>
+        <v>427</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199">
         <v>5</v>
       </c>
       <c r="I199" t="s">
-        <v>766</v>
+        <v>428</v>
       </c>
       <c r="J199" t="s">
-        <v>767</v>
+        <v>429</v>
       </c>
       <c r="K199" t="s">
-        <v>768</v>
+        <v>430</v>
       </c>
       <c r="L199">
-        <v>5.12</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M199">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>769</v>
+        <v>431</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>5</v>
       </c>
       <c r="I200" t="s">
-        <v>770</v>
+        <v>432</v>
       </c>
       <c r="J200" t="s">
-        <v>771</v>
+        <v>433</v>
       </c>
       <c r="K200" t="s">
-        <v>768</v>
+        <v>434</v>
       </c>
       <c r="L200">
-        <v>5.08</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="M200">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>772</v>
+        <v>435</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201">
         <v>5</v>
       </c>
       <c r="I201" t="s">
-        <v>773</v>
+        <v>436</v>
       </c>
       <c r="J201" t="s">
-        <v>774</v>
+        <v>437</v>
       </c>
       <c r="K201" t="s">
-        <v>775</v>
+        <v>438</v>
       </c>
       <c r="L201">
-        <v>5.0199999999999996</v>
+        <v>4.97</v>
       </c>
       <c r="M201">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>776</v>
+        <v>439</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202">
         <v>5</v>
       </c>
       <c r="I202" t="s">
-        <v>777</v>
+        <v>440</v>
       </c>
       <c r="J202" t="s">
-        <v>778</v>
+        <v>441</v>
       </c>
       <c r="K202" t="s">
-        <v>779</v>
+        <v>442</v>
       </c>
       <c r="L202">
-        <v>5.05</v>
+        <v>5.09</v>
       </c>
       <c r="M202">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>780</v>
+        <v>451</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203">
         <v>5</v>
       </c>
       <c r="I203" t="s">
-        <v>781</v>
+        <v>452</v>
       </c>
       <c r="J203" t="s">
-        <v>782</v>
+        <v>453</v>
       </c>
       <c r="K203" t="s">
-        <v>783</v>
+        <v>454</v>
       </c>
       <c r="L203">
-        <v>5</v>
+        <v>5.14</v>
       </c>
       <c r="M203">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>784</v>
+        <v>455</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204">
         <v>5</v>
       </c>
       <c r="I204" t="s">
-        <v>785</v>
+        <v>456</v>
       </c>
       <c r="J204" t="s">
-        <v>786</v>
+        <v>457</v>
       </c>
       <c r="K204" t="s">
-        <v>787</v>
+        <v>458</v>
       </c>
       <c r="L204">
-        <v>5.0199999999999996</v>
+        <v>5.12</v>
       </c>
       <c r="M204">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>788</v>
+        <v>463</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205">
         <v>5</v>
       </c>
       <c r="I205" t="s">
-        <v>789</v>
+        <v>464</v>
       </c>
       <c r="J205" t="s">
-        <v>790</v>
+        <v>465</v>
       </c>
       <c r="K205" t="s">
-        <v>791</v>
+        <v>466</v>
       </c>
       <c r="L205">
-        <v>5.26</v>
+        <v>5.01</v>
       </c>
       <c r="M205">
         <v>159</v>
@@ -9116,405 +9116,405 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>792</v>
+        <v>467</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>5</v>
       </c>
       <c r="I206" t="s">
-        <v>793</v>
+        <v>468</v>
       </c>
       <c r="J206" t="s">
-        <v>794</v>
+        <v>469</v>
       </c>
       <c r="K206" t="s">
-        <v>795</v>
+        <v>71</v>
       </c>
       <c r="L206">
-        <v>5.46</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M206">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>796</v>
+        <v>474</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
         <v>5</v>
       </c>
       <c r="I207" t="s">
-        <v>797</v>
+        <v>475</v>
       </c>
       <c r="J207" t="s">
-        <v>794</v>
+        <v>476</v>
       </c>
       <c r="K207" t="s">
-        <v>791</v>
+        <v>477</v>
       </c>
       <c r="L207">
-        <v>4.99</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M207">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>798</v>
+        <v>478</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208">
         <v>5</v>
       </c>
       <c r="I208" t="s">
-        <v>799</v>
+        <v>479</v>
       </c>
       <c r="J208" t="s">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="K208" t="s">
-        <v>801</v>
+        <v>481</v>
       </c>
       <c r="L208">
-        <v>5.22</v>
+        <v>5</v>
       </c>
       <c r="M208">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>802</v>
+        <v>482</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209">
         <v>5</v>
       </c>
       <c r="I209" t="s">
-        <v>803</v>
+        <v>483</v>
       </c>
       <c r="J209" t="s">
-        <v>804</v>
+        <v>484</v>
       </c>
       <c r="K209" t="s">
-        <v>805</v>
+        <v>485</v>
       </c>
       <c r="L209">
-        <v>5.21</v>
+        <v>5.05</v>
       </c>
       <c r="M209">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>806</v>
+        <v>490</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210">
         <v>5</v>
       </c>
       <c r="I210" t="s">
-        <v>807</v>
+        <v>491</v>
       </c>
       <c r="J210" t="s">
-        <v>808</v>
+        <v>492</v>
       </c>
       <c r="K210" t="s">
-        <v>801</v>
+        <v>493</v>
       </c>
       <c r="L210">
-        <v>5.23</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M210">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>809</v>
+        <v>498</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211">
         <v>5</v>
       </c>
       <c r="I211" t="s">
-        <v>810</v>
+        <v>499</v>
       </c>
       <c r="J211" t="s">
-        <v>811</v>
+        <v>500</v>
       </c>
       <c r="K211" t="s">
-        <v>812</v>
+        <v>501</v>
       </c>
       <c r="L211">
-        <v>5.0199999999999996</v>
+        <v>5.09</v>
       </c>
       <c r="M211">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>813</v>
+        <v>502</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212">
         <v>5</v>
       </c>
       <c r="I212" t="s">
-        <v>814</v>
+        <v>503</v>
       </c>
       <c r="J212" t="s">
-        <v>815</v>
+        <v>504</v>
       </c>
       <c r="K212" t="s">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="L212">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="M212">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>816</v>
+        <v>506</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213">
         <v>5</v>
       </c>
       <c r="I213" t="s">
-        <v>817</v>
+        <v>507</v>
       </c>
       <c r="J213" t="s">
-        <v>818</v>
+        <v>508</v>
       </c>
       <c r="K213" t="s">
-        <v>819</v>
+        <v>509</v>
       </c>
       <c r="L213">
-        <v>5.19</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M213">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>820</v>
+        <v>516</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214">
         <v>5</v>
       </c>
       <c r="I214" t="s">
-        <v>821</v>
+        <v>517</v>
       </c>
       <c r="J214" t="s">
-        <v>822</v>
+        <v>518</v>
       </c>
       <c r="K214" t="s">
-        <v>823</v>
+        <v>519</v>
       </c>
       <c r="L214">
-        <v>4.99</v>
+        <v>4.88</v>
       </c>
       <c r="M214">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>824</v>
+        <v>524</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215">
         <v>5</v>
       </c>
       <c r="I215" t="s">
-        <v>825</v>
+        <v>525</v>
       </c>
       <c r="J215" t="s">
-        <v>826</v>
+        <v>526</v>
       </c>
       <c r="K215" t="s">
-        <v>48</v>
+        <v>527</v>
       </c>
       <c r="L215">
-        <v>5.13</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M215">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>827</v>
+        <v>528</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216">
         <v>5</v>
       </c>
       <c r="I216" t="s">
-        <v>828</v>
+        <v>529</v>
       </c>
       <c r="J216" t="s">
-        <v>829</v>
+        <v>530</v>
       </c>
       <c r="K216" t="s">
-        <v>830</v>
+        <v>531</v>
       </c>
       <c r="L216">
-        <v>4.93</v>
+        <v>5.03</v>
       </c>
       <c r="M216">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>831</v>
+        <v>548</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217">
         <v>5</v>
       </c>
       <c r="I217" t="s">
-        <v>832</v>
+        <v>549</v>
       </c>
       <c r="J217" t="s">
-        <v>833</v>
+        <v>550</v>
       </c>
       <c r="K217" t="s">
-        <v>834</v>
+        <v>551</v>
       </c>
       <c r="L217">
-        <v>5.36</v>
+        <v>5.04</v>
       </c>
       <c r="M217">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>835</v>
+        <v>556</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218">
         <v>5</v>
       </c>
       <c r="I218" t="s">
-        <v>836</v>
+        <v>557</v>
       </c>
       <c r="J218" t="s">
-        <v>837</v>
+        <v>558</v>
       </c>
       <c r="K218" t="s">
-        <v>834</v>
+        <v>559</v>
       </c>
       <c r="L218">
-        <v>5.31</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M218">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>838</v>
+        <v>560</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
         <v>5</v>
       </c>
       <c r="I219" t="s">
-        <v>839</v>
+        <v>561</v>
       </c>
       <c r="J219" t="s">
-        <v>840</v>
+        <v>562</v>
       </c>
       <c r="K219" t="s">
-        <v>48</v>
+        <v>563</v>
       </c>
       <c r="L219">
-        <v>5.14</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M219">
         <v>161</v>
@@ -9522,289 +9522,289 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>841</v>
+        <v>564</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220">
         <v>5</v>
       </c>
       <c r="I220" t="s">
-        <v>842</v>
+        <v>565</v>
       </c>
       <c r="J220" t="s">
-        <v>843</v>
+        <v>566</v>
       </c>
       <c r="K220" t="s">
-        <v>658</v>
+        <v>567</v>
       </c>
       <c r="L220">
-        <v>4.91</v>
+        <v>4.97</v>
       </c>
       <c r="M220">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>844</v>
+        <v>584</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221">
         <v>5</v>
       </c>
       <c r="I221" t="s">
-        <v>845</v>
+        <v>585</v>
       </c>
       <c r="J221" t="s">
-        <v>846</v>
+        <v>586</v>
       </c>
       <c r="K221" t="s">
-        <v>658</v>
+        <v>587</v>
       </c>
       <c r="L221">
-        <v>4.95</v>
+        <v>4.96</v>
       </c>
       <c r="M221">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>847</v>
+        <v>604</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222">
         <v>5</v>
       </c>
       <c r="I222" t="s">
-        <v>848</v>
+        <v>605</v>
       </c>
       <c r="J222" t="s">
-        <v>849</v>
+        <v>606</v>
       </c>
       <c r="K222" t="s">
-        <v>850</v>
+        <v>607</v>
       </c>
       <c r="L222">
-        <v>5.03</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M222">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>851</v>
+        <v>608</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223">
         <v>5</v>
       </c>
       <c r="I223" t="s">
-        <v>852</v>
+        <v>609</v>
       </c>
       <c r="J223" t="s">
-        <v>853</v>
+        <v>610</v>
       </c>
       <c r="K223" t="s">
-        <v>854</v>
+        <v>611</v>
       </c>
       <c r="L223">
-        <v>5.04</v>
+        <v>4.93</v>
       </c>
       <c r="M223">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>855</v>
+        <v>620</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224">
         <v>5</v>
       </c>
       <c r="I224" t="s">
-        <v>856</v>
+        <v>621</v>
       </c>
       <c r="J224" t="s">
-        <v>853</v>
+        <v>622</v>
       </c>
       <c r="K224" t="s">
-        <v>854</v>
+        <v>493</v>
       </c>
       <c r="L224">
         <v>5.03</v>
       </c>
       <c r="M224">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>857</v>
+        <v>638</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225">
         <v>5</v>
       </c>
       <c r="I225" t="s">
-        <v>858</v>
+        <v>639</v>
       </c>
       <c r="J225" t="s">
-        <v>859</v>
+        <v>640</v>
       </c>
       <c r="K225" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="L225">
-        <v>4.96</v>
+        <v>5.04</v>
       </c>
       <c r="M225">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>860</v>
+        <v>642</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226">
         <v>5</v>
       </c>
       <c r="I226" t="s">
-        <v>861</v>
+        <v>643</v>
       </c>
       <c r="J226" t="s">
-        <v>862</v>
+        <v>644</v>
       </c>
       <c r="K226" t="s">
-        <v>863</v>
+        <v>645</v>
       </c>
       <c r="L226">
-        <v>5.1100000000000003</v>
+        <v>4.84</v>
       </c>
       <c r="M226">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>864</v>
+        <v>646</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227">
         <v>5</v>
       </c>
       <c r="I227" t="s">
-        <v>865</v>
+        <v>647</v>
       </c>
       <c r="J227" t="s">
-        <v>866</v>
+        <v>644</v>
       </c>
       <c r="K227" t="s">
-        <v>137</v>
+        <v>641</v>
       </c>
       <c r="L227">
-        <v>5.07</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M227">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>867</v>
+        <v>648</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228">
         <v>5</v>
       </c>
       <c r="I228" t="s">
-        <v>868</v>
+        <v>649</v>
       </c>
       <c r="J228" t="s">
-        <v>869</v>
+        <v>650</v>
       </c>
       <c r="K228" t="s">
-        <v>870</v>
+        <v>651</v>
       </c>
       <c r="L228">
-        <v>5.0999999999999996</v>
+        <v>4.87</v>
       </c>
       <c r="M228">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>871</v>
+        <v>659</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229">
         <v>5</v>
       </c>
       <c r="I229" t="s">
-        <v>872</v>
+        <v>660</v>
       </c>
       <c r="J229" t="s">
-        <v>873</v>
+        <v>661</v>
       </c>
       <c r="K229" t="s">
-        <v>874</v>
+        <v>662</v>
       </c>
       <c r="L229">
-        <v>5.13</v>
+        <v>5.05</v>
       </c>
       <c r="M229">
         <v>159</v>
@@ -9812,205 +9812,205 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>875</v>
+        <v>820</v>
       </c>
       <c r="B230">
         <v>1</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230">
         <v>5</v>
       </c>
       <c r="I230" t="s">
-        <v>876</v>
+        <v>821</v>
       </c>
       <c r="J230" t="s">
-        <v>877</v>
+        <v>822</v>
       </c>
       <c r="K230" t="s">
-        <v>878</v>
+        <v>823</v>
       </c>
       <c r="L230">
-        <v>5.29</v>
+        <v>4.99</v>
       </c>
       <c r="M230">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>879</v>
+        <v>824</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231">
         <v>5</v>
       </c>
       <c r="I231" t="s">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="J231" t="s">
-        <v>881</v>
+        <v>826</v>
       </c>
       <c r="K231" t="s">
-        <v>882</v>
+        <v>48</v>
       </c>
       <c r="L231">
-        <v>4.88</v>
+        <v>5.13</v>
       </c>
       <c r="M231">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>883</v>
+        <v>827</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232">
         <v>5</v>
       </c>
       <c r="I232" t="s">
-        <v>884</v>
+        <v>828</v>
       </c>
       <c r="J232" t="s">
-        <v>885</v>
+        <v>829</v>
       </c>
       <c r="K232" t="s">
-        <v>886</v>
+        <v>830</v>
       </c>
       <c r="L232">
-        <v>4.99</v>
+        <v>4.93</v>
       </c>
       <c r="M232">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>891</v>
+        <v>838</v>
       </c>
       <c r="B233">
         <v>1</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233">
         <v>5</v>
       </c>
       <c r="I233" t="s">
-        <v>892</v>
+        <v>839</v>
       </c>
       <c r="J233" t="s">
-        <v>893</v>
+        <v>840</v>
       </c>
       <c r="K233" t="s">
-        <v>894</v>
+        <v>48</v>
       </c>
       <c r="L233">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
       <c r="M233">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="B234">
         <v>1</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234">
         <v>5</v>
       </c>
       <c r="I234" t="s">
-        <v>896</v>
+        <v>872</v>
       </c>
       <c r="J234" t="s">
-        <v>897</v>
+        <v>873</v>
       </c>
       <c r="K234" t="s">
-        <v>898</v>
+        <v>874</v>
       </c>
       <c r="L234">
-        <v>5.08</v>
+        <v>5.13</v>
       </c>
       <c r="M234">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235">
         <v>5</v>
       </c>
       <c r="I235" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="J235" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="K235" t="s">
-        <v>48</v>
+        <v>886</v>
       </c>
       <c r="L235">
-        <v>5.1100000000000003</v>
+        <v>4.99</v>
       </c>
       <c r="M235">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B236">
         <v>1</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236">
         <v>5</v>
       </c>
       <c r="I236" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J236" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="K236" t="s">
-        <v>905</v>
+        <v>48</v>
       </c>
       <c r="L236">
-        <v>5</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M236">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
@@ -10021,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237">
         <v>5</v>
@@ -10050,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238">
         <v>5</v>
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239">
         <v>5</v>
@@ -10133,6 +10133,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M240">
     <sortCondition ref="B2:B240"/>
     <sortCondition descending="1" ref="D2:D240"/>
+    <sortCondition ref="C2:C240"/>
     <sortCondition ref="J2:J240"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/athletes/SteveDavies/activity_overrides.xlsx
+++ b/athletes/SteveDavies/activity_overrides.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.collyer\Dropbox\Running and Cycling\DataPipeline\athletes\SteveDavies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67E348F-5728-481B-AE6A-9A12882E15BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB0D9ED-D4C2-41C7-B443-FEDE0B4BECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="738">
   <si>
     <t>file</t>
   </si>
@@ -169,18 +169,6 @@
     <t>Dulwich Parkrun</t>
   </si>
   <si>
-    <t>328938789.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 23.2min, 4.24/km, HR 143</t>
-  </si>
-  <si>
-    <t>2015-04-23</t>
-  </si>
-  <si>
-    <t>04/23/2015 Beckenham, United Kingdom</t>
-  </si>
-  <si>
     <t>331835385.fit</t>
   </si>
   <si>
@@ -193,27 +181,6 @@
     <t>London Marathon</t>
   </si>
   <si>
-    <t>335146929.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.1min, 4.15/km, HR 132</t>
-  </si>
-  <si>
-    <t>2015-05-01</t>
-  </si>
-  <si>
-    <t>Run out and back along the river.</t>
-  </si>
-  <si>
-    <t>335146934.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.7min, 4.41/km, HR 136</t>
-  </si>
-  <si>
-    <t>Steady run out and back on River</t>
-  </si>
-  <si>
     <t>340504097.fit</t>
   </si>
   <si>
@@ -286,18 +253,9 @@
     <t>06/06/2015 London, United Kingdom</t>
   </si>
   <si>
-    <t>370741174.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.0min, 4.15/km, HR 141</t>
-  </si>
-  <si>
     <t>2015-06-16</t>
   </si>
   <si>
-    <t>06/16/2015 London, England, United Kingdom</t>
-  </si>
-  <si>
     <t>370741230.fit</t>
   </si>
   <si>
@@ -319,30 +277,6 @@
     <t>06/17/2015 Bromley, England, United Kingdom</t>
   </si>
   <si>
-    <t>372345118.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.3min, 4.41/km, HR 145</t>
-  </si>
-  <si>
-    <t>2015-06-19</t>
-  </si>
-  <si>
-    <t>06/19/2015 Bromley, England, United Kingdom</t>
-  </si>
-  <si>
-    <t>372816674.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 21.9min, 4.47/km, HR 143</t>
-  </si>
-  <si>
-    <t>2015-06-20</t>
-  </si>
-  <si>
-    <t>06/20/2015 London, United Kingdom</t>
-  </si>
-  <si>
     <t>373650910.fit</t>
   </si>
   <si>
@@ -355,18 +289,6 @@
     <t>Ranelagh Harriers Richmond 10K</t>
   </si>
   <si>
-    <t>406511017.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 21.4min, 4.25/km, HR 148</t>
-  </si>
-  <si>
-    <t>2015-08-02</t>
-  </si>
-  <si>
-    <t>Lady well Track Session: 2 Sets 6x300M with 100M jog of 30sec Recoveries</t>
-  </si>
-  <si>
     <t>409207097.fit</t>
   </si>
   <si>
@@ -436,18 +358,6 @@
     <t>Morning run</t>
   </si>
   <si>
-    <t>456559135.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.5min, 4.40/km, HR 144</t>
-  </si>
-  <si>
-    <t>2015-10-03</t>
-  </si>
-  <si>
-    <t>Steady Run  - Dul Park 3 laps</t>
-  </si>
-  <si>
     <t>473721848.fit</t>
   </si>
   <si>
@@ -469,18 +379,9 @@
     <t>Tempo Run 3 miles Bishops Park</t>
   </si>
   <si>
-    <t>503204169.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.3min, 4.56/km, HR 143</t>
-  </si>
-  <si>
     <t>2015-12-18</t>
   </si>
   <si>
-    <t>Warm up run to Serpie 5k</t>
-  </si>
-  <si>
     <t>503204178.fit</t>
   </si>
   <si>
@@ -538,18 +439,6 @@
     <t>Old Deer Park Half Marathon - Muddy, windy, slippy trail run - Time 1:22 ish</t>
   </si>
   <si>
-    <t>551699861.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.4min, 4.41/km, HR 126</t>
-  </si>
-  <si>
-    <t>2016-02-22</t>
-  </si>
-  <si>
-    <t>Treadmill Recovery Run</t>
-  </si>
-  <si>
     <t>555087153.fit</t>
   </si>
   <si>
@@ -622,18 +511,6 @@
     <t>Dulwich Parkrun: 2 miles Steady MP (ish); 1 mile faster</t>
   </si>
   <si>
-    <t>605600430.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 24.0min, 4.39/km, HR 134</t>
-  </si>
-  <si>
-    <t>2016-04-21</t>
-  </si>
-  <si>
-    <t>Steady run 3 miles incl 3x30 sec strides.</t>
-  </si>
-  <si>
     <t>608891473.fit</t>
   </si>
   <si>
@@ -694,27 +571,6 @@
     <t>Not a Parkrun...steady laps of Dulwich Park</t>
   </si>
   <si>
-    <t>665296720.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.8min, 4.47/km, HR 136</t>
-  </si>
-  <si>
-    <t>2016-06-15</t>
-  </si>
-  <si>
-    <t>Steady mid week run: outward bound leg</t>
-  </si>
-  <si>
-    <t>665297335.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.6min, 4.48/km, HR 142</t>
-  </si>
-  <si>
-    <t>Steady midweek  run: return leg</t>
-  </si>
-  <si>
     <t>685139602.fit</t>
   </si>
   <si>
@@ -829,18 +685,6 @@
     <t>2016-09-24</t>
   </si>
   <si>
-    <t>805731651.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 23.8min, 4.36/km, HR 144</t>
-  </si>
-  <si>
-    <t>2016-10-01</t>
-  </si>
-  <si>
-    <t>3.5 miles easy with strides</t>
-  </si>
-  <si>
     <t>806905393.fit</t>
   </si>
   <si>
@@ -985,18 +829,6 @@
     <t>South of England XC Champs - Parliament Hill (57:49) 209th; 5th V45</t>
   </si>
   <si>
-    <t>945475376.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 21.1min, 4.33/km, HR 132</t>
-  </si>
-  <si>
-    <t>2017-02-03</t>
-  </si>
-  <si>
-    <t>Easy Friday 3 miles incl 2x400m strides TM</t>
-  </si>
-  <si>
     <t>946258234.fit</t>
   </si>
   <si>
@@ -1069,18 +901,6 @@
     <t>Paddock Wood Half Marathon  - 75:42</t>
   </si>
   <si>
-    <t>1050610175.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.1min, 4.57/km, HR 125</t>
-  </si>
-  <si>
-    <t>2017-04-20</t>
-  </si>
-  <si>
-    <t>Easy 3 miler</t>
-  </si>
-  <si>
     <t>1055538063.fit</t>
   </si>
   <si>
@@ -1189,18 +1009,6 @@
     <t>Beckenham Place Parkrun (17.27)</t>
   </si>
   <si>
-    <t>1208046697.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 23.2min, 4.55/km, HR 136</t>
-  </si>
-  <si>
-    <t>2017-07-25</t>
-  </si>
-  <si>
-    <t>Easy run TM. Steady Pace 5k</t>
-  </si>
-  <si>
     <t>1245813356.fit</t>
   </si>
   <si>
@@ -1276,12 +1084,6 @@
     <t>2017-09-16</t>
   </si>
   <si>
-    <t>1291811194.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.2min, 4.37/km, HR 137</t>
-  </si>
-  <si>
     <t>1305375969.fit</t>
   </si>
   <si>
@@ -1630,42 +1432,6 @@
     <t>New York City Marathon -2:43:59. (Third marathon and also sub 2:45 of the year).</t>
   </si>
   <si>
-    <t>2111726654.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 25.0min, 4.57/km, HR 133</t>
-  </si>
-  <si>
-    <t>2018-11-20</t>
-  </si>
-  <si>
-    <t>Easy run. TM am - 25 mins</t>
-  </si>
-  <si>
-    <t>2172467860.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.1min, 4.35/km, HR 139</t>
-  </si>
-  <si>
-    <t>2018-12-22</t>
-  </si>
-  <si>
-    <t>Easy TM easy.</t>
-  </si>
-  <si>
-    <t>2181977987.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.1min, 4.34/km, HR 128</t>
-  </si>
-  <si>
-    <t>2018-12-28</t>
-  </si>
-  <si>
-    <t>Easy Pm TM 5k</t>
-  </si>
-  <si>
     <t>2231072899.fit</t>
   </si>
   <si>
@@ -1750,18 +1516,6 @@
     <t>Paddock Wood Half - third race in 4 days - 76:07</t>
   </si>
   <si>
-    <t>2445074342.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.8min, 4.37/km, HR 131</t>
-  </si>
-  <si>
-    <t>2019-04-17</t>
-  </si>
-  <si>
-    <t>Midweek steady</t>
-  </si>
-  <si>
     <t>2468983657.fit</t>
   </si>
   <si>
@@ -1786,30 +1540,6 @@
     <t>Beckenham Place Parkrun (2nd) - quite hard effort.</t>
   </si>
   <si>
-    <t>2517205586.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 21.5min, 4.35/km, HR 137</t>
-  </si>
-  <si>
-    <t>2019-05-14</t>
-  </si>
-  <si>
-    <t>Early am - steady Troy Michigan</t>
-  </si>
-  <si>
-    <t>2524522215.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 21.9min, 4.34/km, HR 138</t>
-  </si>
-  <si>
-    <t>2019-05-16</t>
-  </si>
-  <si>
-    <t>3 miles with a few strides.</t>
-  </si>
-  <si>
     <t>2528447652.fit</t>
   </si>
   <si>
@@ -1891,39 +1621,6 @@
     <t>2019-10-05</t>
   </si>
   <si>
-    <t>2930351209.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 20.4min, 3.76/km, HR 134</t>
-  </si>
-  <si>
-    <t>Post Turbo TM Test 20min</t>
-  </si>
-  <si>
-    <t>2944585726.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 21.6min, 4.11/km, HR 147</t>
-  </si>
-  <si>
-    <t>2019-10-10</t>
-  </si>
-  <si>
-    <t>Tempo - double lite</t>
-  </si>
-  <si>
-    <t>3168017282.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 21.0min, 4.19/km, HR 159</t>
-  </si>
-  <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>TM Tempo - 5K - under 20 minutes</t>
-  </si>
-  <si>
     <t>3194962181.fit</t>
   </si>
   <si>
@@ -1948,18 +1645,9 @@
     <t>Dulwich parkrun.</t>
   </si>
   <si>
-    <t>3244295899.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 21.5min, 4.45/km, HR 144</t>
-  </si>
-  <si>
     <t>2020-01-25</t>
   </si>
   <si>
-    <t>Dulwich parkrun - warm up laps</t>
-  </si>
-  <si>
     <t>3244297945.fit</t>
   </si>
   <si>
@@ -2011,18 +1699,6 @@
     <t>Dulwich Parkrun - 17:34</t>
   </si>
   <si>
-    <t>3502806436.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 20.8min, 4.15/km, HR 161</t>
-  </si>
-  <si>
-    <t>2020-04-09</t>
-  </si>
-  <si>
-    <t>TM - 5k Training effort/experiment.</t>
-  </si>
-  <si>
     <t>3510753307.fit</t>
   </si>
   <si>
@@ -2059,9 +1735,6 @@
     <t>Zwift - Run In The Park group 5k -</t>
   </si>
   <si>
-    <t>Evening Run</t>
-  </si>
-  <si>
     <t>3580306000.fit</t>
   </si>
   <si>
@@ -2164,15 +1837,6 @@
     <t>Local 5k Threshold effort</t>
   </si>
   <si>
-    <t>3866963375.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.6min, 4.46/km, HR 137</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
     <t>2020-06-17</t>
   </si>
   <si>
@@ -2185,15 +1849,6 @@
     <t>Morning Run -</t>
   </si>
   <si>
-    <t>3880794524.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 21.8min, 4.34/km, HR 145</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
     <t>3887978691.fit</t>
   </si>
   <si>
@@ -2239,30 +1894,6 @@
     <t>Run In The Park (E) and foot test</t>
   </si>
   <si>
-    <t>4049866753.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 23.8min, 4.55/km, HR 133</t>
-  </si>
-  <si>
-    <t>2020-07-20</t>
-  </si>
-  <si>
-    <t>Easy am  5k</t>
-  </si>
-  <si>
-    <t>4219448325.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.6min, 4.51/km, HR 151</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>BP parkrun route</t>
-  </si>
-  <si>
     <t>4226790920.fit</t>
   </si>
   <si>
@@ -2275,18 +1906,6 @@
     <t>Run In The Park (E)</t>
   </si>
   <si>
-    <t>4249592272.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.1min, 4.31/km, HR 167</t>
-  </si>
-  <si>
-    <t>2020-08-26</t>
-  </si>
-  <si>
-    <t>Watopia - steady 5k</t>
-  </si>
-  <si>
     <t>4261361041.fit</t>
   </si>
   <si>
@@ -2299,24 +1918,6 @@
     <t>Run In The Park (E) Zwift Parkrun</t>
   </si>
   <si>
-    <t>4324832457.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.0min, 4.31/km, HR 131</t>
-  </si>
-  <si>
-    <t>2020-09-10</t>
-  </si>
-  <si>
-    <t>4382471912.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 23.0min, 4.54/km, HR 130</t>
-  </si>
-  <si>
-    <t>2020-09-22</t>
-  </si>
-  <si>
     <t>4460398500.fit</t>
   </si>
   <si>
@@ -2398,18 +1999,9 @@
     <t>Dulwich Parkrun course</t>
   </si>
   <si>
-    <t>4827911028.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 24.5min, 4.48/km, HR 140</t>
-  </si>
-  <si>
     <t>2020-12-26</t>
   </si>
   <si>
-    <t>To Dulwich via a big hill</t>
-  </si>
-  <si>
     <t>4827913310.fit</t>
   </si>
   <si>
@@ -2428,18 +2020,6 @@
     <t>ZLDR Thursday Race (E)</t>
   </si>
   <si>
-    <t>5172865204.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 23.0min, 4.41/km, HR 127</t>
-  </si>
-  <si>
-    <t>2021-02-25</t>
-  </si>
-  <si>
-    <t>ZLDR 5k race.</t>
-  </si>
-  <si>
     <t>5342195719.fit</t>
   </si>
   <si>
@@ -2449,18 +2029,6 @@
     <t>2021-03-25</t>
   </si>
   <si>
-    <t>6237092029.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.6min, 4.51/km, HR 146</t>
-  </si>
-  <si>
-    <t>2021-08-28</t>
-  </si>
-  <si>
-    <t>Tempo (or Threshold effort these days)</t>
-  </si>
-  <si>
     <t>6275157449.fit</t>
   </si>
   <si>
@@ -2515,15 +2083,6 @@
     <t>Beckenham Place Parkrun.</t>
   </si>
   <si>
-    <t>6794838393.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 20.3min, 3.79/km, HR 164</t>
-  </si>
-  <si>
-    <t>2021-12-16</t>
-  </si>
-  <si>
     <t>Zwift Run - ZLDR To Race or Not To Race (E)</t>
   </si>
   <si>
@@ -2554,66 +2113,6 @@
     <t>2022-04-16</t>
   </si>
   <si>
-    <t>7559593292.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 20.9min, 4.23/km, HR 146</t>
-  </si>
-  <si>
-    <t>2022-05-07</t>
-  </si>
-  <si>
-    <t>7603007846.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 23.1min, 4.58/km, HR 159</t>
-  </si>
-  <si>
-    <t>2022-05-14</t>
-  </si>
-  <si>
-    <t>Zwift - Group Run: Run In The Park (E) on Seaside Sprint in Watopia</t>
-  </si>
-  <si>
-    <t>7683910960.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 19.6min, 3.88/km, HR 157</t>
-  </si>
-  <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
-    <t>Zwift - Group Run: Run In The Park (E) on Douce France in France</t>
-  </si>
-  <si>
-    <t>7686255735.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 20.4min, 4.06/km, HR 151</t>
-  </si>
-  <si>
-    <t>7806335701.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 21.4min, 4.32/km, HR 149</t>
-  </si>
-  <si>
-    <t>2022-06-18</t>
-  </si>
-  <si>
-    <t>8183497272.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 19.9min, 3.88/km, HR 146</t>
-  </si>
-  <si>
-    <t>2022-08-20</t>
-  </si>
-  <si>
-    <t>Zwift - Group Run: Run In The Park (E) on Tour Of Tewit Well in Yorkshire</t>
-  </si>
-  <si>
     <t>8314150125.fit</t>
   </si>
   <si>
@@ -2623,18 +2122,6 @@
     <t>2022-09-10</t>
   </si>
   <si>
-    <t>8518524390.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 20.2min, 3.96/km, HR 160</t>
-  </si>
-  <si>
-    <t>2022-10-15</t>
-  </si>
-  <si>
-    <t>Zwift - Group Run: Run In The Park</t>
-  </si>
-  <si>
     <t>9081146275.fit</t>
   </si>
   <si>
@@ -2647,30 +2134,6 @@
     <t>First Parkrun for ages.</t>
   </si>
   <si>
-    <t>10046288895.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 22.4min, 4.24/km, HR 151</t>
-  </si>
-  <si>
-    <t>2023-07-01</t>
-  </si>
-  <si>
-    <t>Zwift - Group Run: Run In The Park (E) on Beach Island Loop in Watopia</t>
-  </si>
-  <si>
-    <t>10093022626.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 21.7min, 4.45/km, HR 158</t>
-  </si>
-  <si>
-    <t>2023-07-08</t>
-  </si>
-  <si>
-    <t>Bromley - stop start effort.</t>
-  </si>
-  <si>
     <t>10278377593.fit</t>
   </si>
   <si>
@@ -2693,18 +2156,6 @@
   </si>
   <si>
     <t>Chicago Marathon. 3:04:20</t>
-  </si>
-  <si>
-    <t>11025151953.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 23.2min, 4.33/km, HR 145</t>
-  </si>
-  <si>
-    <t>2023-11-28</t>
-  </si>
-  <si>
-    <t>Track! 4x 1,200m @ 10k pace (90 sec recoveries)</t>
   </si>
   <si>
     <t>11119399024.fit</t>
@@ -3134,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M240"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:M240"/>
+      <selection activeCell="A190" sqref="A190:XFD190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3200,7 +2651,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>447</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3212,24 +2663,24 @@
         <v>42.195</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>448</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="L2">
         <v>42.74</v>
       </c>
       <c r="M2">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>404</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3241,24 +2692,24 @@
         <v>42.195</v>
       </c>
       <c r="I3" t="s">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="J3" t="s">
-        <v>206</v>
+        <v>406</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
+        <v>407</v>
       </c>
       <c r="L3">
-        <v>42.19</v>
+        <v>42.38</v>
       </c>
       <c r="M3">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>466</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3270,24 +2721,24 @@
         <v>42.195</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>467</v>
       </c>
       <c r="J4" t="s">
-        <v>355</v>
+        <v>468</v>
       </c>
       <c r="K4" t="s">
-        <v>356</v>
+        <v>469</v>
       </c>
       <c r="L4">
-        <v>42.46</v>
+        <v>42.39</v>
       </c>
       <c r="M4">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>293</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3299,24 +2750,24 @@
         <v>42.195</v>
       </c>
       <c r="I5" t="s">
-        <v>471</v>
+        <v>294</v>
       </c>
       <c r="J5" t="s">
-        <v>472</v>
+        <v>295</v>
       </c>
       <c r="K5" t="s">
-        <v>473</v>
+        <v>296</v>
       </c>
       <c r="L5">
-        <v>42.38</v>
+        <v>42.46</v>
       </c>
       <c r="M5">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>513</v>
+        <v>163</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3328,24 +2779,24 @@
         <v>42.195</v>
       </c>
       <c r="I6" t="s">
-        <v>514</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>515</v>
+        <v>165</v>
       </c>
       <c r="K6" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="L6">
-        <v>42.74</v>
+        <v>42.19</v>
       </c>
       <c r="M6">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>532</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3357,24 +2808,24 @@
         <v>42.195</v>
       </c>
       <c r="I7" t="s">
-        <v>533</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>534</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>535</v>
+        <v>52</v>
       </c>
       <c r="L7">
-        <v>42.39</v>
+        <v>42.74</v>
       </c>
       <c r="M7">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>887</v>
+        <v>708</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3386,13 +2837,13 @@
         <v>42.195</v>
       </c>
       <c r="I8" t="s">
-        <v>888</v>
+        <v>709</v>
       </c>
       <c r="J8" t="s">
-        <v>889</v>
+        <v>710</v>
       </c>
       <c r="K8" t="s">
-        <v>890</v>
+        <v>711</v>
       </c>
       <c r="L8">
         <v>42.71</v>
@@ -3403,7 +2854,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3415,24 +2866,24 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="L9">
-        <v>21.2</v>
+        <v>21.09</v>
       </c>
       <c r="M9">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>393</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3444,24 +2895,24 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>396</v>
       </c>
       <c r="L10">
-        <v>20.92</v>
+        <v>21.38</v>
       </c>
       <c r="M10">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>494</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3473,24 +2924,24 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>181</v>
+        <v>495</v>
       </c>
       <c r="J11" t="s">
-        <v>182</v>
+        <v>496</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
+        <v>497</v>
       </c>
       <c r="L11">
-        <v>21.04</v>
+        <v>21.66</v>
       </c>
       <c r="M11">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>552</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3502,24 +2953,24 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>346</v>
+        <v>553</v>
       </c>
       <c r="J12" t="s">
-        <v>347</v>
+        <v>550</v>
       </c>
       <c r="K12" t="s">
-        <v>348</v>
+        <v>554</v>
       </c>
       <c r="L12">
         <v>21.09</v>
       </c>
       <c r="M12">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>459</v>
+        <v>597</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3531,16 +2982,16 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I13" t="s">
-        <v>460</v>
+        <v>598</v>
       </c>
       <c r="J13" t="s">
-        <v>461</v>
+        <v>599</v>
       </c>
       <c r="K13" t="s">
-        <v>462</v>
+        <v>600</v>
       </c>
       <c r="L13">
-        <v>21.38</v>
+        <v>21.09</v>
       </c>
       <c r="M13">
         <v>158</v>
@@ -3548,7 +2999,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>143</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3560,24 +3011,24 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I14" t="s">
-        <v>573</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>574</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>575</v>
+        <v>146</v>
       </c>
       <c r="L14">
-        <v>21.66</v>
+        <v>21.04</v>
       </c>
       <c r="M14">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>652</v>
+        <v>548</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3589,13 +3040,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I15" t="s">
-        <v>653</v>
+        <v>549</v>
       </c>
       <c r="J15" t="s">
-        <v>654</v>
+        <v>550</v>
       </c>
       <c r="K15" t="s">
-        <v>655</v>
+        <v>551</v>
       </c>
       <c r="L15">
         <v>21.13</v>
@@ -3606,7 +3057,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>656</v>
+        <v>135</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3618,24 +3069,24 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I16" t="s">
-        <v>657</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>654</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>658</v>
+        <v>138</v>
       </c>
       <c r="L16">
-        <v>21.09</v>
+        <v>20.92</v>
       </c>
       <c r="M16">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>691</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3647,24 +3098,24 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I17" t="s">
-        <v>692</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
-        <v>689</v>
+        <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>693</v>
+        <v>32</v>
       </c>
       <c r="L17">
-        <v>21.38</v>
+        <v>21.2</v>
       </c>
       <c r="M17">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>706</v>
+        <v>582</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3676,24 +3127,24 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I18" t="s">
-        <v>707</v>
+        <v>583</v>
       </c>
       <c r="J18" t="s">
-        <v>708</v>
+        <v>580</v>
       </c>
       <c r="K18" t="s">
-        <v>709</v>
+        <v>584</v>
       </c>
       <c r="L18">
-        <v>21.09</v>
+        <v>21.38</v>
       </c>
       <c r="M18">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>906</v>
+        <v>723</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3705,13 +3156,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I19" t="s">
-        <v>907</v>
+        <v>724</v>
       </c>
       <c r="J19" t="s">
-        <v>908</v>
+        <v>725</v>
       </c>
       <c r="K19" t="s">
-        <v>909</v>
+        <v>726</v>
       </c>
       <c r="L19">
         <v>21.16</v>
@@ -3722,7 +3173,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>454</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3734,24 +3185,24 @@
         <v>16.09</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>455</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>456</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>457</v>
       </c>
       <c r="L20">
-        <v>16.170000000000002</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>109</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3763,24 +3214,24 @@
         <v>16.09</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="L21">
-        <v>16.239999999999998</v>
+        <v>14.77</v>
       </c>
       <c r="M21">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3792,24 +3243,24 @@
         <v>16.09</v>
       </c>
       <c r="I22" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="J22" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="K22" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="L22">
         <v>16.14</v>
       </c>
       <c r="M22">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3821,24 +3272,24 @@
         <v>16.09</v>
       </c>
       <c r="I23" t="s">
-        <v>314</v>
+        <v>152</v>
       </c>
       <c r="J23" t="s">
-        <v>315</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s">
-        <v>316</v>
+        <v>154</v>
       </c>
       <c r="L23">
-        <v>16.14</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="M23">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3850,24 +3301,24 @@
         <v>16.09</v>
       </c>
       <c r="I24" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="J24" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K24" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="L24">
-        <v>14.77</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="M24">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>423</v>
+        <v>233</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3879,24 +3330,24 @@
         <v>16.09</v>
       </c>
       <c r="I25" t="s">
-        <v>424</v>
+        <v>234</v>
       </c>
       <c r="J25" t="s">
-        <v>425</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s">
-        <v>426</v>
+        <v>236</v>
       </c>
       <c r="L25">
-        <v>16.100000000000001</v>
+        <v>16.14</v>
       </c>
       <c r="M25">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>520</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3908,24 +3359,24 @@
         <v>16.09</v>
       </c>
       <c r="I26" t="s">
-        <v>521</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>522</v>
+        <v>35</v>
       </c>
       <c r="K26" t="s">
-        <v>523</v>
+        <v>36</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="M26">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3937,24 +3388,24 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="L27">
-        <v>9.98</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="M27">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3966,24 +3417,24 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="L28">
-        <v>10.01</v>
+        <v>9.98</v>
       </c>
       <c r="M28">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3995,24 +3446,24 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="L29">
-        <v>10.24</v>
+        <v>10.01</v>
       </c>
       <c r="M29">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>250</v>
+        <v>510</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4024,24 +3475,24 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>251</v>
+        <v>511</v>
       </c>
       <c r="J30" t="s">
-        <v>252</v>
+        <v>512</v>
       </c>
       <c r="K30" t="s">
-        <v>253</v>
+        <v>513</v>
       </c>
       <c r="L30">
-        <v>10.59</v>
+        <v>10.26</v>
       </c>
       <c r="M30">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>420</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4053,24 +3504,24 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="J31" t="s">
-        <v>259</v>
+        <v>422</v>
       </c>
       <c r="K31" t="s">
-        <v>137</v>
+        <v>423</v>
       </c>
       <c r="L31">
-        <v>9.8800000000000008</v>
+        <v>9.9</v>
       </c>
       <c r="M31">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4082,24 +3533,24 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="J32" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="L32">
-        <v>9.59</v>
+        <v>10.24</v>
       </c>
       <c r="M32">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4111,24 +3562,24 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="J33" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="L33">
-        <v>9.8699999999999992</v>
+        <v>10.07</v>
       </c>
       <c r="M33">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4140,24 +3591,24 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="J34" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
       <c r="K34" t="s">
-        <v>340</v>
+        <v>111</v>
       </c>
       <c r="L34">
-        <v>10.07</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="M34">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>486</v>
+        <v>221</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4169,24 +3620,24 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>487</v>
+        <v>222</v>
       </c>
       <c r="J35" t="s">
-        <v>488</v>
+        <v>223</v>
       </c>
       <c r="K35" t="s">
-        <v>489</v>
+        <v>224</v>
       </c>
       <c r="L35">
-        <v>9.9</v>
+        <v>9.59</v>
       </c>
       <c r="M35">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>600</v>
+        <v>202</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4198,24 +3649,24 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>601</v>
+        <v>203</v>
       </c>
       <c r="J36" t="s">
-        <v>602</v>
+        <v>204</v>
       </c>
       <c r="K36" t="s">
-        <v>603</v>
+        <v>205</v>
       </c>
       <c r="L36">
-        <v>10.26</v>
+        <v>10.59</v>
       </c>
       <c r="M36">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>321</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4227,24 +3678,24 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="J37" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c r="K37" t="s">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="L37">
-        <v>5.07</v>
+        <v>4.87</v>
       </c>
       <c r="M37">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4256,24 +3707,24 @@
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="K38" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="L38">
-        <v>5.46</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M38">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4285,24 +3736,24 @@
         <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="K39" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="L39">
-        <v>5.31</v>
+        <v>4.83</v>
       </c>
       <c r="M39">
-        <v>130</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4314,24 +3765,24 @@
         <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="J40" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="K40" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="L40">
-        <v>5.15</v>
+        <v>4.83</v>
       </c>
       <c r="M40">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>643</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4343,24 +3794,24 @@
         <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
+        <v>644</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>645</v>
       </c>
       <c r="K41" t="s">
-        <v>83</v>
+        <v>646</v>
       </c>
       <c r="L41">
-        <v>4.9000000000000004</v>
+        <v>5.05</v>
       </c>
       <c r="M41">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>444</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -4372,24 +3823,24 @@
         <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>85</v>
+        <v>445</v>
       </c>
       <c r="J42" t="s">
-        <v>86</v>
+        <v>446</v>
       </c>
       <c r="K42" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="L42">
-        <v>5.08</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>305</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4401,24 +3852,24 @@
         <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="K43" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="L43">
-        <v>5.31</v>
+        <v>4.83</v>
       </c>
       <c r="M43">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4430,24 +3881,24 @@
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="J44" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="K44" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="L44">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="M44">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4459,24 +3910,24 @@
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="J45" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L45">
-        <v>4.87</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="M45">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>628</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4488,24 +3939,24 @@
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>100</v>
+        <v>629</v>
       </c>
       <c r="J46" t="s">
-        <v>101</v>
+        <v>630</v>
       </c>
       <c r="K46" t="s">
-        <v>102</v>
+        <v>631</v>
       </c>
       <c r="L46">
-        <v>5.07</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="M46">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>498</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4517,24 +3968,24 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>104</v>
+        <v>499</v>
       </c>
       <c r="J47" t="s">
-        <v>105</v>
+        <v>500</v>
       </c>
       <c r="K47" t="s">
-        <v>106</v>
+        <v>501</v>
       </c>
       <c r="L47">
-        <v>4.91</v>
+        <v>5.07</v>
       </c>
       <c r="M47">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>490</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4546,24 +3997,24 @@
         <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>112</v>
+        <v>491</v>
       </c>
       <c r="J48" t="s">
-        <v>113</v>
+        <v>492</v>
       </c>
       <c r="K48" t="s">
-        <v>114</v>
+        <v>493</v>
       </c>
       <c r="L48">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="M48">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>354</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4575,24 +4026,24 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>355</v>
       </c>
       <c r="J49" t="s">
-        <v>117</v>
+        <v>356</v>
       </c>
       <c r="K49" t="s">
-        <v>118</v>
+        <v>350</v>
       </c>
       <c r="L49">
-        <v>4.91</v>
+        <v>4.95</v>
       </c>
       <c r="M49">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4604,24 +4055,24 @@
         <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="J50" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="K50" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="L50">
-        <v>5.0199999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M50">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4633,24 +4084,24 @@
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="J51" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="K51" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="L51">
-        <v>4.8099999999999996</v>
+        <v>5.03</v>
       </c>
       <c r="M51">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4662,24 +4113,24 @@
         <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="J52" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="K52" t="s">
-        <v>137</v>
+        <v>336</v>
       </c>
       <c r="L52">
-        <v>5.0999999999999996</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M52">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>636</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4691,24 +4142,24 @@
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>139</v>
+        <v>637</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>638</v>
       </c>
       <c r="K53" t="s">
-        <v>141</v>
+        <v>635</v>
       </c>
       <c r="L53">
-        <v>5.1100000000000003</v>
+        <v>5.08</v>
       </c>
       <c r="M53">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>617</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4720,24 +4171,24 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>146</v>
+        <v>618</v>
       </c>
       <c r="J54" t="s">
-        <v>147</v>
+        <v>615</v>
       </c>
       <c r="K54" t="s">
-        <v>148</v>
+        <v>619</v>
       </c>
       <c r="L54">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="M54">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4749,24 +4200,24 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="J55" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="K55" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="L55">
-        <v>4.8899999999999997</v>
+        <v>4.97</v>
       </c>
       <c r="M55">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>377</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4778,24 +4229,24 @@
         <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>154</v>
+        <v>378</v>
       </c>
       <c r="J56" t="s">
-        <v>151</v>
+        <v>379</v>
       </c>
       <c r="K56" t="s">
-        <v>155</v>
+        <v>380</v>
       </c>
       <c r="L56">
-        <v>4.9800000000000004</v>
+        <v>4.97</v>
       </c>
       <c r="M56">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4807,24 +4258,24 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="J57" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="K57" t="s">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="L57">
-        <v>4.8899999999999997</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="M57">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4836,24 +4287,24 @@
         <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="J58" t="s">
-        <v>174</v>
+        <v>353</v>
       </c>
       <c r="K58" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="L58">
-        <v>5.08</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M58">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>184</v>
+        <v>647</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4865,16 +4316,16 @@
         <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>185</v>
+        <v>648</v>
       </c>
       <c r="J59" t="s">
-        <v>186</v>
+        <v>649</v>
       </c>
       <c r="K59" t="s">
-        <v>187</v>
+        <v>650</v>
       </c>
       <c r="L59">
-        <v>4.92</v>
+        <v>5</v>
       </c>
       <c r="M59">
         <v>157</v>
@@ -4882,7 +4333,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4894,24 +4345,24 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="J60" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K60" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="L60">
-        <v>4.83</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M60">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>428</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4923,24 +4374,24 @@
         <v>5</v>
       </c>
       <c r="I61" t="s">
-        <v>201</v>
+        <v>429</v>
       </c>
       <c r="J61" t="s">
-        <v>202</v>
+        <v>430</v>
       </c>
       <c r="K61" t="s">
-        <v>203</v>
+        <v>431</v>
       </c>
       <c r="L61">
-        <v>5.46</v>
+        <v>4.93</v>
       </c>
       <c r="M61">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>624</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -4952,24 +4403,24 @@
         <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>209</v>
+        <v>625</v>
       </c>
       <c r="J62" t="s">
-        <v>210</v>
+        <v>626</v>
       </c>
       <c r="K62" t="s">
-        <v>211</v>
+        <v>627</v>
       </c>
       <c r="L62">
-        <v>4.83</v>
+        <v>5.12</v>
       </c>
       <c r="M62">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>567</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4981,24 +4432,24 @@
         <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>217</v>
+        <v>568</v>
       </c>
       <c r="J63" t="s">
-        <v>218</v>
+        <v>569</v>
       </c>
       <c r="K63" t="s">
-        <v>219</v>
+        <v>570</v>
       </c>
       <c r="L63">
-        <v>4.97</v>
+        <v>5.08</v>
       </c>
       <c r="M63">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>220</v>
+        <v>620</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5010,16 +4461,16 @@
         <v>5</v>
       </c>
       <c r="I64" t="s">
-        <v>221</v>
+        <v>621</v>
       </c>
       <c r="J64" t="s">
-        <v>222</v>
+        <v>622</v>
       </c>
       <c r="K64" t="s">
-        <v>223</v>
+        <v>623</v>
       </c>
       <c r="L64">
-        <v>5.47</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="M64">
         <v>150</v>
@@ -5027,7 +4478,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>639</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5039,24 +4490,24 @@
         <v>5</v>
       </c>
       <c r="I65" t="s">
-        <v>225</v>
+        <v>640</v>
       </c>
       <c r="J65" t="s">
-        <v>226</v>
+        <v>641</v>
       </c>
       <c r="K65" t="s">
-        <v>227</v>
+        <v>642</v>
       </c>
       <c r="L65">
-        <v>5.09</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M65">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5068,24 +4519,24 @@
         <v>5</v>
       </c>
       <c r="I66" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J66" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="K66" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="L66">
-        <v>5.04</v>
+        <v>4.92</v>
       </c>
       <c r="M66">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>234</v>
+        <v>589</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5097,24 +4548,24 @@
         <v>5</v>
       </c>
       <c r="I67" t="s">
-        <v>235</v>
+        <v>590</v>
       </c>
       <c r="J67" t="s">
-        <v>236</v>
+        <v>591</v>
       </c>
       <c r="K67" t="s">
-        <v>237</v>
+        <v>592</v>
       </c>
       <c r="L67">
-        <v>4.8499999999999996</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>238</v>
+        <v>606</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -5126,16 +4577,16 @@
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>239</v>
+        <v>607</v>
       </c>
       <c r="J68" t="s">
-        <v>240</v>
+        <v>605</v>
       </c>
       <c r="K68" t="s">
-        <v>241</v>
+        <v>608</v>
       </c>
       <c r="L68">
-        <v>4.92</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M68">
         <v>165</v>
@@ -5143,7 +4594,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5155,24 +4606,24 @@
         <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>255</v>
+        <v>345</v>
       </c>
       <c r="J69" t="s">
-        <v>256</v>
+        <v>346</v>
       </c>
       <c r="K69" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L69">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="M69">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>260</v>
+        <v>662</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5184,24 +4635,24 @@
         <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>261</v>
+        <v>663</v>
       </c>
       <c r="J70" t="s">
-        <v>262</v>
+        <v>664</v>
       </c>
       <c r="K70" t="s">
-        <v>137</v>
+        <v>665</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>5.22</v>
       </c>
       <c r="M70">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -5213,24 +4664,24 @@
         <v>5</v>
       </c>
       <c r="I71" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="J71" t="s">
-        <v>265</v>
+        <v>75</v>
       </c>
       <c r="K71" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="L71">
-        <v>4.9800000000000004</v>
+        <v>5.08</v>
       </c>
       <c r="M71">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -5242,24 +4693,24 @@
         <v>5</v>
       </c>
       <c r="I72" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="J72" t="s">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="K72" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="L72">
-        <v>5.1100000000000003</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M72">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>269</v>
+        <v>609</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -5271,24 +4722,24 @@
         <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>270</v>
+        <v>610</v>
       </c>
       <c r="J73" t="s">
-        <v>271</v>
+        <v>611</v>
       </c>
       <c r="K73" t="s">
-        <v>272</v>
+        <v>612</v>
       </c>
       <c r="L73">
-        <v>5.46</v>
+        <v>4.97</v>
       </c>
       <c r="M73">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -5300,24 +4751,24 @@
         <v>5</v>
       </c>
       <c r="I74" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="J74" t="s">
-        <v>295</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="L74">
-        <v>5.03</v>
+        <v>4.91</v>
       </c>
       <c r="M74">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>309</v>
+        <v>578</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -5329,24 +4780,24 @@
         <v>5</v>
       </c>
       <c r="I75" t="s">
-        <v>310</v>
+        <v>579</v>
       </c>
       <c r="J75" t="s">
-        <v>311</v>
+        <v>580</v>
       </c>
       <c r="K75" t="s">
-        <v>312</v>
+        <v>581</v>
       </c>
       <c r="L75">
-        <v>5.0599999999999996</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M75">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -5358,24 +4809,24 @@
         <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>322</v>
+        <v>213</v>
       </c>
       <c r="J76" t="s">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="K76" t="s">
-        <v>324</v>
+        <v>111</v>
       </c>
       <c r="L76">
-        <v>4.88</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>349</v>
+        <v>563</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -5387,24 +4838,24 @@
         <v>5</v>
       </c>
       <c r="I77" t="s">
-        <v>350</v>
+        <v>564</v>
       </c>
       <c r="J77" t="s">
-        <v>351</v>
+        <v>565</v>
       </c>
       <c r="K77" t="s">
-        <v>352</v>
+        <v>566</v>
       </c>
       <c r="L77">
-        <v>4.83</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M77">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>365</v>
+        <v>593</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -5416,24 +4867,24 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>366</v>
+        <v>594</v>
       </c>
       <c r="J78" t="s">
-        <v>367</v>
+        <v>595</v>
       </c>
       <c r="K78" t="s">
-        <v>368</v>
+        <v>596</v>
       </c>
       <c r="L78">
-        <v>4.83</v>
+        <v>5.01</v>
       </c>
       <c r="M78">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>373</v>
+        <v>522</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -5445,24 +4896,24 @@
         <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>374</v>
+        <v>523</v>
       </c>
       <c r="J79" t="s">
-        <v>375</v>
+        <v>524</v>
       </c>
       <c r="K79" t="s">
-        <v>376</v>
+        <v>525</v>
       </c>
       <c r="L79">
-        <v>5.03</v>
+        <v>4.97</v>
       </c>
       <c r="M79">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>381</v>
+        <v>190</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -5474,24 +4925,24 @@
         <v>5</v>
       </c>
       <c r="I80" t="s">
-        <v>382</v>
+        <v>191</v>
       </c>
       <c r="J80" t="s">
-        <v>383</v>
+        <v>192</v>
       </c>
       <c r="K80" t="s">
-        <v>384</v>
+        <v>193</v>
       </c>
       <c r="L80">
-        <v>4.87</v>
+        <v>4.92</v>
       </c>
       <c r="M80">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>389</v>
+        <v>601</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -5503,24 +4954,24 @@
         <v>5</v>
       </c>
       <c r="I81" t="s">
-        <v>390</v>
+        <v>602</v>
       </c>
       <c r="J81" t="s">
-        <v>391</v>
+        <v>603</v>
       </c>
       <c r="K81" t="s">
-        <v>392</v>
+        <v>604</v>
       </c>
       <c r="L81">
-        <v>5.09</v>
+        <v>5.01</v>
       </c>
       <c r="M81">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>397</v>
+        <v>660</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -5532,24 +4983,24 @@
         <v>5</v>
       </c>
       <c r="I82" t="s">
-        <v>398</v>
+        <v>661</v>
       </c>
       <c r="J82" t="s">
-        <v>399</v>
+        <v>659</v>
       </c>
       <c r="K82" t="s">
-        <v>400</v>
+        <v>658</v>
       </c>
       <c r="L82">
-        <v>4.9800000000000004</v>
+        <v>4.99</v>
       </c>
       <c r="M82">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5561,24 +5012,24 @@
         <v>5</v>
       </c>
       <c r="I83" t="s">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>407</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="L83">
-        <v>5.16</v>
+        <v>4.87</v>
       </c>
       <c r="M83">
-        <v>158</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -5590,24 +5041,24 @@
         <v>5</v>
       </c>
       <c r="I84" t="s">
-        <v>409</v>
+        <v>314</v>
       </c>
       <c r="J84" t="s">
-        <v>410</v>
+        <v>315</v>
       </c>
       <c r="K84" t="s">
-        <v>130</v>
+        <v>316</v>
       </c>
       <c r="L84">
-        <v>4.82</v>
+        <v>5.03</v>
       </c>
       <c r="M84">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5619,24 +5070,24 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="J85" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
       <c r="K85" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="L85">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="M85">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>415</v>
+        <v>120</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5648,24 +5099,24 @@
         <v>5</v>
       </c>
       <c r="I86" t="s">
-        <v>416</v>
+        <v>121</v>
       </c>
       <c r="J86" t="s">
-        <v>417</v>
+        <v>119</v>
       </c>
       <c r="K86" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L86">
-        <v>5.0199999999999996</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M86">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>418</v>
+        <v>347</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5677,24 +5128,24 @@
         <v>5</v>
       </c>
       <c r="I87" t="s">
-        <v>419</v>
+        <v>348</v>
       </c>
       <c r="J87" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="K87" t="s">
-        <v>137</v>
+        <v>350</v>
       </c>
       <c r="L87">
-        <v>5.08</v>
+        <v>4.84</v>
       </c>
       <c r="M87">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>420</v>
+        <v>655</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -5706,24 +5157,24 @@
         <v>5</v>
       </c>
       <c r="I88" t="s">
-        <v>421</v>
+        <v>656</v>
       </c>
       <c r="J88" t="s">
-        <v>422</v>
+        <v>657</v>
       </c>
       <c r="K88" t="s">
-        <v>414</v>
+        <v>658</v>
       </c>
       <c r="L88">
-        <v>4.95</v>
+        <v>5.26</v>
       </c>
       <c r="M88">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>443</v>
+        <v>585</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -5735,24 +5186,24 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>444</v>
+        <v>586</v>
       </c>
       <c r="J89" t="s">
-        <v>445</v>
+        <v>587</v>
       </c>
       <c r="K89" t="s">
-        <v>446</v>
+        <v>588</v>
       </c>
       <c r="L89">
-        <v>4.97</v>
+        <v>5.07</v>
       </c>
       <c r="M89">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>447</v>
+        <v>559</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -5764,24 +5215,24 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>448</v>
+        <v>560</v>
       </c>
       <c r="J90" t="s">
-        <v>449</v>
+        <v>561</v>
       </c>
       <c r="K90" t="s">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="L90">
-        <v>4.8899999999999997</v>
+        <v>5.04</v>
       </c>
       <c r="M90">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>494</v>
+        <v>651</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5793,24 +5244,24 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>495</v>
+        <v>652</v>
       </c>
       <c r="J91" t="s">
-        <v>496</v>
+        <v>653</v>
       </c>
       <c r="K91" t="s">
-        <v>497</v>
+        <v>654</v>
       </c>
       <c r="L91">
-        <v>4.93</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M91">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>510</v>
+        <v>632</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -5822,24 +5273,24 @@
         <v>5</v>
       </c>
       <c r="I92" t="s">
-        <v>511</v>
+        <v>633</v>
       </c>
       <c r="J92" t="s">
-        <v>512</v>
+        <v>634</v>
       </c>
       <c r="K92" t="s">
-        <v>137</v>
+        <v>635</v>
       </c>
       <c r="L92">
-        <v>5</v>
+        <v>5.12</v>
       </c>
       <c r="M92">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>536</v>
+        <v>108</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -5851,24 +5302,24 @@
         <v>5</v>
       </c>
       <c r="I93" t="s">
-        <v>537</v>
+        <v>109</v>
       </c>
       <c r="J93" t="s">
-        <v>538</v>
+        <v>110</v>
       </c>
       <c r="K93" t="s">
-        <v>539</v>
+        <v>111</v>
       </c>
       <c r="L93">
-        <v>5.47</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M93">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>540</v>
+        <v>381</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -5880,24 +5331,24 @@
         <v>5</v>
       </c>
       <c r="I94" t="s">
-        <v>541</v>
+        <v>382</v>
       </c>
       <c r="J94" t="s">
-        <v>542</v>
+        <v>383</v>
       </c>
       <c r="K94" t="s">
-        <v>543</v>
+        <v>384</v>
       </c>
       <c r="L94">
-        <v>5.08</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="M94">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>544</v>
+        <v>341</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -5909,24 +5360,24 @@
         <v>5</v>
       </c>
       <c r="I95" t="s">
-        <v>545</v>
+        <v>342</v>
       </c>
       <c r="J95" t="s">
-        <v>546</v>
+        <v>343</v>
       </c>
       <c r="K95" t="s">
-        <v>547</v>
+        <v>111</v>
       </c>
       <c r="L95">
-        <v>5.0999999999999996</v>
+        <v>5.16</v>
       </c>
       <c r="M95">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -5938,24 +5389,24 @@
         <v>5</v>
       </c>
       <c r="I96" t="s">
-        <v>553</v>
+        <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>554</v>
+        <v>15</v>
       </c>
       <c r="K96" t="s">
-        <v>555</v>
+        <v>16</v>
       </c>
       <c r="L96">
-        <v>5.01</v>
+        <v>5.07</v>
       </c>
       <c r="M96">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>568</v>
+        <v>131</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5967,24 +5418,24 @@
         <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>569</v>
+        <v>132</v>
       </c>
       <c r="J97" t="s">
-        <v>570</v>
+        <v>133</v>
       </c>
       <c r="K97" t="s">
-        <v>571</v>
+        <v>134</v>
       </c>
       <c r="L97">
-        <v>5.05</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="M97">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>576</v>
+        <v>688</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -5996,24 +5447,24 @@
         <v>5</v>
       </c>
       <c r="I98" t="s">
-        <v>577</v>
+        <v>689</v>
       </c>
       <c r="J98" t="s">
-        <v>578</v>
+        <v>690</v>
       </c>
       <c r="K98" t="s">
-        <v>579</v>
+        <v>687</v>
       </c>
       <c r="L98">
-        <v>5.22</v>
+        <v>5.31</v>
       </c>
       <c r="M98">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>580</v>
+        <v>78</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -6025,24 +5476,24 @@
         <v>5</v>
       </c>
       <c r="I99" t="s">
-        <v>581</v>
+        <v>79</v>
       </c>
       <c r="J99" t="s">
-        <v>582</v>
+        <v>77</v>
       </c>
       <c r="K99" t="s">
-        <v>583</v>
+        <v>80</v>
       </c>
       <c r="L99">
-        <v>5.07</v>
+        <v>4.84</v>
       </c>
       <c r="M99">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -6054,24 +5505,24 @@
         <v>5</v>
       </c>
       <c r="I100" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="J100" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="K100" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="L100">
-        <v>4.9400000000000004</v>
+        <v>5</v>
       </c>
       <c r="M100">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -6083,24 +5534,24 @@
         <v>5</v>
       </c>
       <c r="I101" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="J101" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="K101" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="L101">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="M101">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>596</v>
+        <v>697</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6112,24 +5563,24 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>597</v>
+        <v>698</v>
       </c>
       <c r="J102" t="s">
-        <v>598</v>
+        <v>699</v>
       </c>
       <c r="K102" t="s">
-        <v>599</v>
+        <v>111</v>
       </c>
       <c r="L102">
-        <v>5.16</v>
+        <v>5.07</v>
       </c>
       <c r="M102">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>612</v>
+        <v>719</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -6141,24 +5592,24 @@
         <v>5</v>
       </c>
       <c r="I103" t="s">
-        <v>613</v>
+        <v>720</v>
       </c>
       <c r="J103" t="s">
-        <v>614</v>
+        <v>721</v>
       </c>
       <c r="K103" t="s">
-        <v>615</v>
+        <v>722</v>
       </c>
       <c r="L103">
-        <v>4.97</v>
+        <v>5</v>
       </c>
       <c r="M103">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>616</v>
+        <v>115</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -6170,24 +5621,24 @@
         <v>5</v>
       </c>
       <c r="I104" t="s">
-        <v>617</v>
+        <v>116</v>
       </c>
       <c r="J104" t="s">
-        <v>618</v>
+        <v>117</v>
       </c>
       <c r="K104" t="s">
-        <v>619</v>
+        <v>118</v>
       </c>
       <c r="L104">
-        <v>5.08</v>
+        <v>4.84</v>
       </c>
       <c r="M104">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>623</v>
+        <v>712</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -6199,24 +5650,24 @@
         <v>5</v>
       </c>
       <c r="I105" t="s">
-        <v>624</v>
+        <v>713</v>
       </c>
       <c r="J105" t="s">
-        <v>622</v>
+        <v>714</v>
       </c>
       <c r="K105" t="s">
-        <v>625</v>
+        <v>715</v>
       </c>
       <c r="L105">
-        <v>5.41</v>
+        <v>5.08</v>
       </c>
       <c r="M105">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>626</v>
+        <v>575</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -6228,24 +5679,24 @@
         <v>5</v>
       </c>
       <c r="I106" t="s">
-        <v>627</v>
+        <v>576</v>
       </c>
       <c r="J106" t="s">
-        <v>628</v>
+        <v>573</v>
       </c>
       <c r="K106" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="L106">
-        <v>5.25</v>
+        <v>5.01</v>
       </c>
       <c r="M106">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>630</v>
+        <v>506</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -6257,24 +5708,24 @@
         <v>5</v>
       </c>
       <c r="I107" t="s">
-        <v>631</v>
+        <v>507</v>
       </c>
       <c r="J107" t="s">
-        <v>632</v>
+        <v>508</v>
       </c>
       <c r="K107" t="s">
-        <v>633</v>
+        <v>509</v>
       </c>
       <c r="L107">
-        <v>5.0199999999999996</v>
+        <v>5.16</v>
       </c>
       <c r="M107">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -6286,24 +5737,24 @@
         <v>5</v>
       </c>
       <c r="I108" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="J108" t="s">
-        <v>636</v>
+        <v>671</v>
       </c>
       <c r="K108" t="s">
-        <v>637</v>
+        <v>111</v>
       </c>
       <c r="L108">
-        <v>5.25</v>
+        <v>4.99</v>
       </c>
       <c r="M108">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -6315,24 +5766,24 @@
         <v>5</v>
       </c>
       <c r="I109" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="J109" t="s">
+        <v>668</v>
+      </c>
+      <c r="K109" t="s">
         <v>665</v>
       </c>
-      <c r="K109" t="s">
-        <v>666</v>
-      </c>
       <c r="L109">
-        <v>5.01</v>
+        <v>5.23</v>
       </c>
       <c r="M109">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -6344,16 +5795,16 @@
         <v>5</v>
       </c>
       <c r="I110" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
       <c r="J110" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="K110" t="s">
-        <v>670</v>
+        <v>554</v>
       </c>
       <c r="L110">
-        <v>5.04</v>
+        <v>4.91</v>
       </c>
       <c r="M110">
         <v>160</v>
@@ -6361,7 +5812,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>671</v>
+        <v>218</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -6373,24 +5824,24 @@
         <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>672</v>
+        <v>219</v>
       </c>
       <c r="J111" t="s">
-        <v>673</v>
+        <v>220</v>
       </c>
       <c r="K111" t="s">
-        <v>674</v>
+        <v>111</v>
       </c>
       <c r="L111">
-        <v>5.0199999999999996</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M111">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>675</v>
+        <v>533</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -6402,24 +5853,24 @@
         <v>5</v>
       </c>
       <c r="I112" t="s">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="J112" t="s">
-        <v>677</v>
+        <v>535</v>
       </c>
       <c r="K112" t="s">
-        <v>678</v>
+        <v>536</v>
       </c>
       <c r="L112">
-        <v>5.08</v>
+        <v>5.25</v>
       </c>
       <c r="M112">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -6431,24 +5882,24 @@
         <v>5</v>
       </c>
       <c r="I113" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="J113" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="K113" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="L113">
-        <v>5.01</v>
+        <v>5.19</v>
       </c>
       <c r="M113">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>684</v>
+        <v>179</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -6460,24 +5911,24 @@
         <v>5</v>
       </c>
       <c r="I114" t="s">
-        <v>685</v>
+        <v>180</v>
       </c>
       <c r="J114" t="s">
-        <v>682</v>
+        <v>181</v>
       </c>
       <c r="K114" t="s">
-        <v>686</v>
+        <v>182</v>
       </c>
       <c r="L114">
-        <v>5.01</v>
+        <v>5.47</v>
       </c>
       <c r="M114">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>687</v>
+        <v>526</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -6489,74 +5940,74 @@
         <v>5</v>
       </c>
       <c r="I115" t="s">
-        <v>688</v>
+        <v>527</v>
       </c>
       <c r="J115" t="s">
-        <v>689</v>
+        <v>528</v>
       </c>
       <c r="K115" t="s">
-        <v>690</v>
+        <v>529</v>
       </c>
       <c r="L115">
-        <v>5.0199999999999996</v>
+        <v>5.08</v>
       </c>
       <c r="M115">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>694</v>
+        <v>401</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116">
         <v>5</v>
       </c>
       <c r="I116" t="s">
-        <v>695</v>
+        <v>402</v>
       </c>
       <c r="J116" t="s">
-        <v>696</v>
+        <v>403</v>
       </c>
       <c r="K116" t="s">
-        <v>697</v>
+        <v>60</v>
       </c>
       <c r="L116">
-        <v>5.07</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M116">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>698</v>
+        <v>301</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="I117" t="s">
-        <v>699</v>
+        <v>302</v>
       </c>
       <c r="J117" t="s">
-        <v>700</v>
+        <v>303</v>
       </c>
       <c r="K117" t="s">
-        <v>701</v>
+        <v>304</v>
       </c>
       <c r="L117">
-        <v>5</v>
+        <v>5.12</v>
       </c>
       <c r="M117">
         <v>163</v>
@@ -6564,376 +6015,376 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>702</v>
+        <v>277</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <v>5</v>
       </c>
       <c r="I118" t="s">
-        <v>703</v>
+        <v>278</v>
       </c>
       <c r="J118" t="s">
-        <v>704</v>
+        <v>279</v>
       </c>
       <c r="K118" t="s">
-        <v>705</v>
+        <v>280</v>
       </c>
       <c r="L118">
-        <v>5.01</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M118">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>710</v>
+        <v>458</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>5</v>
       </c>
       <c r="I119" t="s">
-        <v>711</v>
+        <v>459</v>
       </c>
       <c r="J119" t="s">
-        <v>712</v>
+        <v>460</v>
       </c>
       <c r="K119" t="s">
-        <v>713</v>
+        <v>461</v>
       </c>
       <c r="L119">
-        <v>5.01</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M119">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>714</v>
+        <v>486</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
         <v>5</v>
       </c>
       <c r="I120" t="s">
-        <v>715</v>
+        <v>487</v>
       </c>
       <c r="J120" t="s">
-        <v>716</v>
+        <v>488</v>
       </c>
       <c r="K120" t="s">
-        <v>658</v>
+        <v>489</v>
       </c>
       <c r="L120">
-        <v>5.07</v>
+        <v>4.97</v>
       </c>
       <c r="M120">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>718</v>
+        <v>440</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>5</v>
       </c>
       <c r="I121" t="s">
-        <v>719</v>
+        <v>441</v>
       </c>
       <c r="J121" t="s">
-        <v>717</v>
+        <v>442</v>
       </c>
       <c r="K121" t="s">
-        <v>720</v>
+        <v>443</v>
       </c>
       <c r="L121">
-        <v>5.0199999999999996</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M121">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>721</v>
+        <v>269</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>5</v>
       </c>
       <c r="I122" t="s">
-        <v>722</v>
+        <v>270</v>
       </c>
       <c r="J122" t="s">
-        <v>723</v>
+        <v>271</v>
       </c>
       <c r="K122" t="s">
-        <v>679</v>
+        <v>272</v>
       </c>
       <c r="L122">
-        <v>5.03</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M122">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>724</v>
+        <v>309</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>5</v>
       </c>
       <c r="I123" t="s">
-        <v>725</v>
+        <v>310</v>
       </c>
       <c r="J123" t="s">
-        <v>726</v>
+        <v>311</v>
       </c>
       <c r="K123" t="s">
-        <v>727</v>
+        <v>312</v>
       </c>
       <c r="L123">
-        <v>4.97</v>
+        <v>5.13</v>
       </c>
       <c r="M123">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>728</v>
+        <v>225</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>5</v>
       </c>
       <c r="I124" t="s">
-        <v>729</v>
+        <v>226</v>
       </c>
       <c r="J124" t="s">
-        <v>730</v>
+        <v>227</v>
       </c>
       <c r="K124" t="s">
-        <v>731</v>
+        <v>228</v>
       </c>
       <c r="L124">
         <v>5</v>
       </c>
       <c r="M124">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>732</v>
+        <v>273</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125">
         <v>5</v>
       </c>
       <c r="I125" t="s">
-        <v>733</v>
+        <v>274</v>
       </c>
       <c r="J125" t="s">
-        <v>730</v>
+        <v>275</v>
       </c>
       <c r="K125" t="s">
-        <v>734</v>
+        <v>276</v>
       </c>
       <c r="L125">
-        <v>5.01</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M125">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>735</v>
+        <v>424</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>5</v>
       </c>
       <c r="I126" t="s">
-        <v>736</v>
+        <v>425</v>
       </c>
       <c r="J126" t="s">
-        <v>737</v>
+        <v>426</v>
       </c>
       <c r="K126" t="s">
-        <v>738</v>
+        <v>427</v>
       </c>
       <c r="L126">
-        <v>5.0599999999999996</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M126">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>739</v>
+        <v>365</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>5</v>
       </c>
       <c r="I127" t="s">
-        <v>740</v>
+        <v>366</v>
       </c>
       <c r="J127" t="s">
-        <v>741</v>
+        <v>367</v>
       </c>
       <c r="K127" t="s">
-        <v>742</v>
+        <v>368</v>
       </c>
       <c r="L127">
-        <v>5.23</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="M127">
-        <v>129</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>743</v>
+        <v>361</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128">
         <v>5</v>
       </c>
       <c r="I128" t="s">
-        <v>744</v>
+        <v>362</v>
       </c>
       <c r="J128" t="s">
-        <v>745</v>
+        <v>363</v>
       </c>
       <c r="K128" t="s">
-        <v>746</v>
+        <v>364</v>
       </c>
       <c r="L128">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M128">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>747</v>
+        <v>482</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129">
         <v>5</v>
       </c>
       <c r="I129" t="s">
-        <v>748</v>
+        <v>483</v>
       </c>
       <c r="J129" t="s">
-        <v>749</v>
+        <v>484</v>
       </c>
       <c r="K129" t="s">
-        <v>750</v>
+        <v>485</v>
       </c>
       <c r="L129">
-        <v>5.12</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M129">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>751</v>
+        <v>478</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130">
         <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>752</v>
+        <v>479</v>
       </c>
       <c r="J130" t="s">
-        <v>753</v>
+        <v>480</v>
       </c>
       <c r="K130" t="s">
-        <v>754</v>
+        <v>481</v>
       </c>
       <c r="L130">
-        <v>5.13</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M130">
         <v>162</v>
@@ -6941,579 +6392,579 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>755</v>
+        <v>45</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131">
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>756</v>
+        <v>46</v>
       </c>
       <c r="J131" t="s">
-        <v>757</v>
+        <v>47</v>
       </c>
       <c r="K131" t="s">
-        <v>758</v>
+        <v>48</v>
       </c>
       <c r="L131">
-        <v>5.0599999999999996</v>
+        <v>5.14</v>
       </c>
       <c r="M131">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>759</v>
+        <v>389</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>5</v>
       </c>
       <c r="I132" t="s">
-        <v>760</v>
+        <v>390</v>
       </c>
       <c r="J132" t="s">
-        <v>761</v>
+        <v>391</v>
       </c>
       <c r="K132" t="s">
-        <v>130</v>
+        <v>392</v>
       </c>
       <c r="L132">
         <v>5.12</v>
       </c>
       <c r="M132">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>762</v>
+        <v>432</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>5</v>
       </c>
       <c r="I133" t="s">
-        <v>763</v>
+        <v>433</v>
       </c>
       <c r="J133" t="s">
-        <v>764</v>
+        <v>434</v>
       </c>
       <c r="K133" t="s">
-        <v>137</v>
+        <v>435</v>
       </c>
       <c r="L133">
-        <v>5.0599999999999996</v>
+        <v>5.09</v>
       </c>
       <c r="M133">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>765</v>
+        <v>183</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134">
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>766</v>
+        <v>184</v>
       </c>
       <c r="J134" t="s">
-        <v>767</v>
+        <v>185</v>
       </c>
       <c r="K134" t="s">
-        <v>768</v>
+        <v>48</v>
       </c>
       <c r="L134">
         <v>5.12</v>
       </c>
       <c r="M134">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>769</v>
+        <v>369</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>770</v>
+        <v>370</v>
       </c>
       <c r="J135" t="s">
-        <v>771</v>
+        <v>371</v>
       </c>
       <c r="K135" t="s">
-        <v>768</v>
+        <v>372</v>
       </c>
       <c r="L135">
-        <v>5.08</v>
+        <v>4.97</v>
       </c>
       <c r="M135">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>772</v>
+        <v>436</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136">
         <v>5</v>
       </c>
       <c r="I136" t="s">
-        <v>773</v>
+        <v>437</v>
       </c>
       <c r="J136" t="s">
-        <v>774</v>
+        <v>438</v>
       </c>
       <c r="K136" t="s">
-        <v>775</v>
+        <v>439</v>
       </c>
       <c r="L136">
-        <v>5.0199999999999996</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>776</v>
+        <v>245</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>5</v>
       </c>
       <c r="I137" t="s">
-        <v>777</v>
+        <v>246</v>
       </c>
       <c r="J137" t="s">
-        <v>778</v>
+        <v>247</v>
       </c>
       <c r="K137" t="s">
-        <v>779</v>
+        <v>248</v>
       </c>
       <c r="L137">
-        <v>5.05</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M137">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>780</v>
+        <v>285</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138">
         <v>5</v>
       </c>
       <c r="I138" t="s">
-        <v>781</v>
+        <v>286</v>
       </c>
       <c r="J138" t="s">
-        <v>782</v>
+        <v>287</v>
       </c>
       <c r="K138" t="s">
-        <v>783</v>
+        <v>288</v>
       </c>
       <c r="L138">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M138">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>784</v>
+        <v>37</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139">
         <v>5</v>
       </c>
       <c r="I139" t="s">
-        <v>785</v>
+        <v>38</v>
       </c>
       <c r="J139" t="s">
-        <v>786</v>
+        <v>39</v>
       </c>
       <c r="K139" t="s">
-        <v>787</v>
+        <v>40</v>
       </c>
       <c r="L139">
-        <v>5.0199999999999996</v>
+        <v>4.91</v>
       </c>
       <c r="M139">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>788</v>
+        <v>408</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>5</v>
       </c>
       <c r="I140" t="s">
-        <v>789</v>
+        <v>409</v>
       </c>
       <c r="J140" t="s">
-        <v>790</v>
+        <v>410</v>
       </c>
       <c r="K140" t="s">
-        <v>791</v>
+        <v>411</v>
       </c>
       <c r="L140">
-        <v>5.26</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M140">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>792</v>
+        <v>317</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>793</v>
+        <v>318</v>
       </c>
       <c r="J141" t="s">
-        <v>794</v>
+        <v>319</v>
       </c>
       <c r="K141" t="s">
-        <v>795</v>
+        <v>320</v>
       </c>
       <c r="L141">
-        <v>5.46</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>796</v>
+        <v>329</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142">
         <v>5</v>
       </c>
       <c r="I142" t="s">
-        <v>797</v>
+        <v>330</v>
       </c>
       <c r="J142" t="s">
-        <v>794</v>
+        <v>331</v>
       </c>
       <c r="K142" t="s">
-        <v>791</v>
+        <v>332</v>
       </c>
       <c r="L142">
-        <v>4.99</v>
+        <v>4.95</v>
       </c>
       <c r="M142">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>798</v>
+        <v>253</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>5</v>
       </c>
       <c r="I143" t="s">
-        <v>799</v>
+        <v>254</v>
       </c>
       <c r="J143" t="s">
-        <v>800</v>
+        <v>255</v>
       </c>
       <c r="K143" t="s">
-        <v>801</v>
+        <v>256</v>
       </c>
       <c r="L143">
-        <v>5.22</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M143">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>802</v>
+        <v>385</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <v>5</v>
       </c>
       <c r="I144" t="s">
-        <v>803</v>
+        <v>386</v>
       </c>
       <c r="J144" t="s">
-        <v>804</v>
+        <v>387</v>
       </c>
       <c r="K144" t="s">
-        <v>805</v>
+        <v>388</v>
       </c>
       <c r="L144">
-        <v>5.21</v>
+        <v>5.14</v>
       </c>
       <c r="M144">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>806</v>
+        <v>412</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145">
         <v>5</v>
       </c>
       <c r="I145" t="s">
-        <v>807</v>
+        <v>413</v>
       </c>
       <c r="J145" t="s">
-        <v>808</v>
+        <v>414</v>
       </c>
       <c r="K145" t="s">
-        <v>801</v>
+        <v>415</v>
       </c>
       <c r="L145">
-        <v>5.23</v>
+        <v>5</v>
       </c>
       <c r="M145">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>809</v>
+        <v>518</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146">
         <v>5</v>
       </c>
       <c r="I146" t="s">
-        <v>810</v>
+        <v>519</v>
       </c>
       <c r="J146" t="s">
-        <v>811</v>
+        <v>520</v>
       </c>
       <c r="K146" t="s">
-        <v>812</v>
+        <v>521</v>
       </c>
       <c r="L146">
-        <v>5.0199999999999996</v>
+        <v>4.93</v>
       </c>
       <c r="M146">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>813</v>
+        <v>97</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147">
         <v>5</v>
       </c>
       <c r="I147" t="s">
-        <v>814</v>
+        <v>98</v>
       </c>
       <c r="J147" t="s">
-        <v>815</v>
+        <v>99</v>
       </c>
       <c r="K147" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="L147">
-        <v>4.99</v>
+        <v>5.05</v>
       </c>
       <c r="M147">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>816</v>
+        <v>470</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>5</v>
       </c>
       <c r="I148" t="s">
-        <v>817</v>
+        <v>471</v>
       </c>
       <c r="J148" t="s">
-        <v>818</v>
+        <v>472</v>
       </c>
       <c r="K148" t="s">
-        <v>819</v>
+        <v>473</v>
       </c>
       <c r="L148">
-        <v>5.19</v>
+        <v>5.04</v>
       </c>
       <c r="M148">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>831</v>
+        <v>229</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149">
         <v>5</v>
       </c>
       <c r="I149" t="s">
-        <v>832</v>
+        <v>230</v>
       </c>
       <c r="J149" t="s">
-        <v>833</v>
+        <v>231</v>
       </c>
       <c r="K149" t="s">
-        <v>834</v>
+        <v>232</v>
       </c>
       <c r="L149">
-        <v>5.36</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M149">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>835</v>
+        <v>337</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150">
         <v>5</v>
       </c>
       <c r="I150" t="s">
-        <v>836</v>
+        <v>338</v>
       </c>
       <c r="J150" t="s">
-        <v>837</v>
+        <v>339</v>
       </c>
       <c r="K150" t="s">
-        <v>834</v>
+        <v>340</v>
       </c>
       <c r="L150">
-        <v>5.31</v>
+        <v>5.01</v>
       </c>
       <c r="M150">
         <v>157</v>
@@ -7521,28 +6972,28 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>841</v>
+        <v>502</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151">
         <v>5</v>
       </c>
       <c r="I151" t="s">
-        <v>842</v>
+        <v>503</v>
       </c>
       <c r="J151" t="s">
-        <v>843</v>
+        <v>504</v>
       </c>
       <c r="K151" t="s">
-        <v>658</v>
+        <v>505</v>
       </c>
       <c r="L151">
-        <v>4.91</v>
+        <v>4.96</v>
       </c>
       <c r="M151">
         <v>160</v>
@@ -7550,384 +7001,384 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>844</v>
+        <v>325</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152">
         <v>5</v>
       </c>
       <c r="I152" t="s">
-        <v>845</v>
+        <v>326</v>
       </c>
       <c r="J152" t="s">
-        <v>846</v>
+        <v>327</v>
       </c>
       <c r="K152" t="s">
-        <v>658</v>
+        <v>328</v>
       </c>
       <c r="L152">
-        <v>4.95</v>
+        <v>4.93</v>
       </c>
       <c r="M152">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>847</v>
+        <v>139</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153">
         <v>5</v>
       </c>
       <c r="I153" t="s">
-        <v>848</v>
+        <v>140</v>
       </c>
       <c r="J153" t="s">
-        <v>849</v>
+        <v>141</v>
       </c>
       <c r="K153" t="s">
-        <v>850</v>
+        <v>142</v>
       </c>
       <c r="L153">
-        <v>5.03</v>
+        <v>5.07</v>
       </c>
       <c r="M153">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>851</v>
+        <v>555</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154">
         <v>5</v>
       </c>
       <c r="I154" t="s">
-        <v>852</v>
+        <v>556</v>
       </c>
       <c r="J154" t="s">
-        <v>853</v>
+        <v>557</v>
       </c>
       <c r="K154" t="s">
-        <v>854</v>
+        <v>558</v>
       </c>
       <c r="L154">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="M154">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>855</v>
+        <v>41</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155">
         <v>5</v>
       </c>
       <c r="I155" t="s">
-        <v>856</v>
+        <v>42</v>
       </c>
       <c r="J155" t="s">
-        <v>853</v>
+        <v>43</v>
       </c>
       <c r="K155" t="s">
-        <v>854</v>
+        <v>44</v>
       </c>
       <c r="L155">
-        <v>5.03</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M155">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>857</v>
+        <v>65</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156">
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>858</v>
+        <v>66</v>
       </c>
       <c r="J156" t="s">
-        <v>859</v>
+        <v>67</v>
       </c>
       <c r="K156" t="s">
-        <v>658</v>
+        <v>68</v>
       </c>
       <c r="L156">
-        <v>4.96</v>
+        <v>4.91</v>
       </c>
       <c r="M156">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>860</v>
+        <v>53</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157">
         <v>5</v>
       </c>
       <c r="I157" t="s">
-        <v>861</v>
+        <v>54</v>
       </c>
       <c r="J157" t="s">
-        <v>862</v>
+        <v>55</v>
       </c>
       <c r="K157" t="s">
-        <v>863</v>
+        <v>56</v>
       </c>
       <c r="L157">
-        <v>5.1100000000000003</v>
+        <v>4.87</v>
       </c>
       <c r="M157">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>864</v>
+        <v>450</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158">
         <v>5</v>
       </c>
       <c r="I158" t="s">
-        <v>865</v>
+        <v>451</v>
       </c>
       <c r="J158" t="s">
-        <v>866</v>
+        <v>452</v>
       </c>
       <c r="K158" t="s">
-        <v>137</v>
+        <v>453</v>
       </c>
       <c r="L158">
-        <v>5.07</v>
+        <v>4.88</v>
       </c>
       <c r="M158">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>867</v>
+        <v>514</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>5</v>
       </c>
       <c r="I159" t="s">
-        <v>868</v>
+        <v>515</v>
       </c>
       <c r="J159" t="s">
-        <v>869</v>
+        <v>516</v>
       </c>
       <c r="K159" t="s">
-        <v>870</v>
+        <v>517</v>
       </c>
       <c r="L159">
         <v>5.0999999999999996</v>
       </c>
       <c r="M159">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>875</v>
+        <v>21</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160">
         <v>5</v>
       </c>
       <c r="I160" t="s">
-        <v>876</v>
+        <v>22</v>
       </c>
       <c r="J160" t="s">
-        <v>877</v>
+        <v>23</v>
       </c>
       <c r="K160" t="s">
-        <v>878</v>
+        <v>24</v>
       </c>
       <c r="L160">
-        <v>5.29</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="M160">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>879</v>
+        <v>93</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>5</v>
       </c>
       <c r="I161" t="s">
-        <v>880</v>
+        <v>94</v>
       </c>
       <c r="J161" t="s">
-        <v>881</v>
+        <v>95</v>
       </c>
       <c r="K161" t="s">
-        <v>882</v>
+        <v>96</v>
       </c>
       <c r="L161">
-        <v>4.88</v>
+        <v>5</v>
       </c>
       <c r="M161">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>891</v>
+        <v>17</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162">
         <v>5</v>
       </c>
       <c r="I162" t="s">
-        <v>892</v>
+        <v>18</v>
       </c>
       <c r="J162" t="s">
-        <v>893</v>
+        <v>19</v>
       </c>
       <c r="K162" t="s">
-        <v>894</v>
+        <v>20</v>
       </c>
       <c r="L162">
-        <v>5.36</v>
+        <v>4.91</v>
       </c>
       <c r="M162">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>895</v>
+        <v>25</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <v>5</v>
       </c>
       <c r="I163" t="s">
-        <v>896</v>
+        <v>26</v>
       </c>
       <c r="J163" t="s">
-        <v>897</v>
+        <v>27</v>
       </c>
       <c r="K163" t="s">
-        <v>898</v>
+        <v>28</v>
       </c>
       <c r="L163">
-        <v>5.08</v>
+        <v>4.97</v>
       </c>
       <c r="M163">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>902</v>
+        <v>198</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>5</v>
       </c>
       <c r="I164" t="s">
-        <v>903</v>
+        <v>199</v>
       </c>
       <c r="J164" t="s">
-        <v>904</v>
+        <v>200</v>
       </c>
       <c r="K164" t="s">
-        <v>905</v>
+        <v>201</v>
       </c>
       <c r="L164">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M164">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>542</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -7939,24 +7390,24 @@
         <v>5</v>
       </c>
       <c r="I165" t="s">
-        <v>18</v>
+        <v>543</v>
       </c>
       <c r="J165" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="K165" t="s">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="L165">
-        <v>4.91</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M165">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -7968,16 +7419,16 @@
         <v>5</v>
       </c>
       <c r="I166" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="J166" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="K166" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="L166">
-        <v>4.8899999999999997</v>
+        <v>5.09</v>
       </c>
       <c r="M166">
         <v>162</v>
@@ -7985,7 +7436,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>25</v>
+        <v>397</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -7997,24 +7448,24 @@
         <v>5</v>
       </c>
       <c r="I167" t="s">
-        <v>26</v>
+        <v>398</v>
       </c>
       <c r="J167" t="s">
-        <v>27</v>
+        <v>399</v>
       </c>
       <c r="K167" t="s">
-        <v>28</v>
+        <v>400</v>
       </c>
       <c r="L167">
-        <v>4.97</v>
+        <v>5.01</v>
       </c>
       <c r="M167">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>37</v>
+        <v>373</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -8026,24 +7477,24 @@
         <v>5</v>
       </c>
       <c r="I168" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="J168" t="s">
-        <v>39</v>
+        <v>375</v>
       </c>
       <c r="K168" t="s">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="L168">
-        <v>4.91</v>
+        <v>5.09</v>
       </c>
       <c r="M168">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -8055,24 +7506,24 @@
         <v>5</v>
       </c>
       <c r="I169" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="K169" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="L169">
-        <v>4.9400000000000004</v>
+        <v>5.07</v>
       </c>
       <c r="M169">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -8084,24 +7535,24 @@
         <v>5</v>
       </c>
       <c r="I170" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="K170" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="L170">
-        <v>5.14</v>
+        <v>5.05</v>
       </c>
       <c r="M170">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>64</v>
+        <v>462</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -8113,24 +7564,24 @@
         <v>5</v>
       </c>
       <c r="I171" t="s">
-        <v>65</v>
+        <v>463</v>
       </c>
       <c r="J171" t="s">
-        <v>66</v>
+        <v>464</v>
       </c>
       <c r="K171" t="s">
-        <v>67</v>
+        <v>465</v>
       </c>
       <c r="L171">
-        <v>4.87</v>
+        <v>5.03</v>
       </c>
       <c r="M171">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>68</v>
+        <v>537</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -8142,24 +7593,24 @@
         <v>5</v>
       </c>
       <c r="I172" t="s">
-        <v>69</v>
+        <v>538</v>
       </c>
       <c r="J172" t="s">
-        <v>70</v>
+        <v>539</v>
       </c>
       <c r="K172" t="s">
-        <v>71</v>
+        <v>540</v>
       </c>
       <c r="L172">
-        <v>5.0999999999999996</v>
+        <v>5.04</v>
       </c>
       <c r="M172">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -8171,24 +7622,24 @@
         <v>5</v>
       </c>
       <c r="I173" t="s">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="J173" t="s">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="K173" t="s">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="L173">
-        <v>4.91</v>
+        <v>5.05</v>
       </c>
       <c r="M173">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>119</v>
+        <v>530</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -8200,24 +7651,24 @@
         <v>5</v>
       </c>
       <c r="I174" t="s">
-        <v>120</v>
+        <v>531</v>
       </c>
       <c r="J174" t="s">
-        <v>121</v>
+        <v>532</v>
       </c>
       <c r="K174" t="s">
-        <v>122</v>
+        <v>427</v>
       </c>
       <c r="L174">
-        <v>5</v>
+        <v>5.03</v>
       </c>
       <c r="M174">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>123</v>
+        <v>544</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -8229,24 +7680,24 @@
         <v>5</v>
       </c>
       <c r="I175" t="s">
-        <v>124</v>
+        <v>545</v>
       </c>
       <c r="J175" t="s">
-        <v>125</v>
+        <v>546</v>
       </c>
       <c r="K175" t="s">
-        <v>40</v>
+        <v>547</v>
       </c>
       <c r="L175">
-        <v>5.05</v>
+        <v>4.87</v>
       </c>
       <c r="M175">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -8258,13 +7709,13 @@
         <v>5</v>
       </c>
       <c r="I176" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="J176" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="K176" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L176">
         <v>4.97</v>
@@ -8275,7 +7726,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -8287,24 +7738,24 @@
         <v>5</v>
       </c>
       <c r="I177" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="J177" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="K177" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="L177">
-        <v>5.09</v>
+        <v>4.91</v>
       </c>
       <c r="M177">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>160</v>
+        <v>691</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -8316,24 +7767,24 @@
         <v>5</v>
       </c>
       <c r="I178" t="s">
+        <v>692</v>
+      </c>
+      <c r="J178" t="s">
+        <v>693</v>
+      </c>
+      <c r="K178" t="s">
+        <v>48</v>
+      </c>
+      <c r="L178">
+        <v>5.14</v>
+      </c>
+      <c r="M178">
         <v>161</v>
-      </c>
-      <c r="J178" t="s">
-        <v>162</v>
-      </c>
-      <c r="K178" t="s">
-        <v>163</v>
-      </c>
-      <c r="L178">
-        <v>5.07</v>
-      </c>
-      <c r="M178">
-        <v>110</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>176</v>
+        <v>716</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -8345,24 +7796,24 @@
         <v>5</v>
       </c>
       <c r="I179" t="s">
-        <v>177</v>
+        <v>717</v>
       </c>
       <c r="J179" t="s">
-        <v>178</v>
+        <v>718</v>
       </c>
       <c r="K179" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="L179">
-        <v>5.07</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M179">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>196</v>
+        <v>680</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -8374,24 +7825,24 @@
         <v>5</v>
       </c>
       <c r="I180" t="s">
-        <v>197</v>
+        <v>681</v>
       </c>
       <c r="J180" t="s">
-        <v>198</v>
+        <v>682</v>
       </c>
       <c r="K180" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="L180">
-        <v>5.05</v>
+        <v>5.13</v>
       </c>
       <c r="M180">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>231</v>
+        <v>700</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -8403,24 +7854,24 @@
         <v>5</v>
       </c>
       <c r="I181" t="s">
-        <v>232</v>
+        <v>701</v>
       </c>
       <c r="J181" t="s">
-        <v>233</v>
+        <v>702</v>
       </c>
       <c r="K181" t="s">
-        <v>48</v>
+        <v>703</v>
       </c>
       <c r="L181">
-        <v>5.12</v>
+        <v>5.13</v>
       </c>
       <c r="M181">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>242</v>
+        <v>734</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -8432,16 +7883,16 @@
         <v>5</v>
       </c>
       <c r="I182" t="s">
-        <v>243</v>
+        <v>735</v>
       </c>
       <c r="J182" t="s">
-        <v>244</v>
+        <v>736</v>
       </c>
       <c r="K182" t="s">
-        <v>245</v>
+        <v>737</v>
       </c>
       <c r="L182">
-        <v>4.91</v>
+        <v>4.92</v>
       </c>
       <c r="M182">
         <v>160</v>
@@ -8449,7 +7900,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>246</v>
+        <v>683</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -8461,24 +7912,24 @@
         <v>5</v>
       </c>
       <c r="I183" t="s">
-        <v>247</v>
+        <v>684</v>
       </c>
       <c r="J183" t="s">
-        <v>248</v>
+        <v>685</v>
       </c>
       <c r="K183" t="s">
-        <v>249</v>
+        <v>686</v>
       </c>
       <c r="L183">
-        <v>5.0199999999999996</v>
+        <v>4.93</v>
       </c>
       <c r="M183">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -8490,24 +7941,24 @@
         <v>5</v>
       </c>
       <c r="I184" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="J184" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="K184" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>5.08</v>
       </c>
       <c r="M184">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>281</v>
+        <v>676</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -8519,24 +7970,24 @@
         <v>5</v>
       </c>
       <c r="I185" t="s">
-        <v>282</v>
+        <v>677</v>
       </c>
       <c r="J185" t="s">
-        <v>283</v>
+        <v>678</v>
       </c>
       <c r="K185" t="s">
-        <v>284</v>
+        <v>679</v>
       </c>
       <c r="L185">
-        <v>5.0199999999999996</v>
+        <v>4.99</v>
       </c>
       <c r="M185">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>297</v>
+        <v>730</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -8548,24 +7999,24 @@
         <v>5</v>
       </c>
       <c r="I186" t="s">
-        <v>298</v>
+        <v>731</v>
       </c>
       <c r="J186" t="s">
-        <v>299</v>
+        <v>732</v>
       </c>
       <c r="K186" t="s">
-        <v>300</v>
+        <v>733</v>
       </c>
       <c r="L186">
-        <v>4.8499999999999996</v>
+        <v>5.09</v>
       </c>
       <c r="M186">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>305</v>
+        <v>727</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -8577,16 +8028,16 @@
         <v>5</v>
       </c>
       <c r="I187" t="s">
-        <v>306</v>
+        <v>728</v>
       </c>
       <c r="J187" t="s">
-        <v>307</v>
+        <v>729</v>
       </c>
       <c r="K187" t="s">
-        <v>308</v>
+        <v>60</v>
       </c>
       <c r="L187">
-        <v>4.9400000000000004</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M187">
         <v>158</v>
@@ -8594,7 +8045,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>325</v>
+        <v>704</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -8606,24 +8057,24 @@
         <v>5</v>
       </c>
       <c r="I188" t="s">
-        <v>326</v>
+        <v>705</v>
       </c>
       <c r="J188" t="s">
-        <v>327</v>
+        <v>706</v>
       </c>
       <c r="K188" t="s">
-        <v>328</v>
+        <v>707</v>
       </c>
       <c r="L188">
-        <v>4.8499999999999996</v>
+        <v>4.99</v>
       </c>
       <c r="M188">
-        <v>157</v>
+        <v>109</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -8635,1506 +8086,56 @@
         <v>5</v>
       </c>
       <c r="I189" t="s">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="J189" t="s">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="K189" t="s">
-        <v>332</v>
+        <v>60</v>
       </c>
       <c r="L189">
-        <v>4.9400000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M189">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I190" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="J190" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
       <c r="K190" t="s">
-        <v>336</v>
+        <v>240</v>
       </c>
       <c r="L190">
-        <v>5.1100000000000003</v>
+        <v>3.13</v>
       </c>
       <c r="M190">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>341</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-      <c r="D191">
-        <v>5</v>
-      </c>
-      <c r="I191" t="s">
-        <v>342</v>
-      </c>
-      <c r="J191" t="s">
-        <v>343</v>
-      </c>
-      <c r="K191" t="s">
-        <v>344</v>
-      </c>
-      <c r="L191">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M191">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>357</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192">
-        <v>5</v>
-      </c>
-      <c r="I192" t="s">
-        <v>358</v>
-      </c>
-      <c r="J192" t="s">
-        <v>359</v>
-      </c>
-      <c r="K192" t="s">
-        <v>360</v>
-      </c>
-      <c r="L192">
-        <v>5.08</v>
-      </c>
-      <c r="M192">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>361</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-      <c r="D193">
-        <v>5</v>
-      </c>
-      <c r="I193" t="s">
-        <v>362</v>
-      </c>
-      <c r="J193" t="s">
-        <v>363</v>
-      </c>
-      <c r="K193" t="s">
-        <v>364</v>
-      </c>
-      <c r="L193">
-        <v>5.12</v>
-      </c>
-      <c r="M193">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>369</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-      <c r="D194">
-        <v>5</v>
-      </c>
-      <c r="I194" t="s">
-        <v>370</v>
-      </c>
-      <c r="J194" t="s">
-        <v>371</v>
-      </c>
-      <c r="K194" t="s">
-        <v>372</v>
-      </c>
-      <c r="L194">
-        <v>5.13</v>
-      </c>
-      <c r="M194">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>377</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-      <c r="D195">
-        <v>5</v>
-      </c>
-      <c r="I195" t="s">
-        <v>378</v>
-      </c>
-      <c r="J195" t="s">
-        <v>379</v>
-      </c>
-      <c r="K195" t="s">
-        <v>380</v>
-      </c>
-      <c r="L195">
-        <v>5</v>
-      </c>
-      <c r="M195">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>385</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-      <c r="D196">
-        <v>5</v>
-      </c>
-      <c r="I196" t="s">
-        <v>386</v>
-      </c>
-      <c r="J196" t="s">
-        <v>387</v>
-      </c>
-      <c r="K196" t="s">
-        <v>388</v>
-      </c>
-      <c r="L196">
-        <v>4.93</v>
-      </c>
-      <c r="M196">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>393</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-      <c r="D197">
-        <v>5</v>
-      </c>
-      <c r="I197" t="s">
-        <v>394</v>
-      </c>
-      <c r="J197" t="s">
-        <v>395</v>
-      </c>
-      <c r="K197" t="s">
-        <v>396</v>
-      </c>
-      <c r="L197">
-        <v>4.95</v>
-      </c>
-      <c r="M197">
         <v>160</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>401</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-      <c r="D198">
-        <v>5</v>
-      </c>
-      <c r="I198" t="s">
-        <v>402</v>
-      </c>
-      <c r="J198" t="s">
-        <v>403</v>
-      </c>
-      <c r="K198" t="s">
-        <v>404</v>
-      </c>
-      <c r="L198">
-        <v>5.01</v>
-      </c>
-      <c r="M198">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>427</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-      <c r="D199">
-        <v>5</v>
-      </c>
-      <c r="I199" t="s">
-        <v>428</v>
-      </c>
-      <c r="J199" t="s">
-        <v>429</v>
-      </c>
-      <c r="K199" t="s">
-        <v>430</v>
-      </c>
-      <c r="L199">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="M199">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>431</v>
-      </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-      <c r="D200">
-        <v>5</v>
-      </c>
-      <c r="I200" t="s">
-        <v>432</v>
-      </c>
-      <c r="J200" t="s">
-        <v>433</v>
-      </c>
-      <c r="K200" t="s">
-        <v>434</v>
-      </c>
-      <c r="L200">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="M200">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>435</v>
-      </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-      <c r="D201">
-        <v>5</v>
-      </c>
-      <c r="I201" t="s">
-        <v>436</v>
-      </c>
-      <c r="J201" t="s">
-        <v>437</v>
-      </c>
-      <c r="K201" t="s">
-        <v>438</v>
-      </c>
-      <c r="L201">
-        <v>4.97</v>
-      </c>
-      <c r="M201">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>439</v>
-      </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-      <c r="D202">
-        <v>5</v>
-      </c>
-      <c r="I202" t="s">
-        <v>440</v>
-      </c>
-      <c r="J202" t="s">
-        <v>441</v>
-      </c>
-      <c r="K202" t="s">
-        <v>442</v>
-      </c>
-      <c r="L202">
-        <v>5.09</v>
-      </c>
-      <c r="M202">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>451</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-      <c r="D203">
-        <v>5</v>
-      </c>
-      <c r="I203" t="s">
-        <v>452</v>
-      </c>
-      <c r="J203" t="s">
-        <v>453</v>
-      </c>
-      <c r="K203" t="s">
-        <v>454</v>
-      </c>
-      <c r="L203">
-        <v>5.14</v>
-      </c>
-      <c r="M203">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>455</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="D204">
-        <v>5</v>
-      </c>
-      <c r="I204" t="s">
-        <v>456</v>
-      </c>
-      <c r="J204" t="s">
-        <v>457</v>
-      </c>
-      <c r="K204" t="s">
-        <v>458</v>
-      </c>
-      <c r="L204">
-        <v>5.12</v>
-      </c>
-      <c r="M204">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>463</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-      <c r="D205">
-        <v>5</v>
-      </c>
-      <c r="I205" t="s">
-        <v>464</v>
-      </c>
-      <c r="J205" t="s">
-        <v>465</v>
-      </c>
-      <c r="K205" t="s">
-        <v>466</v>
-      </c>
-      <c r="L205">
-        <v>5.01</v>
-      </c>
-      <c r="M205">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>467</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-      <c r="D206">
-        <v>5</v>
-      </c>
-      <c r="I206" t="s">
-        <v>468</v>
-      </c>
-      <c r="J206" t="s">
-        <v>469</v>
-      </c>
-      <c r="K206" t="s">
-        <v>71</v>
-      </c>
-      <c r="L206">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="M206">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>474</v>
-      </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-      <c r="D207">
-        <v>5</v>
-      </c>
-      <c r="I207" t="s">
-        <v>475</v>
-      </c>
-      <c r="J207" t="s">
-        <v>476</v>
-      </c>
-      <c r="K207" t="s">
-        <v>477</v>
-      </c>
-      <c r="L207">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="M207">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>478</v>
-      </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-      <c r="D208">
-        <v>5</v>
-      </c>
-      <c r="I208" t="s">
-        <v>479</v>
-      </c>
-      <c r="J208" t="s">
-        <v>480</v>
-      </c>
-      <c r="K208" t="s">
-        <v>481</v>
-      </c>
-      <c r="L208">
-        <v>5</v>
-      </c>
-      <c r="M208">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>482</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209">
-        <v>5</v>
-      </c>
-      <c r="I209" t="s">
-        <v>483</v>
-      </c>
-      <c r="J209" t="s">
-        <v>484</v>
-      </c>
-      <c r="K209" t="s">
-        <v>485</v>
-      </c>
-      <c r="L209">
-        <v>5.05</v>
-      </c>
-      <c r="M209">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>490</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
-      <c r="D210">
-        <v>5</v>
-      </c>
-      <c r="I210" t="s">
-        <v>491</v>
-      </c>
-      <c r="J210" t="s">
-        <v>492</v>
-      </c>
-      <c r="K210" t="s">
-        <v>493</v>
-      </c>
-      <c r="L210">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="M210">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>498</v>
-      </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-      <c r="D211">
-        <v>5</v>
-      </c>
-      <c r="I211" t="s">
-        <v>499</v>
-      </c>
-      <c r="J211" t="s">
-        <v>500</v>
-      </c>
-      <c r="K211" t="s">
-        <v>501</v>
-      </c>
-      <c r="L211">
-        <v>5.09</v>
-      </c>
-      <c r="M211">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>502</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>5</v>
-      </c>
-      <c r="I212" t="s">
-        <v>503</v>
-      </c>
-      <c r="J212" t="s">
-        <v>504</v>
-      </c>
-      <c r="K212" t="s">
-        <v>505</v>
-      </c>
-      <c r="L212">
-        <v>5</v>
-      </c>
-      <c r="M212">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>506</v>
-      </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213">
-        <v>5</v>
-      </c>
-      <c r="I213" t="s">
-        <v>507</v>
-      </c>
-      <c r="J213" t="s">
-        <v>508</v>
-      </c>
-      <c r="K213" t="s">
-        <v>509</v>
-      </c>
-      <c r="L213">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="M213">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>516</v>
-      </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
-      <c r="D214">
-        <v>5</v>
-      </c>
-      <c r="I214" t="s">
-        <v>517</v>
-      </c>
-      <c r="J214" t="s">
-        <v>518</v>
-      </c>
-      <c r="K214" t="s">
-        <v>519</v>
-      </c>
-      <c r="L214">
-        <v>4.88</v>
-      </c>
-      <c r="M214">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>524</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <v>5</v>
-      </c>
-      <c r="I215" t="s">
-        <v>525</v>
-      </c>
-      <c r="J215" t="s">
-        <v>526</v>
-      </c>
-      <c r="K215" t="s">
-        <v>527</v>
-      </c>
-      <c r="L215">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="M215">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>528</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>5</v>
-      </c>
-      <c r="I216" t="s">
-        <v>529</v>
-      </c>
-      <c r="J216" t="s">
-        <v>530</v>
-      </c>
-      <c r="K216" t="s">
-        <v>531</v>
-      </c>
-      <c r="L216">
-        <v>5.03</v>
-      </c>
-      <c r="M216">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>548</v>
-      </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-      <c r="D217">
-        <v>5</v>
-      </c>
-      <c r="I217" t="s">
-        <v>549</v>
-      </c>
-      <c r="J217" t="s">
-        <v>550</v>
-      </c>
-      <c r="K217" t="s">
-        <v>551</v>
-      </c>
-      <c r="L217">
-        <v>5.04</v>
-      </c>
-      <c r="M217">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>556</v>
-      </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-      <c r="D218">
-        <v>5</v>
-      </c>
-      <c r="I218" t="s">
-        <v>557</v>
-      </c>
-      <c r="J218" t="s">
-        <v>558</v>
-      </c>
-      <c r="K218" t="s">
-        <v>559</v>
-      </c>
-      <c r="L218">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="M218">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>560</v>
-      </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219">
-        <v>5</v>
-      </c>
-      <c r="I219" t="s">
-        <v>561</v>
-      </c>
-      <c r="J219" t="s">
-        <v>562</v>
-      </c>
-      <c r="K219" t="s">
-        <v>563</v>
-      </c>
-      <c r="L219">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="M219">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>564</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220">
-        <v>5</v>
-      </c>
-      <c r="I220" t="s">
-        <v>565</v>
-      </c>
-      <c r="J220" t="s">
-        <v>566</v>
-      </c>
-      <c r="K220" t="s">
-        <v>567</v>
-      </c>
-      <c r="L220">
-        <v>4.97</v>
-      </c>
-      <c r="M220">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>584</v>
-      </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-      <c r="D221">
-        <v>5</v>
-      </c>
-      <c r="I221" t="s">
-        <v>585</v>
-      </c>
-      <c r="J221" t="s">
-        <v>586</v>
-      </c>
-      <c r="K221" t="s">
-        <v>587</v>
-      </c>
-      <c r="L221">
-        <v>4.96</v>
-      </c>
-      <c r="M221">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>604</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-      <c r="C222">
-        <v>1</v>
-      </c>
-      <c r="D222">
-        <v>5</v>
-      </c>
-      <c r="I222" t="s">
-        <v>605</v>
-      </c>
-      <c r="J222" t="s">
-        <v>606</v>
-      </c>
-      <c r="K222" t="s">
-        <v>607</v>
-      </c>
-      <c r="L222">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M222">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>608</v>
-      </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-      <c r="D223">
-        <v>5</v>
-      </c>
-      <c r="I223" t="s">
-        <v>609</v>
-      </c>
-      <c r="J223" t="s">
-        <v>610</v>
-      </c>
-      <c r="K223" t="s">
-        <v>611</v>
-      </c>
-      <c r="L223">
-        <v>4.93</v>
-      </c>
-      <c r="M223">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>620</v>
-      </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
-        <v>5</v>
-      </c>
-      <c r="I224" t="s">
-        <v>621</v>
-      </c>
-      <c r="J224" t="s">
-        <v>622</v>
-      </c>
-      <c r="K224" t="s">
-        <v>493</v>
-      </c>
-      <c r="L224">
-        <v>5.03</v>
-      </c>
-      <c r="M224">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>638</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225">
-        <v>5</v>
-      </c>
-      <c r="I225" t="s">
-        <v>639</v>
-      </c>
-      <c r="J225" t="s">
-        <v>640</v>
-      </c>
-      <c r="K225" t="s">
-        <v>641</v>
-      </c>
-      <c r="L225">
-        <v>5.04</v>
-      </c>
-      <c r="M225">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>642</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-      <c r="D226">
-        <v>5</v>
-      </c>
-      <c r="I226" t="s">
-        <v>643</v>
-      </c>
-      <c r="J226" t="s">
-        <v>644</v>
-      </c>
-      <c r="K226" t="s">
-        <v>645</v>
-      </c>
-      <c r="L226">
-        <v>4.84</v>
-      </c>
-      <c r="M226">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>646</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227">
-        <v>5</v>
-      </c>
-      <c r="I227" t="s">
-        <v>647</v>
-      </c>
-      <c r="J227" t="s">
-        <v>644</v>
-      </c>
-      <c r="K227" t="s">
-        <v>641</v>
-      </c>
-      <c r="L227">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M227">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>648</v>
-      </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <v>5</v>
-      </c>
-      <c r="I228" t="s">
-        <v>649</v>
-      </c>
-      <c r="J228" t="s">
-        <v>650</v>
-      </c>
-      <c r="K228" t="s">
-        <v>651</v>
-      </c>
-      <c r="L228">
-        <v>4.87</v>
-      </c>
-      <c r="M228">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>659</v>
-      </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>5</v>
-      </c>
-      <c r="I229" t="s">
-        <v>660</v>
-      </c>
-      <c r="J229" t="s">
-        <v>661</v>
-      </c>
-      <c r="K229" t="s">
-        <v>662</v>
-      </c>
-      <c r="L229">
-        <v>5.05</v>
-      </c>
-      <c r="M229">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>820</v>
-      </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230">
-        <v>5</v>
-      </c>
-      <c r="I230" t="s">
-        <v>821</v>
-      </c>
-      <c r="J230" t="s">
-        <v>822</v>
-      </c>
-      <c r="K230" t="s">
-        <v>823</v>
-      </c>
-      <c r="L230">
-        <v>4.99</v>
-      </c>
-      <c r="M230">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>824</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231">
-        <v>5</v>
-      </c>
-      <c r="I231" t="s">
-        <v>825</v>
-      </c>
-      <c r="J231" t="s">
-        <v>826</v>
-      </c>
-      <c r="K231" t="s">
-        <v>48</v>
-      </c>
-      <c r="L231">
-        <v>5.13</v>
-      </c>
-      <c r="M231">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>827</v>
-      </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232">
-        <v>5</v>
-      </c>
-      <c r="I232" t="s">
-        <v>828</v>
-      </c>
-      <c r="J232" t="s">
-        <v>829</v>
-      </c>
-      <c r="K232" t="s">
-        <v>830</v>
-      </c>
-      <c r="L232">
-        <v>4.93</v>
-      </c>
-      <c r="M232">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>838</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233">
-        <v>5</v>
-      </c>
-      <c r="I233" t="s">
-        <v>839</v>
-      </c>
-      <c r="J233" t="s">
-        <v>840</v>
-      </c>
-      <c r="K233" t="s">
-        <v>48</v>
-      </c>
-      <c r="L233">
-        <v>5.14</v>
-      </c>
-      <c r="M233">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>871</v>
-      </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234">
-        <v>5</v>
-      </c>
-      <c r="I234" t="s">
-        <v>872</v>
-      </c>
-      <c r="J234" t="s">
-        <v>873</v>
-      </c>
-      <c r="K234" t="s">
-        <v>874</v>
-      </c>
-      <c r="L234">
-        <v>5.13</v>
-      </c>
-      <c r="M234">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>883</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-      <c r="D235">
-        <v>5</v>
-      </c>
-      <c r="I235" t="s">
-        <v>884</v>
-      </c>
-      <c r="J235" t="s">
-        <v>885</v>
-      </c>
-      <c r="K235" t="s">
-        <v>886</v>
-      </c>
-      <c r="L235">
-        <v>4.99</v>
-      </c>
-      <c r="M235">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>899</v>
-      </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-      <c r="D236">
-        <v>5</v>
-      </c>
-      <c r="I236" t="s">
-        <v>900</v>
-      </c>
-      <c r="J236" t="s">
-        <v>901</v>
-      </c>
-      <c r="K236" t="s">
-        <v>48</v>
-      </c>
-      <c r="L236">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="M236">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>910</v>
-      </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-      <c r="C237">
-        <v>1</v>
-      </c>
-      <c r="D237">
-        <v>5</v>
-      </c>
-      <c r="I237" t="s">
-        <v>911</v>
-      </c>
-      <c r="J237" t="s">
-        <v>912</v>
-      </c>
-      <c r="K237" t="s">
-        <v>71</v>
-      </c>
-      <c r="L237">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="M237">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>913</v>
-      </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-      <c r="D238">
-        <v>5</v>
-      </c>
-      <c r="I238" t="s">
-        <v>914</v>
-      </c>
-      <c r="J238" t="s">
-        <v>915</v>
-      </c>
-      <c r="K238" t="s">
-        <v>916</v>
-      </c>
-      <c r="L238">
-        <v>5.09</v>
-      </c>
-      <c r="M238">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>917</v>
-      </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-      <c r="D239">
-        <v>5</v>
-      </c>
-      <c r="I239" t="s">
-        <v>918</v>
-      </c>
-      <c r="J239" t="s">
-        <v>919</v>
-      </c>
-      <c r="K239" t="s">
-        <v>920</v>
-      </c>
-      <c r="L239">
-        <v>4.92</v>
-      </c>
-      <c r="M239">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>289</v>
-      </c>
-      <c r="B240">
-        <v>1</v>
-      </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-      <c r="D240">
-        <v>3</v>
-      </c>
-      <c r="I240" t="s">
-        <v>290</v>
-      </c>
-      <c r="J240" t="s">
-        <v>291</v>
-      </c>
-      <c r="K240" t="s">
-        <v>292</v>
-      </c>
-      <c r="L240">
-        <v>3.13</v>
-      </c>
-      <c r="M240">
-        <v>160</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M240">
-    <sortCondition ref="B2:B240"/>
-    <sortCondition descending="1" ref="D2:D240"/>
-    <sortCondition ref="C2:C240"/>
-    <sortCondition ref="J2:J240"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M190">
+    <sortCondition ref="B2:B190"/>
+    <sortCondition descending="1" ref="D2:D190"/>
+    <sortCondition ref="C2:C190"/>
+    <sortCondition ref="I2:I190"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/athletes/SteveDavies/activity_overrides.xlsx
+++ b/athletes/SteveDavies/activity_overrides.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.collyer\Dropbox\Running and Cycling\DataPipeline\athletes\SteveDavies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB0D9ED-D4C2-41C7-B443-FEDE0B4BECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB8CED7-F889-4194-A891-97AFC3C107E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="715">
   <si>
     <t>file</t>
   </si>
@@ -367,18 +367,6 @@
     <t>2015-10-31</t>
   </si>
   <si>
-    <t>494602255.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 19.1min, 3.94/km, HR 158</t>
-  </si>
-  <si>
-    <t>2015-12-03</t>
-  </si>
-  <si>
-    <t>Tempo Run 3 miles Bishops Park</t>
-  </si>
-  <si>
     <t>2015-12-18</t>
   </si>
   <si>
@@ -559,18 +547,6 @@
     <t>Assembly League 5K  - Battersea Park &amp; 5K Dulwich Club Champs Race 16:54</t>
   </si>
   <si>
-    <t>660756371.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 20.8min, 3.80/km, HR 152</t>
-  </si>
-  <si>
-    <t>2016-06-11</t>
-  </si>
-  <si>
-    <t>Not a Parkrun...steady laps of Dulwich Park</t>
-  </si>
-  <si>
     <t>685139602.fit</t>
   </si>
   <si>
@@ -1165,18 +1141,6 @@
     <t>LFOTM. Challenging conditions: 16:57.</t>
   </si>
   <si>
-    <t>1448613854.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 18.0min, 3.69/km, HR 153</t>
-  </si>
-  <si>
-    <t>2018-01-04</t>
-  </si>
-  <si>
-    <t>Tempo Thursday - 3 Miles at sort of MP</t>
-  </si>
-  <si>
     <t>1474944820.fit</t>
   </si>
   <si>
@@ -1621,18 +1585,6 @@
     <t>2019-10-05</t>
   </si>
   <si>
-    <t>3194962181.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 20.5min, 3.89/km, HR 153</t>
-  </si>
-  <si>
-    <t>2020-01-09</t>
-  </si>
-  <si>
-    <t>Thursday Tempo Lite</t>
-  </si>
-  <si>
     <t>3221933178.fit</t>
   </si>
   <si>
@@ -1747,15 +1699,6 @@
     <t>Warm up and reccie of possible 5k route.</t>
   </si>
   <si>
-    <t>3580306413.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 19.2min, 3.82/km, HR 157</t>
-  </si>
-  <si>
-    <t>Course Reccie and general test of out door running</t>
-  </si>
-  <si>
     <t>3584543308.fit</t>
   </si>
   <si>
@@ -1823,18 +1766,6 @@
   </si>
   <si>
     <t>Jenna Deighan ZLDR/CRYO-GEN's Meetup</t>
-  </si>
-  <si>
-    <t>3850228297.fit</t>
-  </si>
-  <si>
-    <t>Auto-detected 5K (medium confidence) — 17.6min, 3.50/km, HR 158</t>
-  </si>
-  <si>
-    <t>2020-06-13</t>
-  </si>
-  <si>
-    <t>Local 5k Threshold effort</t>
   </si>
   <si>
     <t>2020-06-17</t>
@@ -2585,10 +2516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190:XFD190"/>
+    <sheetView tabSelected="1" topLeftCell="G64" workbookViewId="0">
+      <selection activeCell="G81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2651,7 +2582,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2663,10 +2594,10 @@
         <v>42.195</v>
       </c>
       <c r="I2" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="J2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K2" t="s">
         <v>111</v>
@@ -2680,7 +2611,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2692,13 +2623,13 @@
         <v>42.195</v>
       </c>
       <c r="I3" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="J3" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="K3" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="L3">
         <v>42.38</v>
@@ -2709,7 +2640,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2721,13 +2652,13 @@
         <v>42.195</v>
       </c>
       <c r="I4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="J4" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="K4" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="L4">
         <v>42.39</v>
@@ -2738,7 +2669,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2750,13 +2681,13 @@
         <v>42.195</v>
       </c>
       <c r="I5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L5">
         <v>42.46</v>
@@ -2767,7 +2698,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2779,13 +2710,13 @@
         <v>42.195</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L6">
         <v>42.19</v>
@@ -2825,7 +2756,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2837,13 +2768,13 @@
         <v>42.195</v>
       </c>
       <c r="I8" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="J8" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="K8" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="L8">
         <v>42.71</v>
@@ -2854,7 +2785,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2866,13 +2797,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K9" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L9">
         <v>21.09</v>
@@ -2883,7 +2814,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2895,13 +2826,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I10" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="J10" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="K10" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="L10">
         <v>21.38</v>
@@ -2912,7 +2843,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2924,13 +2855,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="J11" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="K11" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="L11">
         <v>21.66</v>
@@ -2941,7 +2872,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2953,13 +2884,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="J12" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="K12" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="L12">
         <v>21.09</v>
@@ -2970,7 +2901,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2982,13 +2913,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I13" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="J13" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="K13" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="L13">
         <v>21.09</v>
@@ -2999,7 +2930,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3011,13 +2942,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L14">
         <v>21.04</v>
@@ -3028,7 +2959,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3040,13 +2971,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I15" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="J15" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="K15" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="L15">
         <v>21.13</v>
@@ -3057,7 +2988,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3069,13 +3000,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L16">
         <v>20.92</v>
@@ -3115,7 +3046,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3127,13 +3058,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I18" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="J18" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="K18" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="L18">
         <v>21.38</v>
@@ -3144,7 +3075,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3156,13 +3087,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="I19" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="J19" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="K19" t="s">
-        <v>726</v>
+        <v>703</v>
       </c>
       <c r="L19">
         <v>21.16</v>
@@ -3173,7 +3104,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3185,13 +3116,13 @@
         <v>16.09</v>
       </c>
       <c r="I20" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="J20" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="K20" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="L20">
         <v>16</v>
@@ -3202,7 +3133,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3214,13 +3145,13 @@
         <v>16.09</v>
       </c>
       <c r="I21" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="J21" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K21" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L21">
         <v>14.77</v>
@@ -3231,7 +3162,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3243,13 +3174,13 @@
         <v>16.09</v>
       </c>
       <c r="I22" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J22" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K22" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L22">
         <v>16.14</v>
@@ -3260,7 +3191,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3272,13 +3203,13 @@
         <v>16.09</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L23">
         <v>16.239999999999998</v>
@@ -3289,7 +3220,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3301,13 +3232,13 @@
         <v>16.09</v>
       </c>
       <c r="I24" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="J24" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K24" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L24">
         <v>16.100000000000001</v>
@@ -3318,7 +3249,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3330,13 +3261,13 @@
         <v>16.09</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L25">
         <v>16.14</v>
@@ -3376,7 +3307,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3388,13 +3319,13 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L27">
         <v>9.8699999999999992</v>
@@ -3463,7 +3394,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3475,13 +3406,13 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="J30" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="K30" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="L30">
         <v>10.26</v>
@@ -3492,7 +3423,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3504,13 +3435,13 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="J31" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="K31" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="L31">
         <v>9.9</v>
@@ -3521,7 +3452,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3533,13 +3464,13 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L32">
         <v>10.24</v>
@@ -3550,7 +3481,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3562,13 +3493,13 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L33">
         <v>10.07</v>
@@ -3579,7 +3510,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3591,10 +3522,10 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K34" t="s">
         <v>111</v>
@@ -3608,7 +3539,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3620,13 +3551,13 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J35" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K35" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L35">
         <v>9.59</v>
@@ -3637,7 +3568,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3649,13 +3580,13 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J36" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K36" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L36">
         <v>10.59</v>
@@ -3666,7 +3597,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3678,13 +3609,13 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J37" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L37">
         <v>4.87</v>
@@ -3695,7 +3626,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3707,13 +3638,13 @@
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J38" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K38" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L38">
         <v>4.8499999999999996</v>
@@ -3724,7 +3655,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3736,13 +3667,13 @@
         <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J39" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L39">
         <v>4.83</v>
@@ -3753,7 +3684,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3765,13 +3696,13 @@
         <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L40">
         <v>4.83</v>
@@ -3782,7 +3713,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3794,13 +3725,13 @@
         <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="J41" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="K41" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="L41">
         <v>5.05</v>
@@ -3811,7 +3742,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3823,10 +3754,10 @@
         <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="J42" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="K42" t="s">
         <v>111</v>
@@ -3840,7 +3771,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3852,13 +3783,13 @@
         <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J43" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L43">
         <v>4.83</v>
@@ -3869,7 +3800,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3881,10 +3812,10 @@
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J44" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="K44" t="s">
         <v>104</v>
@@ -3927,7 +3858,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3939,13 +3870,13 @@
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="J46" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="K46" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="L46">
         <v>5.0599999999999996</v>
@@ -3956,7 +3887,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3968,13 +3899,13 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="J47" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="K47" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="L47">
         <v>5.07</v>
@@ -3985,7 +3916,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3997,13 +3928,13 @@
         <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="J48" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="K48" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="L48">
         <v>5.05</v>
@@ -4014,7 +3945,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4026,13 +3957,13 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="J49" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K49" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L49">
         <v>4.95</v>
@@ -4072,7 +4003,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4084,13 +4015,13 @@
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J51" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K51" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L51">
         <v>5.03</v>
@@ -4101,7 +4032,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4113,13 +4044,13 @@
         <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="J52" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K52" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="L52">
         <v>4.9800000000000004</v>
@@ -4130,7 +4061,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4142,13 +4073,13 @@
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="J53" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="K53" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="L53">
         <v>5.08</v>
@@ -4159,7 +4090,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4171,13 +4102,13 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="J54" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="K54" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="L54">
         <v>5.01</v>
@@ -4188,7 +4119,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4200,13 +4131,13 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J55" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K55" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L55">
         <v>4.97</v>
@@ -4217,7 +4148,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4229,13 +4160,13 @@
         <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="J56" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K56" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L56">
         <v>4.97</v>
@@ -4246,7 +4177,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4258,13 +4189,13 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="J57" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K57" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="L57">
         <v>5.0599999999999996</v>
@@ -4275,7 +4206,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4287,10 +4218,10 @@
         <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J58" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K58" t="s">
         <v>111</v>
@@ -4304,7 +4235,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4316,13 +4247,13 @@
         <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="J59" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="K59" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L59">
         <v>5</v>
@@ -4333,7 +4264,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4345,10 +4276,10 @@
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J60" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K60" t="s">
         <v>111</v>
@@ -4362,7 +4293,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4374,13 +4305,13 @@
         <v>5</v>
       </c>
       <c r="I61" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="J61" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="K61" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="L61">
         <v>4.93</v>
@@ -4391,7 +4322,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -4403,13 +4334,13 @@
         <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="J62" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="K62" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="L62">
         <v>5.12</v>
@@ -4420,7 +4351,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4432,13 +4363,13 @@
         <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="J63" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="K63" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="L63">
         <v>5.08</v>
@@ -4449,7 +4380,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4461,13 +4392,13 @@
         <v>5</v>
       </c>
       <c r="I64" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="J64" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="K64" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="L64">
         <v>5.0599999999999996</v>
@@ -4478,7 +4409,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4490,13 +4421,13 @@
         <v>5</v>
       </c>
       <c r="I65" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="J65" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="K65" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="L65">
         <v>5.0199999999999996</v>
@@ -4507,7 +4438,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4519,13 +4450,13 @@
         <v>5</v>
       </c>
       <c r="I66" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J66" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K66" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L66">
         <v>4.92</v>
@@ -4536,7 +4467,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -4548,13 +4479,13 @@
         <v>5</v>
       </c>
       <c r="I67" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="J67" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="K67" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="L67">
         <v>5</v>
@@ -4565,7 +4496,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4577,13 +4508,13 @@
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="J68" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="K68" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="L68">
         <v>5.0199999999999996</v>
@@ -4594,7 +4525,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4606,10 +4537,10 @@
         <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="J69" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K69" t="s">
         <v>104</v>
@@ -4623,7 +4554,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4635,13 +4566,13 @@
         <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="J70" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="K70" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="L70">
         <v>5.22</v>
@@ -4710,7 +4641,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4722,13 +4653,13 @@
         <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="J73" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="K73" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="L73">
         <v>4.97</v>
@@ -4768,7 +4699,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4780,13 +4711,13 @@
         <v>5</v>
       </c>
       <c r="I75" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="J75" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="K75" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="L75">
         <v>5.0199999999999996</v>
@@ -4797,7 +4728,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4809,10 +4740,10 @@
         <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J76" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K76" t="s">
         <v>111</v>
@@ -4826,7 +4757,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -4838,13 +4769,13 @@
         <v>5</v>
       </c>
       <c r="I77" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="J77" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="K77" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="L77">
         <v>5.0199999999999996</v>
@@ -4855,7 +4786,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4867,13 +4798,13 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="J78" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="K78" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="L78">
         <v>5.01</v>
@@ -4884,7 +4815,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4896,13 +4827,13 @@
         <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="J79" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="K79" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="L79">
         <v>4.97</v>
@@ -4913,7 +4844,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4925,13 +4856,13 @@
         <v>5</v>
       </c>
       <c r="I80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J80" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K80" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L80">
         <v>4.92</v>
@@ -4942,7 +4873,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4954,16 +4885,16 @@
         <v>5</v>
       </c>
       <c r="I81" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="J81" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="K81" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="L81">
-        <v>5.01</v>
+        <v>4.99</v>
       </c>
       <c r="M81">
         <v>157</v>
@@ -4971,7 +4902,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>660</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4983,24 +4914,24 @@
         <v>5</v>
       </c>
       <c r="I82" t="s">
-        <v>661</v>
+        <v>82</v>
       </c>
       <c r="J82" t="s">
-        <v>659</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s">
-        <v>658</v>
+        <v>84</v>
       </c>
       <c r="L82">
-        <v>4.99</v>
+        <v>4.87</v>
       </c>
       <c r="M82">
-        <v>157</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5012,24 +4943,24 @@
         <v>5</v>
       </c>
       <c r="I83" t="s">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="J83" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="K83" t="s">
-        <v>84</v>
+        <v>308</v>
       </c>
       <c r="L83">
-        <v>4.87</v>
+        <v>5.03</v>
       </c>
       <c r="M83">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>313</v>
+        <v>462</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -5041,24 +4972,24 @@
         <v>5</v>
       </c>
       <c r="I84" t="s">
-        <v>314</v>
+        <v>463</v>
       </c>
       <c r="J84" t="s">
-        <v>315</v>
+        <v>464</v>
       </c>
       <c r="K84" t="s">
-        <v>316</v>
+        <v>465</v>
       </c>
       <c r="L84">
-        <v>5.03</v>
+        <v>5.01</v>
       </c>
       <c r="M84">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>474</v>
+        <v>116</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5070,24 +5001,24 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>475</v>
+        <v>117</v>
       </c>
       <c r="J85" t="s">
-        <v>476</v>
+        <v>115</v>
       </c>
       <c r="K85" t="s">
-        <v>477</v>
+        <v>118</v>
       </c>
       <c r="L85">
-        <v>5.01</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M85">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5099,24 +5030,24 @@
         <v>5</v>
       </c>
       <c r="I86" t="s">
-        <v>121</v>
+        <v>340</v>
       </c>
       <c r="J86" t="s">
-        <v>119</v>
+        <v>341</v>
       </c>
       <c r="K86" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="L86">
-        <v>4.9800000000000004</v>
+        <v>4.84</v>
       </c>
       <c r="M86">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>347</v>
+        <v>632</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5128,24 +5059,24 @@
         <v>5</v>
       </c>
       <c r="I87" t="s">
-        <v>348</v>
+        <v>633</v>
       </c>
       <c r="J87" t="s">
-        <v>349</v>
+        <v>634</v>
       </c>
       <c r="K87" t="s">
-        <v>350</v>
+        <v>635</v>
       </c>
       <c r="L87">
-        <v>4.84</v>
+        <v>5.26</v>
       </c>
       <c r="M87">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>655</v>
+        <v>566</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -5157,24 +5088,24 @@
         <v>5</v>
       </c>
       <c r="I88" t="s">
-        <v>656</v>
+        <v>567</v>
       </c>
       <c r="J88" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="K88" t="s">
-        <v>658</v>
+        <v>569</v>
       </c>
       <c r="L88">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
       <c r="M88">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>585</v>
+        <v>543</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -5186,24 +5117,24 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>586</v>
+        <v>544</v>
       </c>
       <c r="J89" t="s">
-        <v>587</v>
+        <v>545</v>
       </c>
       <c r="K89" t="s">
-        <v>588</v>
+        <v>546</v>
       </c>
       <c r="L89">
-        <v>5.07</v>
+        <v>5.04</v>
       </c>
       <c r="M89">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -5215,24 +5146,24 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="J90" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="K90" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="L90">
-        <v>5.04</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M90">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>651</v>
+        <v>609</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5244,24 +5175,24 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>652</v>
+        <v>610</v>
       </c>
       <c r="J91" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="K91" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="L91">
-        <v>5.0199999999999996</v>
+        <v>5.12</v>
       </c>
       <c r="M91">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>632</v>
+        <v>108</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -5273,24 +5204,24 @@
         <v>5</v>
       </c>
       <c r="I92" t="s">
-        <v>633</v>
+        <v>109</v>
       </c>
       <c r="J92" t="s">
-        <v>634</v>
+        <v>110</v>
       </c>
       <c r="K92" t="s">
-        <v>635</v>
+        <v>111</v>
       </c>
       <c r="L92">
-        <v>5.12</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M92">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -5302,24 +5233,24 @@
         <v>5</v>
       </c>
       <c r="I93" t="s">
-        <v>109</v>
+        <v>334</v>
       </c>
       <c r="J93" t="s">
-        <v>110</v>
+        <v>335</v>
       </c>
       <c r="K93" t="s">
         <v>111</v>
       </c>
       <c r="L93">
-        <v>5.0999999999999996</v>
+        <v>5.16</v>
       </c>
       <c r="M93">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -5331,16 +5262,16 @@
         <v>5</v>
       </c>
       <c r="I94" t="s">
-        <v>382</v>
+        <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="K94" t="s">
-        <v>384</v>
+        <v>16</v>
       </c>
       <c r="L94">
-        <v>4.8899999999999997</v>
+        <v>5.07</v>
       </c>
       <c r="M94">
         <v>153</v>
@@ -5348,7 +5279,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>341</v>
+        <v>127</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -5360,16 +5291,16 @@
         <v>5</v>
       </c>
       <c r="I95" t="s">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="J95" t="s">
-        <v>343</v>
+        <v>129</v>
       </c>
       <c r="K95" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="L95">
-        <v>5.16</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="M95">
         <v>158</v>
@@ -5377,7 +5308,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>665</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -5389,24 +5320,24 @@
         <v>5</v>
       </c>
       <c r="I96" t="s">
-        <v>14</v>
+        <v>666</v>
       </c>
       <c r="J96" t="s">
-        <v>15</v>
+        <v>667</v>
       </c>
       <c r="K96" t="s">
-        <v>16</v>
+        <v>664</v>
       </c>
       <c r="L96">
-        <v>5.07</v>
+        <v>5.31</v>
       </c>
       <c r="M96">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5418,24 +5349,24 @@
         <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="J97" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="K97" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="L97">
-        <v>4.8899999999999997</v>
+        <v>4.84</v>
       </c>
       <c r="M97">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>688</v>
+        <v>590</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -5447,24 +5378,24 @@
         <v>5</v>
       </c>
       <c r="I98" t="s">
-        <v>689</v>
+        <v>591</v>
       </c>
       <c r="J98" t="s">
-        <v>690</v>
+        <v>592</v>
       </c>
       <c r="K98" t="s">
-        <v>687</v>
+        <v>593</v>
       </c>
       <c r="L98">
-        <v>5.31</v>
+        <v>5</v>
       </c>
       <c r="M98">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>555</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -5476,24 +5407,24 @@
         <v>5</v>
       </c>
       <c r="I99" t="s">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="J99" t="s">
-        <v>77</v>
+        <v>557</v>
       </c>
       <c r="K99" t="s">
-        <v>80</v>
+        <v>558</v>
       </c>
       <c r="L99">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="M99">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>613</v>
+        <v>674</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -5505,24 +5436,24 @@
         <v>5</v>
       </c>
       <c r="I100" t="s">
-        <v>614</v>
+        <v>675</v>
       </c>
       <c r="J100" t="s">
-        <v>615</v>
+        <v>676</v>
       </c>
       <c r="K100" t="s">
-        <v>616</v>
+        <v>111</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>5.07</v>
       </c>
       <c r="M100">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>571</v>
+        <v>696</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -5534,24 +5465,24 @@
         <v>5</v>
       </c>
       <c r="I101" t="s">
-        <v>572</v>
+        <v>697</v>
       </c>
       <c r="J101" t="s">
-        <v>573</v>
+        <v>698</v>
       </c>
       <c r="K101" t="s">
-        <v>574</v>
+        <v>699</v>
       </c>
       <c r="L101">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -5563,24 +5494,24 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="J102" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="K102" t="s">
-        <v>111</v>
+        <v>692</v>
       </c>
       <c r="L102">
-        <v>5.07</v>
+        <v>5.08</v>
       </c>
       <c r="M102">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>719</v>
+        <v>494</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5592,24 +5523,24 @@
         <v>5</v>
       </c>
       <c r="I103" t="s">
-        <v>720</v>
+        <v>495</v>
       </c>
       <c r="J103" t="s">
-        <v>721</v>
+        <v>496</v>
       </c>
       <c r="K103" t="s">
-        <v>722</v>
+        <v>497</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>5.16</v>
       </c>
       <c r="M103">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>646</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5621,24 +5552,24 @@
         <v>5</v>
       </c>
       <c r="I104" t="s">
-        <v>116</v>
+        <v>647</v>
       </c>
       <c r="J104" t="s">
-        <v>117</v>
+        <v>648</v>
       </c>
       <c r="K104" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L104">
-        <v>4.84</v>
+        <v>4.99</v>
       </c>
       <c r="M104">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>712</v>
+        <v>643</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -5650,24 +5581,24 @@
         <v>5</v>
       </c>
       <c r="I105" t="s">
-        <v>713</v>
+        <v>644</v>
       </c>
       <c r="J105" t="s">
-        <v>714</v>
+        <v>645</v>
       </c>
       <c r="K105" t="s">
-        <v>715</v>
+        <v>642</v>
       </c>
       <c r="L105">
-        <v>5.08</v>
+        <v>5.23</v>
       </c>
       <c r="M105">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>575</v>
+        <v>671</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5679,24 +5610,24 @@
         <v>5</v>
       </c>
       <c r="I106" t="s">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="J106" t="s">
-        <v>573</v>
+        <v>673</v>
       </c>
       <c r="K106" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
       <c r="L106">
-        <v>5.01</v>
+        <v>4.91</v>
       </c>
       <c r="M106">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>506</v>
+        <v>210</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -5708,24 +5639,24 @@
         <v>5</v>
       </c>
       <c r="I107" t="s">
-        <v>507</v>
+        <v>211</v>
       </c>
       <c r="J107" t="s">
-        <v>508</v>
+        <v>212</v>
       </c>
       <c r="K107" t="s">
-        <v>509</v>
+        <v>111</v>
       </c>
       <c r="L107">
-        <v>5.16</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M107">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5737,16 +5668,16 @@
         <v>5</v>
       </c>
       <c r="I108" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="J108" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="K108" t="s">
-        <v>111</v>
+        <v>652</v>
       </c>
       <c r="L108">
-        <v>4.99</v>
+        <v>5.19</v>
       </c>
       <c r="M108">
         <v>161</v>
@@ -5754,7 +5685,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>666</v>
+        <v>514</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -5766,198 +5697,198 @@
         <v>5</v>
       </c>
       <c r="I109" t="s">
-        <v>667</v>
+        <v>515</v>
       </c>
       <c r="J109" t="s">
-        <v>668</v>
+        <v>516</v>
       </c>
       <c r="K109" t="s">
-        <v>665</v>
+        <v>517</v>
       </c>
       <c r="L109">
-        <v>5.23</v>
+        <v>5.08</v>
       </c>
       <c r="M109">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>694</v>
+        <v>389</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>5</v>
       </c>
       <c r="I110" t="s">
-        <v>695</v>
+        <v>390</v>
       </c>
       <c r="J110" t="s">
-        <v>696</v>
+        <v>391</v>
       </c>
       <c r="K110" t="s">
-        <v>554</v>
+        <v>60</v>
       </c>
       <c r="L110">
-        <v>4.91</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M110">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="J111" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="K111" t="s">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="L111">
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
       <c r="M111">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>533</v>
+        <v>269</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <v>5</v>
       </c>
       <c r="I112" t="s">
-        <v>534</v>
+        <v>270</v>
       </c>
       <c r="J112" t="s">
-        <v>535</v>
+        <v>271</v>
       </c>
       <c r="K112" t="s">
-        <v>536</v>
+        <v>272</v>
       </c>
       <c r="L112">
-        <v>5.25</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M112">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>672</v>
+        <v>446</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>5</v>
       </c>
       <c r="I113" t="s">
-        <v>673</v>
+        <v>447</v>
       </c>
       <c r="J113" t="s">
-        <v>674</v>
+        <v>448</v>
       </c>
       <c r="K113" t="s">
-        <v>675</v>
+        <v>449</v>
       </c>
       <c r="L113">
-        <v>5.19</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M113">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>179</v>
+        <v>474</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114">
         <v>5</v>
       </c>
       <c r="I114" t="s">
-        <v>180</v>
+        <v>475</v>
       </c>
       <c r="J114" t="s">
-        <v>181</v>
+        <v>476</v>
       </c>
       <c r="K114" t="s">
-        <v>182</v>
+        <v>477</v>
       </c>
       <c r="L114">
-        <v>5.47</v>
+        <v>4.97</v>
       </c>
       <c r="M114">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>526</v>
+        <v>428</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>5</v>
       </c>
       <c r="I115" t="s">
-        <v>527</v>
+        <v>429</v>
       </c>
       <c r="J115" t="s">
-        <v>528</v>
+        <v>430</v>
       </c>
       <c r="K115" t="s">
-        <v>529</v>
+        <v>431</v>
       </c>
       <c r="L115">
-        <v>5.08</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M115">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>401</v>
+        <v>261</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -5969,16 +5900,16 @@
         <v>5</v>
       </c>
       <c r="I116" t="s">
-        <v>402</v>
+        <v>262</v>
       </c>
       <c r="J116" t="s">
-        <v>403</v>
+        <v>263</v>
       </c>
       <c r="K116" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="L116">
-        <v>5.1100000000000003</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M116">
         <v>157</v>
@@ -6007,15 +5938,15 @@
         <v>304</v>
       </c>
       <c r="L117">
-        <v>5.12</v>
+        <v>5.13</v>
       </c>
       <c r="M117">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -6027,24 +5958,24 @@
         <v>5</v>
       </c>
       <c r="I118" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="J118" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="K118" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="L118">
-        <v>5.1100000000000003</v>
+        <v>5</v>
       </c>
       <c r="M118">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>458</v>
+        <v>265</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -6056,24 +5987,24 @@
         <v>5</v>
       </c>
       <c r="I119" t="s">
-        <v>459</v>
+        <v>266</v>
       </c>
       <c r="J119" t="s">
-        <v>460</v>
+        <v>267</v>
       </c>
       <c r="K119" t="s">
-        <v>461</v>
+        <v>268</v>
       </c>
       <c r="L119">
-        <v>5.0199999999999996</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M119">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>486</v>
+        <v>412</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -6085,24 +6016,24 @@
         <v>5</v>
       </c>
       <c r="I120" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
       <c r="J120" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="K120" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
       <c r="L120">
-        <v>4.97</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M120">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>440</v>
+        <v>357</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -6114,24 +6045,24 @@
         <v>5</v>
       </c>
       <c r="I121" t="s">
-        <v>441</v>
+        <v>358</v>
       </c>
       <c r="J121" t="s">
-        <v>442</v>
+        <v>359</v>
       </c>
       <c r="K121" t="s">
-        <v>443</v>
+        <v>360</v>
       </c>
       <c r="L121">
-        <v>5.1100000000000003</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="M121">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -6143,24 +6074,24 @@
         <v>5</v>
       </c>
       <c r="I122" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
       <c r="J122" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="K122" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="L122">
-        <v>4.8499999999999996</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M122">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>309</v>
+        <v>470</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -6172,24 +6103,24 @@
         <v>5</v>
       </c>
       <c r="I123" t="s">
-        <v>310</v>
+        <v>471</v>
       </c>
       <c r="J123" t="s">
-        <v>311</v>
+        <v>472</v>
       </c>
       <c r="K123" t="s">
-        <v>312</v>
+        <v>473</v>
       </c>
       <c r="L123">
-        <v>5.13</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M123">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>466</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -6201,16 +6132,16 @@
         <v>5</v>
       </c>
       <c r="I124" t="s">
-        <v>226</v>
+        <v>467</v>
       </c>
       <c r="J124" t="s">
-        <v>227</v>
+        <v>468</v>
       </c>
       <c r="K124" t="s">
-        <v>228</v>
+        <v>469</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M124">
         <v>162</v>
@@ -6218,7 +6149,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -6230,24 +6161,24 @@
         <v>5</v>
       </c>
       <c r="I125" t="s">
-        <v>274</v>
+        <v>46</v>
       </c>
       <c r="J125" t="s">
-        <v>275</v>
+        <v>47</v>
       </c>
       <c r="K125" t="s">
-        <v>276</v>
+        <v>48</v>
       </c>
       <c r="L125">
-        <v>4.9400000000000004</v>
+        <v>5.14</v>
       </c>
       <c r="M125">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -6259,24 +6190,24 @@
         <v>5</v>
       </c>
       <c r="I126" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="J126" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="K126" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="L126">
-        <v>4.9400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="M126">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -6288,24 +6219,24 @@
         <v>5</v>
       </c>
       <c r="I127" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="J127" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="K127" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="L127">
-        <v>4.8600000000000003</v>
+        <v>5.09</v>
       </c>
       <c r="M127">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -6317,24 +6248,24 @@
         <v>5</v>
       </c>
       <c r="I128" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="J128" t="s">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="K128" t="s">
-        <v>364</v>
+        <v>48</v>
       </c>
       <c r="L128">
-        <v>5.0199999999999996</v>
+        <v>5.12</v>
       </c>
       <c r="M128">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>482</v>
+        <v>361</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -6346,24 +6277,24 @@
         <v>5</v>
       </c>
       <c r="I129" t="s">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="J129" t="s">
-        <v>484</v>
+        <v>363</v>
       </c>
       <c r="K129" t="s">
-        <v>485</v>
+        <v>364</v>
       </c>
       <c r="L129">
-        <v>4.9800000000000004</v>
+        <v>4.97</v>
       </c>
       <c r="M129">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -6375,24 +6306,24 @@
         <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>479</v>
+        <v>425</v>
       </c>
       <c r="J130" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="K130" t="s">
-        <v>481</v>
+        <v>427</v>
       </c>
       <c r="L130">
-        <v>4.9800000000000004</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -6404,24 +6335,24 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>239</v>
       </c>
       <c r="K131" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="L131">
-        <v>5.14</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M131">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>389</v>
+        <v>277</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -6433,24 +6364,24 @@
         <v>5</v>
       </c>
       <c r="I132" t="s">
-        <v>390</v>
+        <v>278</v>
       </c>
       <c r="J132" t="s">
-        <v>391</v>
+        <v>279</v>
       </c>
       <c r="K132" t="s">
-        <v>392</v>
+        <v>280</v>
       </c>
       <c r="L132">
-        <v>5.12</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M132">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>432</v>
+        <v>37</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -6462,24 +6393,24 @@
         <v>5</v>
       </c>
       <c r="I133" t="s">
-        <v>433</v>
+        <v>38</v>
       </c>
       <c r="J133" t="s">
-        <v>434</v>
+        <v>39</v>
       </c>
       <c r="K133" t="s">
-        <v>435</v>
+        <v>40</v>
       </c>
       <c r="L133">
-        <v>5.09</v>
+        <v>4.91</v>
       </c>
       <c r="M133">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>396</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6491,24 +6422,24 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>184</v>
+        <v>397</v>
       </c>
       <c r="J134" t="s">
-        <v>185</v>
+        <v>398</v>
       </c>
       <c r="K134" t="s">
-        <v>48</v>
+        <v>399</v>
       </c>
       <c r="L134">
-        <v>5.12</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M134">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -6520,16 +6451,16 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="J135" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="K135" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="L135">
-        <v>4.97</v>
+        <v>5</v>
       </c>
       <c r="M135">
         <v>163</v>
@@ -6537,7 +6468,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -6549,19 +6480,19 @@
         <v>5</v>
       </c>
       <c r="I136" t="s">
-        <v>437</v>
+        <v>322</v>
       </c>
       <c r="J136" t="s">
-        <v>438</v>
+        <v>323</v>
       </c>
       <c r="K136" t="s">
-        <v>439</v>
+        <v>324</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="M136">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -6587,15 +6518,15 @@
         <v>248</v>
       </c>
       <c r="L137">
-        <v>4.8499999999999996</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M137">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -6607,24 +6538,24 @@
         <v>5</v>
       </c>
       <c r="I138" t="s">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="J138" t="s">
-        <v>287</v>
+        <v>375</v>
       </c>
       <c r="K138" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="L138">
-        <v>4.9000000000000004</v>
+        <v>5.14</v>
       </c>
       <c r="M138">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -6636,24 +6567,24 @@
         <v>5</v>
       </c>
       <c r="I139" t="s">
-        <v>38</v>
+        <v>401</v>
       </c>
       <c r="J139" t="s">
-        <v>39</v>
+        <v>402</v>
       </c>
       <c r="K139" t="s">
-        <v>40</v>
+        <v>403</v>
       </c>
       <c r="L139">
-        <v>4.91</v>
+        <v>5</v>
       </c>
       <c r="M139">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>408</v>
+        <v>506</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -6665,24 +6596,24 @@
         <v>5</v>
       </c>
       <c r="I140" t="s">
-        <v>409</v>
+        <v>507</v>
       </c>
       <c r="J140" t="s">
-        <v>410</v>
+        <v>508</v>
       </c>
       <c r="K140" t="s">
-        <v>411</v>
+        <v>509</v>
       </c>
       <c r="L140">
-        <v>4.9800000000000004</v>
+        <v>4.93</v>
       </c>
       <c r="M140">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>317</v>
+        <v>97</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -6694,24 +6625,24 @@
         <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="J141" t="s">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="K141" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="M141">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -6723,24 +6654,24 @@
         <v>5</v>
       </c>
       <c r="I142" t="s">
-        <v>330</v>
+        <v>459</v>
       </c>
       <c r="J142" t="s">
-        <v>331</v>
+        <v>460</v>
       </c>
       <c r="K142" t="s">
-        <v>332</v>
+        <v>461</v>
       </c>
       <c r="L142">
-        <v>4.95</v>
+        <v>5.04</v>
       </c>
       <c r="M142">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -6752,24 +6683,24 @@
         <v>5</v>
       </c>
       <c r="I143" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="J143" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="K143" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="L143">
-        <v>4.9400000000000004</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M143">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -6781,24 +6712,24 @@
         <v>5</v>
       </c>
       <c r="I144" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="J144" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="K144" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="L144">
-        <v>5.14</v>
+        <v>5.01</v>
       </c>
       <c r="M144">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>412</v>
+        <v>490</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -6810,24 +6741,24 @@
         <v>5</v>
       </c>
       <c r="I145" t="s">
-        <v>413</v>
+        <v>491</v>
       </c>
       <c r="J145" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
       <c r="K145" t="s">
-        <v>415</v>
+        <v>493</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>4.96</v>
       </c>
       <c r="M145">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>518</v>
+        <v>317</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -6839,24 +6770,24 @@
         <v>5</v>
       </c>
       <c r="I146" t="s">
-        <v>519</v>
+        <v>318</v>
       </c>
       <c r="J146" t="s">
-        <v>520</v>
+        <v>319</v>
       </c>
       <c r="K146" t="s">
-        <v>521</v>
+        <v>320</v>
       </c>
       <c r="L146">
         <v>4.93</v>
       </c>
       <c r="M146">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -6868,24 +6799,24 @@
         <v>5</v>
       </c>
       <c r="I147" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="J147" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="K147" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="L147">
-        <v>5.05</v>
+        <v>5.07</v>
       </c>
       <c r="M147">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -6897,24 +6828,24 @@
         <v>5</v>
       </c>
       <c r="I148" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="J148" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
       <c r="K148" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="L148">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="M148">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -6926,24 +6857,24 @@
         <v>5</v>
       </c>
       <c r="I149" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="J149" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="K149" t="s">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="L149">
-        <v>5.0199999999999996</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M149">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>337</v>
+        <v>65</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -6955,24 +6886,24 @@
         <v>5</v>
       </c>
       <c r="I150" t="s">
-        <v>338</v>
+        <v>66</v>
       </c>
       <c r="J150" t="s">
-        <v>339</v>
+        <v>67</v>
       </c>
       <c r="K150" t="s">
-        <v>340</v>
+        <v>68</v>
       </c>
       <c r="L150">
-        <v>5.01</v>
+        <v>4.91</v>
       </c>
       <c r="M150">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>502</v>
+        <v>53</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6984,24 +6915,24 @@
         <v>5</v>
       </c>
       <c r="I151" t="s">
-        <v>503</v>
+        <v>54</v>
       </c>
       <c r="J151" t="s">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="K151" t="s">
-        <v>505</v>
+        <v>56</v>
       </c>
       <c r="L151">
-        <v>4.96</v>
+        <v>4.87</v>
       </c>
       <c r="M151">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -7013,24 +6944,24 @@
         <v>5</v>
       </c>
       <c r="I152" t="s">
-        <v>326</v>
+        <v>439</v>
       </c>
       <c r="J152" t="s">
-        <v>327</v>
+        <v>440</v>
       </c>
       <c r="K152" t="s">
-        <v>328</v>
+        <v>441</v>
       </c>
       <c r="L152">
-        <v>4.93</v>
+        <v>4.88</v>
       </c>
       <c r="M152">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>139</v>
+        <v>502</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -7042,24 +6973,24 @@
         <v>5</v>
       </c>
       <c r="I153" t="s">
-        <v>140</v>
+        <v>503</v>
       </c>
       <c r="J153" t="s">
-        <v>141</v>
+        <v>504</v>
       </c>
       <c r="K153" t="s">
-        <v>142</v>
+        <v>505</v>
       </c>
       <c r="L153">
-        <v>5.07</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M153">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>555</v>
+        <v>21</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -7071,24 +7002,24 @@
         <v>5</v>
       </c>
       <c r="I154" t="s">
-        <v>556</v>
+        <v>22</v>
       </c>
       <c r="J154" t="s">
-        <v>557</v>
+        <v>23</v>
       </c>
       <c r="K154" t="s">
-        <v>558</v>
+        <v>24</v>
       </c>
       <c r="L154">
-        <v>5.05</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="M154">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -7100,24 +7031,24 @@
         <v>5</v>
       </c>
       <c r="I155" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="K155" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="L155">
-        <v>4.9400000000000004</v>
+        <v>5</v>
       </c>
       <c r="M155">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -7129,24 +7060,24 @@
         <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="J156" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="K156" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L156">
         <v>4.91</v>
       </c>
       <c r="M156">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -7158,16 +7089,16 @@
         <v>5</v>
       </c>
       <c r="I157" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J157" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="K157" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="L157">
-        <v>4.87</v>
+        <v>4.97</v>
       </c>
       <c r="M157">
         <v>166</v>
@@ -7175,7 +7106,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>450</v>
+        <v>190</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -7187,24 +7118,24 @@
         <v>5</v>
       </c>
       <c r="I158" t="s">
-        <v>451</v>
+        <v>191</v>
       </c>
       <c r="J158" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
       <c r="K158" t="s">
-        <v>453</v>
+        <v>193</v>
       </c>
       <c r="L158">
-        <v>4.88</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M158">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -7216,24 +7147,24 @@
         <v>5</v>
       </c>
       <c r="I159" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="J159" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K159" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="L159">
         <v>5.0999999999999996</v>
       </c>
       <c r="M159">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -7245,16 +7176,16 @@
         <v>5</v>
       </c>
       <c r="I160" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="J160" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="K160" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="L160">
-        <v>4.8899999999999997</v>
+        <v>5.09</v>
       </c>
       <c r="M160">
         <v>162</v>
@@ -7262,7 +7193,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>93</v>
+        <v>385</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -7274,24 +7205,24 @@
         <v>5</v>
       </c>
       <c r="I161" t="s">
-        <v>94</v>
+        <v>386</v>
       </c>
       <c r="J161" t="s">
-        <v>95</v>
+        <v>387</v>
       </c>
       <c r="K161" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="L161">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="M161">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>365</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7303,24 +7234,24 @@
         <v>5</v>
       </c>
       <c r="I162" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="J162" t="s">
-        <v>19</v>
+        <v>367</v>
       </c>
       <c r="K162" t="s">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="L162">
-        <v>4.91</v>
+        <v>5.09</v>
       </c>
       <c r="M162">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -7332,24 +7263,24 @@
         <v>5</v>
       </c>
       <c r="I163" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="J163" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="K163" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="L163">
-        <v>4.97</v>
+        <v>5.07</v>
       </c>
       <c r="M163">
-        <v>166</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7361,24 +7292,24 @@
         <v>5</v>
       </c>
       <c r="I164" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="J164" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="K164" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="L164">
-        <v>5.0199999999999996</v>
+        <v>5.05</v>
       </c>
       <c r="M164">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>542</v>
+        <v>450</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -7390,24 +7321,24 @@
         <v>5</v>
       </c>
       <c r="I165" t="s">
-        <v>543</v>
+        <v>451</v>
       </c>
       <c r="J165" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="K165" t="s">
-        <v>540</v>
+        <v>453</v>
       </c>
       <c r="L165">
-        <v>5.0999999999999996</v>
+        <v>5.03</v>
       </c>
       <c r="M165">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>123</v>
+        <v>521</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -7419,24 +7350,24 @@
         <v>5</v>
       </c>
       <c r="I166" t="s">
-        <v>124</v>
+        <v>522</v>
       </c>
       <c r="J166" t="s">
-        <v>125</v>
+        <v>523</v>
       </c>
       <c r="K166" t="s">
-        <v>126</v>
+        <v>524</v>
       </c>
       <c r="L166">
-        <v>5.09</v>
+        <v>5.04</v>
       </c>
       <c r="M166">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -7448,24 +7379,24 @@
         <v>5</v>
       </c>
       <c r="I167" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="J167" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="K167" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="L167">
-        <v>5.01</v>
+        <v>5.05</v>
       </c>
       <c r="M167">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>373</v>
+        <v>518</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -7477,24 +7408,24 @@
         <v>5</v>
       </c>
       <c r="I168" t="s">
-        <v>374</v>
+        <v>519</v>
       </c>
       <c r="J168" t="s">
-        <v>375</v>
+        <v>520</v>
       </c>
       <c r="K168" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="L168">
-        <v>5.09</v>
+        <v>5.03</v>
       </c>
       <c r="M168">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>127</v>
+        <v>528</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -7506,24 +7437,24 @@
         <v>5</v>
       </c>
       <c r="I169" t="s">
-        <v>128</v>
+        <v>529</v>
       </c>
       <c r="J169" t="s">
-        <v>129</v>
+        <v>530</v>
       </c>
       <c r="K169" t="s">
-        <v>130</v>
+        <v>531</v>
       </c>
       <c r="L169">
-        <v>5.07</v>
+        <v>4.87</v>
       </c>
       <c r="M169">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -7535,24 +7466,24 @@
         <v>5</v>
       </c>
       <c r="I170" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="J170" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="K170" t="s">
+        <v>68</v>
+      </c>
+      <c r="L170">
+        <v>4.97</v>
+      </c>
+      <c r="M170">
         <v>162</v>
-      </c>
-      <c r="L170">
-        <v>5.05</v>
-      </c>
-      <c r="M170">
-        <v>155</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>462</v>
+        <v>186</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -7564,24 +7495,24 @@
         <v>5</v>
       </c>
       <c r="I171" t="s">
-        <v>463</v>
+        <v>187</v>
       </c>
       <c r="J171" t="s">
-        <v>464</v>
+        <v>188</v>
       </c>
       <c r="K171" t="s">
-        <v>465</v>
+        <v>189</v>
       </c>
       <c r="L171">
-        <v>5.03</v>
+        <v>4.91</v>
       </c>
       <c r="M171">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>537</v>
+        <v>668</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -7593,24 +7524,24 @@
         <v>5</v>
       </c>
       <c r="I172" t="s">
-        <v>538</v>
+        <v>669</v>
       </c>
       <c r="J172" t="s">
-        <v>539</v>
+        <v>670</v>
       </c>
       <c r="K172" t="s">
-        <v>540</v>
+        <v>48</v>
       </c>
       <c r="L172">
-        <v>5.04</v>
+        <v>5.14</v>
       </c>
       <c r="M172">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>416</v>
+        <v>693</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -7622,16 +7553,16 @@
         <v>5</v>
       </c>
       <c r="I173" t="s">
-        <v>417</v>
+        <v>694</v>
       </c>
       <c r="J173" t="s">
-        <v>418</v>
+        <v>695</v>
       </c>
       <c r="K173" t="s">
-        <v>419</v>
+        <v>48</v>
       </c>
       <c r="L173">
-        <v>5.05</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M173">
         <v>153</v>
@@ -7639,7 +7570,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>530</v>
+        <v>657</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -7651,24 +7582,24 @@
         <v>5</v>
       </c>
       <c r="I174" t="s">
-        <v>531</v>
+        <v>658</v>
       </c>
       <c r="J174" t="s">
-        <v>532</v>
+        <v>659</v>
       </c>
       <c r="K174" t="s">
-        <v>427</v>
+        <v>48</v>
       </c>
       <c r="L174">
-        <v>5.03</v>
+        <v>5.13</v>
       </c>
       <c r="M174">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>544</v>
+        <v>677</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -7680,24 +7611,24 @@
         <v>5</v>
       </c>
       <c r="I175" t="s">
-        <v>545</v>
+        <v>678</v>
       </c>
       <c r="J175" t="s">
-        <v>546</v>
+        <v>679</v>
       </c>
       <c r="K175" t="s">
-        <v>547</v>
+        <v>680</v>
       </c>
       <c r="L175">
-        <v>4.87</v>
+        <v>5.13</v>
       </c>
       <c r="M175">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>112</v>
+        <v>711</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -7709,24 +7640,24 @@
         <v>5</v>
       </c>
       <c r="I176" t="s">
-        <v>113</v>
+        <v>712</v>
       </c>
       <c r="J176" t="s">
-        <v>114</v>
+        <v>713</v>
       </c>
       <c r="K176" t="s">
-        <v>68</v>
+        <v>714</v>
       </c>
       <c r="L176">
-        <v>4.97</v>
+        <v>4.92</v>
       </c>
       <c r="M176">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>194</v>
+        <v>660</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -7738,24 +7669,24 @@
         <v>5</v>
       </c>
       <c r="I177" t="s">
-        <v>195</v>
+        <v>661</v>
       </c>
       <c r="J177" t="s">
-        <v>196</v>
+        <v>662</v>
       </c>
       <c r="K177" t="s">
-        <v>197</v>
+        <v>663</v>
       </c>
       <c r="L177">
-        <v>4.91</v>
+        <v>4.93</v>
       </c>
       <c r="M177">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>691</v>
+        <v>289</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -7767,24 +7698,24 @@
         <v>5</v>
       </c>
       <c r="I178" t="s">
-        <v>692</v>
+        <v>290</v>
       </c>
       <c r="J178" t="s">
-        <v>693</v>
+        <v>291</v>
       </c>
       <c r="K178" t="s">
-        <v>48</v>
+        <v>292</v>
       </c>
       <c r="L178">
-        <v>5.14</v>
+        <v>5.08</v>
       </c>
       <c r="M178">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>716</v>
+        <v>653</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -7796,24 +7727,24 @@
         <v>5</v>
       </c>
       <c r="I179" t="s">
-        <v>717</v>
+        <v>654</v>
       </c>
       <c r="J179" t="s">
-        <v>718</v>
+        <v>655</v>
       </c>
       <c r="K179" t="s">
-        <v>48</v>
+        <v>656</v>
       </c>
       <c r="L179">
-        <v>5.1100000000000003</v>
+        <v>4.99</v>
       </c>
       <c r="M179">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -7825,24 +7756,24 @@
         <v>5</v>
       </c>
       <c r="I180" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="J180" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="K180" t="s">
-        <v>48</v>
+        <v>710</v>
       </c>
       <c r="L180">
-        <v>5.13</v>
+        <v>5.09</v>
       </c>
       <c r="M180">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -7854,24 +7785,24 @@
         <v>5</v>
       </c>
       <c r="I181" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="J181" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="K181" t="s">
-        <v>703</v>
+        <v>60</v>
       </c>
       <c r="L181">
-        <v>5.13</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="M181">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>734</v>
+        <v>681</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -7883,24 +7814,24 @@
         <v>5</v>
       </c>
       <c r="I182" t="s">
-        <v>735</v>
+        <v>682</v>
       </c>
       <c r="J182" t="s">
-        <v>736</v>
+        <v>683</v>
       </c>
       <c r="K182" t="s">
-        <v>737</v>
+        <v>684</v>
       </c>
       <c r="L182">
-        <v>4.92</v>
+        <v>4.99</v>
       </c>
       <c r="M182">
-        <v>160</v>
+        <v>109</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>683</v>
+        <v>57</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -7912,230 +7843,56 @@
         <v>5</v>
       </c>
       <c r="I183" t="s">
-        <v>684</v>
+        <v>58</v>
       </c>
       <c r="J183" t="s">
-        <v>685</v>
+        <v>59</v>
       </c>
       <c r="K183" t="s">
-        <v>686</v>
+        <v>60</v>
       </c>
       <c r="L183">
-        <v>4.93</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M183">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I184" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="J184" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="K184" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="L184">
-        <v>5.08</v>
+        <v>3.13</v>
       </c>
       <c r="M184">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>676</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>5</v>
-      </c>
-      <c r="I185" t="s">
-        <v>677</v>
-      </c>
-      <c r="J185" t="s">
-        <v>678</v>
-      </c>
-      <c r="K185" t="s">
-        <v>679</v>
-      </c>
-      <c r="L185">
-        <v>4.99</v>
-      </c>
-      <c r="M185">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>730</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186">
-        <v>5</v>
-      </c>
-      <c r="I186" t="s">
-        <v>731</v>
-      </c>
-      <c r="J186" t="s">
-        <v>732</v>
-      </c>
-      <c r="K186" t="s">
-        <v>733</v>
-      </c>
-      <c r="L186">
-        <v>5.09</v>
-      </c>
-      <c r="M186">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>727</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="D187">
-        <v>5</v>
-      </c>
-      <c r="I187" t="s">
-        <v>728</v>
-      </c>
-      <c r="J187" t="s">
-        <v>729</v>
-      </c>
-      <c r="K187" t="s">
-        <v>60</v>
-      </c>
-      <c r="L187">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="M187">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>704</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-      <c r="D188">
-        <v>5</v>
-      </c>
-      <c r="I188" t="s">
-        <v>705</v>
-      </c>
-      <c r="J188" t="s">
-        <v>706</v>
-      </c>
-      <c r="K188" t="s">
-        <v>707</v>
-      </c>
-      <c r="L188">
-        <v>4.99</v>
-      </c>
-      <c r="M188">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>57</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-      <c r="D189">
-        <v>5</v>
-      </c>
-      <c r="I189" t="s">
-        <v>58</v>
-      </c>
-      <c r="J189" t="s">
-        <v>59</v>
-      </c>
-      <c r="K189" t="s">
-        <v>60</v>
-      </c>
-      <c r="L189">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M189">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>237</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>3</v>
-      </c>
-      <c r="I190" t="s">
-        <v>238</v>
-      </c>
-      <c r="J190" t="s">
-        <v>239</v>
-      </c>
-      <c r="K190" t="s">
-        <v>240</v>
-      </c>
-      <c r="L190">
-        <v>3.13</v>
-      </c>
-      <c r="M190">
         <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M190">
-    <sortCondition ref="B2:B190"/>
-    <sortCondition descending="1" ref="D2:D190"/>
-    <sortCondition ref="C2:C190"/>
-    <sortCondition ref="I2:I190"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M184">
+    <sortCondition ref="B2:B184"/>
+    <sortCondition descending="1" ref="D2:D184"/>
+    <sortCondition ref="C2:C184"/>
+    <sortCondition ref="I2:I184"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
